--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E96DA51-8087-4C9D-A015-76381786276D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3FD97-329D-4AAD-BE72-73E1840C6015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="-15960" windowWidth="24390" windowHeight="15000" tabRatio="369" xr2:uid="{AD59DA9D-35A8-4B31-92D0-5D674CC53964}"/>
+    <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="369" xr2:uid="{AD59DA9D-35A8-4B31-92D0-5D674CC53964}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="353">
   <si>
     <t>:SYSTem</t>
   </si>
@@ -1312,34 +1312,34 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1684,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F7F1F1-753D-4231-9A9E-58D8F2C4BCFA}">
   <dimension ref="A1:T207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="C153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1907,7 @@
       <c r="A20" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1931,7 +1931,7 @@
       <c r="A21" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="A22" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="A23" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
@@ -1991,8 +1991,8 @@
       <c r="A24" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2013,8 +2013,8 @@
       <c r="A25" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
@@ -2033,8 +2033,8 @@
       <c r="A26" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="A27" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="A28" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="18" t="s">
         <v>342</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="A30" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2132,8 +2132,8 @@
       <c r="A31" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2154,8 +2154,8 @@
       <c r="A32" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
@@ -2174,8 +2174,8 @@
       <c r="A33" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2197,8 +2197,8 @@
       <c r="A34" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2217,8 +2217,8 @@
       <c r="A35" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="A36" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="19" t="s">
         <v>20</v>
       </c>
@@ -2266,10 +2266,10 @@
       <c r="A38" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2297,9 +2297,9 @@
       <c r="A39" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2326,9 +2326,9 @@
       <c r="A40" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2353,9 +2353,9 @@
       <c r="A41" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2380,9 +2380,9 @@
       <c r="A42" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2407,8 +2407,8 @@
       <c r="A43" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2434,8 +2434,8 @@
       <c r="A44" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2461,12 +2461,12 @@
       <c r="A45" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="31" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -2489,10 +2489,10 @@
       <c r="A46" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="13" t="s">
         <v>34</v>
       </c>
@@ -2513,10 +2513,10 @@
       <c r="A47" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="13" t="s">
         <v>35</v>
       </c>
@@ -2537,10 +2537,10 @@
       <c r="A48" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="13" t="s">
         <v>36</v>
       </c>
@@ -2561,11 +2561,11 @@
       <c r="A49" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="13" t="s">
@@ -2587,11 +2587,11 @@
       <c r="A50" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="13" t="s">
         <v>39</v>
       </c>
@@ -2611,11 +2611,11 @@
       <c r="A51" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="13" t="s">
         <v>40</v>
       </c>
@@ -2635,11 +2635,11 @@
       <c r="A52" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="13" t="s">
         <v>41</v>
       </c>
@@ -2659,11 +2659,11 @@
       <c r="A53" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="13" t="s">
         <v>42</v>
       </c>
@@ -2683,10 +2683,10 @@
       <c r="A54" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="13" t="s">
         <v>43</v>
       </c>
@@ -2707,9 +2707,9 @@
       <c r="A55" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="13" t="s">
         <v>44</v>
       </c>
@@ -2731,10 +2731,10 @@
       <c r="A56" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28" t="s">
         <v>53</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -2757,10 +2757,10 @@
       <c r="A57" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="13" t="s">
         <v>34</v>
       </c>
@@ -2781,10 +2781,10 @@
       <c r="A58" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="13" t="s">
         <v>35</v>
       </c>
@@ -2805,10 +2805,10 @@
       <c r="A59" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="13" t="s">
         <v>36</v>
       </c>
@@ -2829,10 +2829,10 @@
       <c r="A60" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -2855,10 +2855,10 @@
       <c r="A61" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="13" t="s">
         <v>34</v>
       </c>
@@ -2879,10 +2879,10 @@
       <c r="A62" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="13" t="s">
         <v>35</v>
       </c>
@@ -2903,10 +2903,10 @@
       <c r="A63" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="13" t="s">
         <v>36</v>
       </c>
@@ -2927,8 +2927,8 @@
       <c r="A64" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="2" t="s">
         <v>56</v>
       </c>
@@ -2954,9 +2954,9 @@
       <c r="A65" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28" t="s">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2983,9 +2983,9 @@
       <c r="A66" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="2" t="s">
         <v>57</v>
       </c>
@@ -3010,9 +3010,9 @@
       <c r="A67" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="2" t="s">
         <v>43</v>
       </c>
@@ -3037,9 +3037,9 @@
       <c r="A68" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="29" t="s">
         <v>58</v>
       </c>
@@ -3063,9 +3063,9 @@
       <c r="A69" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="29"/>
       <c r="F69" s="11" t="s">
         <v>61</v>
@@ -3087,11 +3087,11 @@
       <c r="A70" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="29"/>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -3113,11 +3113,11 @@
       <c r="A71" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
+      <c r="F71" s="31"/>
       <c r="G71" s="11" t="s">
         <v>63</v>
       </c>
@@ -3137,11 +3137,11 @@
       <c r="A72" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
+      <c r="F72" s="31"/>
       <c r="G72" s="11" t="s">
         <v>64</v>
       </c>
@@ -3161,11 +3161,11 @@
       <c r="A73" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
+      <c r="F73" s="31"/>
       <c r="G73" s="11" t="s">
         <v>65</v>
       </c>
@@ -3185,11 +3185,11 @@
       <c r="A74" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
+      <c r="F74" s="31"/>
       <c r="G74" s="29" t="s">
         <v>66</v>
       </c>
@@ -3211,11 +3211,11 @@
       <c r="A75" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
+      <c r="F75" s="31"/>
       <c r="G75" s="29"/>
       <c r="H75" s="11" t="s">
         <v>61</v>
@@ -3235,11 +3235,11 @@
       <c r="A76" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
+      <c r="F76" s="31"/>
       <c r="G76" s="29" t="s">
         <v>68</v>
       </c>
@@ -3261,11 +3261,11 @@
       <c r="A77" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
+      <c r="F77" s="31"/>
       <c r="G77" s="29"/>
       <c r="H77" s="11" t="s">
         <v>63</v>
@@ -3285,11 +3285,11 @@
       <c r="A78" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="29"/>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -3311,11 +3311,11 @@
       <c r="A79" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="30"/>
+      <c r="F79" s="31"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
@@ -3335,11 +3335,11 @@
       <c r="A80" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="29"/>
-      <c r="F80" s="30"/>
+      <c r="F80" s="31"/>
       <c r="G80" s="11" t="s">
         <v>71</v>
       </c>
@@ -3359,11 +3359,11 @@
       <c r="A81" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
+      <c r="F81" s="31"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
@@ -3383,11 +3383,11 @@
       <c r="A82" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
+      <c r="F82" s="31"/>
       <c r="G82" s="11" t="s">
         <v>72</v>
       </c>
@@ -3407,11 +3407,11 @@
       <c r="A83" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="29"/>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="31" t="s">
         <v>73</v>
       </c>
       <c r="G83" s="11" t="s">
@@ -3433,11 +3433,11 @@
       <c r="A84" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="29"/>
-      <c r="F84" s="30"/>
+      <c r="F84" s="31"/>
       <c r="G84" s="11" t="s">
         <v>63</v>
       </c>
@@ -3457,11 +3457,11 @@
       <c r="A85" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="29"/>
-      <c r="F85" s="30"/>
+      <c r="F85" s="31"/>
       <c r="G85" s="11" t="s">
         <v>75</v>
       </c>
@@ -3481,11 +3481,11 @@
       <c r="A86" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="29"/>
-      <c r="F86" s="30"/>
+      <c r="F86" s="31"/>
       <c r="G86" s="11" t="s">
         <v>65</v>
       </c>
@@ -3505,11 +3505,11 @@
       <c r="A87" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="29"/>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="31" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3531,11 +3531,11 @@
       <c r="A88" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="29"/>
-      <c r="F88" s="30"/>
+      <c r="F88" s="31"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
@@ -3555,9 +3555,9 @@
       <c r="A89" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="29" t="s">
         <v>78</v>
       </c>
@@ -3581,9 +3581,9 @@
       <c r="A90" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="29"/>
       <c r="F90" s="11" t="s">
         <v>61</v>
@@ -3605,11 +3605,11 @@
       <c r="A91" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="29"/>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3631,11 +3631,11 @@
       <c r="A92" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="29"/>
-      <c r="F92" s="30"/>
+      <c r="F92" s="31"/>
       <c r="G92" s="11" t="s">
         <v>63</v>
       </c>
@@ -3655,11 +3655,11 @@
       <c r="A93" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
+      <c r="F93" s="31"/>
       <c r="G93" s="11" t="s">
         <v>64</v>
       </c>
@@ -3679,11 +3679,11 @@
       <c r="A94" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
       <c r="E94" s="29"/>
-      <c r="F94" s="30"/>
+      <c r="F94" s="31"/>
       <c r="G94" s="11" t="s">
         <v>65</v>
       </c>
@@ -3703,11 +3703,11 @@
       <c r="A95" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
       <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
+      <c r="F95" s="31"/>
       <c r="G95" s="29" t="s">
         <v>83</v>
       </c>
@@ -3729,11 +3729,11 @@
       <c r="A96" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="29"/>
-      <c r="F96" s="30"/>
+      <c r="F96" s="31"/>
       <c r="G96" s="29"/>
       <c r="H96" s="11" t="s">
         <v>61</v>
@@ -3753,9 +3753,9 @@
       <c r="A97" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
       <c r="E97" s="29"/>
       <c r="F97" s="17" t="s">
         <v>79</v>
@@ -3777,9 +3777,9 @@
       <c r="A98" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="29"/>
       <c r="F98" s="17" t="s">
         <v>80</v>
@@ -3801,11 +3801,11 @@
       <c r="A99" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="29"/>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3827,11 +3827,11 @@
       <c r="A100" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
       <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
+      <c r="F100" s="31"/>
       <c r="G100" s="11" t="s">
         <v>82</v>
       </c>
@@ -3851,11 +3851,11 @@
       <c r="A101" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
       <c r="E101" s="29"/>
-      <c r="F101" s="30"/>
+      <c r="F101" s="31"/>
       <c r="G101" s="11" t="s">
         <v>70</v>
       </c>
@@ -3875,11 +3875,11 @@
       <c r="A102" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="30"/>
+      <c r="F102" s="31"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
@@ -3899,11 +3899,11 @@
       <c r="A103" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="29"/>
-      <c r="F103" s="30"/>
+      <c r="F103" s="31"/>
       <c r="G103" s="11" t="s">
         <v>71</v>
       </c>
@@ -3923,11 +3923,11 @@
       <c r="A104" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
       <c r="E104" s="29"/>
-      <c r="F104" s="30"/>
+      <c r="F104" s="31"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
@@ -3947,11 +3947,11 @@
       <c r="A105" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
       <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
+      <c r="F105" s="31"/>
       <c r="G105" s="11" t="s">
         <v>72</v>
       </c>
@@ -3971,11 +3971,11 @@
       <c r="A106" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
       <c r="E106" s="29"/>
-      <c r="F106" s="30"/>
+      <c r="F106" s="31"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
@@ -3995,11 +3995,11 @@
       <c r="A107" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
       <c r="E107" s="29"/>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="31" t="s">
         <v>73</v>
       </c>
       <c r="G107" s="11" t="s">
@@ -4021,11 +4021,11 @@
       <c r="A108" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
       <c r="E108" s="29"/>
-      <c r="F108" s="30"/>
+      <c r="F108" s="31"/>
       <c r="G108" s="11" t="s">
         <v>63</v>
       </c>
@@ -4045,11 +4045,11 @@
       <c r="A109" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
       <c r="E109" s="29"/>
-      <c r="F109" s="30"/>
+      <c r="F109" s="31"/>
       <c r="G109" s="11" t="s">
         <v>75</v>
       </c>
@@ -4069,11 +4069,11 @@
       <c r="A110" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
       <c r="E110" s="29"/>
-      <c r="F110" s="30"/>
+      <c r="F110" s="31"/>
       <c r="G110" s="11" t="s">
         <v>65</v>
       </c>
@@ -4093,11 +4093,11 @@
       <c r="A111" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
       <c r="E111" s="29"/>
-      <c r="F111" s="30" t="s">
+      <c r="F111" s="31" t="s">
         <v>76</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -4119,11 +4119,11 @@
       <c r="A112" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
       <c r="E112" s="29"/>
-      <c r="F112" s="30"/>
+      <c r="F112" s="31"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
@@ -4143,9 +4143,9 @@
       <c r="A113" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
       <c r="E113" s="29" t="s">
         <v>84</v>
       </c>
@@ -4169,9 +4169,9 @@
       <c r="A114" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
       <c r="E114" s="29"/>
       <c r="F114" s="11" t="s">
         <v>61</v>
@@ -4193,11 +4193,11 @@
       <c r="A115" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
       <c r="E115" s="29"/>
-      <c r="F115" s="30" t="s">
+      <c r="F115" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -4219,11 +4219,11 @@
       <c r="A116" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
       <c r="E116" s="29"/>
-      <c r="F116" s="30"/>
+      <c r="F116" s="31"/>
       <c r="G116" s="11" t="s">
         <v>63</v>
       </c>
@@ -4243,11 +4243,11 @@
       <c r="A117" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
       <c r="E117" s="29"/>
-      <c r="F117" s="30"/>
+      <c r="F117" s="31"/>
       <c r="G117" s="11" t="s">
         <v>64</v>
       </c>
@@ -4267,11 +4267,11 @@
       <c r="A118" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
       <c r="E118" s="29"/>
-      <c r="F118" s="30"/>
+      <c r="F118" s="31"/>
       <c r="G118" s="11" t="s">
         <v>65</v>
       </c>
@@ -4291,11 +4291,11 @@
       <c r="A119" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
       <c r="E119" s="29"/>
-      <c r="F119" s="30" t="s">
+      <c r="F119" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -4317,11 +4317,11 @@
       <c r="A120" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
       <c r="E120" s="29"/>
-      <c r="F120" s="30"/>
+      <c r="F120" s="31"/>
       <c r="G120" s="11" t="s">
         <v>82</v>
       </c>
@@ -4341,11 +4341,11 @@
       <c r="A121" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
       <c r="E121" s="29"/>
-      <c r="F121" s="30"/>
+      <c r="F121" s="31"/>
       <c r="G121" s="11" t="s">
         <v>70</v>
       </c>
@@ -4365,11 +4365,11 @@
       <c r="A122" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
       <c r="E122" s="29"/>
-      <c r="F122" s="30"/>
+      <c r="F122" s="31"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
@@ -4389,11 +4389,11 @@
       <c r="A123" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
       <c r="E123" s="29"/>
-      <c r="F123" s="30"/>
+      <c r="F123" s="31"/>
       <c r="G123" s="11" t="s">
         <v>71</v>
       </c>
@@ -4413,11 +4413,11 @@
       <c r="A124" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
       <c r="E124" s="29"/>
-      <c r="F124" s="30"/>
+      <c r="F124" s="31"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
@@ -4437,11 +4437,11 @@
       <c r="A125" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
       <c r="E125" s="29"/>
-      <c r="F125" s="30"/>
+      <c r="F125" s="31"/>
       <c r="G125" s="11" t="s">
         <v>72</v>
       </c>
@@ -4461,11 +4461,11 @@
       <c r="A126" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
       <c r="E126" s="29"/>
-      <c r="F126" s="30"/>
+      <c r="F126" s="31"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
@@ -4485,11 +4485,11 @@
       <c r="A127" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
       <c r="E127" s="29"/>
-      <c r="F127" s="30" t="s">
+      <c r="F127" s="31" t="s">
         <v>85</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4511,11 +4511,11 @@
       <c r="A128" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
       <c r="E128" s="29"/>
-      <c r="F128" s="30"/>
+      <c r="F128" s="31"/>
       <c r="G128" s="11" t="s">
         <v>87</v>
       </c>
@@ -4535,11 +4535,11 @@
       <c r="A129" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
       <c r="E129" s="29"/>
-      <c r="F129" s="30"/>
+      <c r="F129" s="31"/>
       <c r="G129" s="11" t="s">
         <v>88</v>
       </c>
@@ -4559,11 +4559,11 @@
       <c r="A130" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
       <c r="E130" s="29"/>
-      <c r="F130" s="30"/>
+      <c r="F130" s="31"/>
       <c r="G130" s="11" t="s">
         <v>89</v>
       </c>
@@ -4583,11 +4583,11 @@
       <c r="A131" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
       <c r="E131" s="29"/>
-      <c r="F131" s="30"/>
+      <c r="F131" s="31"/>
       <c r="G131" s="11" t="s">
         <v>90</v>
       </c>
@@ -4607,11 +4607,11 @@
       <c r="A132" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
       <c r="E132" s="29"/>
-      <c r="F132" s="30"/>
+      <c r="F132" s="31"/>
       <c r="G132" s="11" t="s">
         <v>91</v>
       </c>
@@ -4631,11 +4631,11 @@
       <c r="A133" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
       <c r="E133" s="29"/>
-      <c r="F133" s="30" t="s">
+      <c r="F133" s="31" t="s">
         <v>73</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4657,11 +4657,11 @@
       <c r="A134" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
       <c r="E134" s="29"/>
-      <c r="F134" s="30"/>
+      <c r="F134" s="31"/>
       <c r="G134" s="11" t="s">
         <v>63</v>
       </c>
@@ -4681,11 +4681,11 @@
       <c r="A135" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
       <c r="E135" s="29"/>
-      <c r="F135" s="30"/>
+      <c r="F135" s="31"/>
       <c r="G135" s="11" t="s">
         <v>75</v>
       </c>
@@ -4705,11 +4705,11 @@
       <c r="A136" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
       <c r="E136" s="29"/>
-      <c r="F136" s="30"/>
+      <c r="F136" s="31"/>
       <c r="G136" s="11" t="s">
         <v>65</v>
       </c>
@@ -4729,13 +4729,13 @@
       <c r="A137" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
       <c r="E137" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F137" s="30" t="s">
+      <c r="F137" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G137" s="11" t="s">
@@ -4757,11 +4757,11 @@
       <c r="A138" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
       <c r="E138" s="29"/>
-      <c r="F138" s="30"/>
+      <c r="F138" s="31"/>
       <c r="G138" s="11" t="s">
         <v>94</v>
       </c>
@@ -4781,11 +4781,11 @@
       <c r="A139" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
       <c r="E139" s="29"/>
-      <c r="F139" s="30"/>
+      <c r="F139" s="31"/>
       <c r="G139" s="11" t="s">
         <v>95</v>
       </c>
@@ -4805,11 +4805,11 @@
       <c r="A140" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
       <c r="E140" s="29"/>
-      <c r="F140" s="30"/>
+      <c r="F140" s="31"/>
       <c r="G140" s="11" t="s">
         <v>96</v>
       </c>
@@ -4829,14 +4829,14 @@
       <c r="A141" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
       <c r="E141" s="29"/>
-      <c r="F141" s="33" t="s">
+      <c r="F141" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G141" s="34" t="s">
+      <c r="G141" s="25" t="s">
         <v>74</v>
       </c>
       <c r="H141" s="11"/>
@@ -4855,12 +4855,12 @@
       <c r="A142" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
       <c r="E142" s="29"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="34" t="s">
+      <c r="F142" s="32"/>
+      <c r="G142" s="25" t="s">
         <v>63</v>
       </c>
       <c r="H142" s="11"/>
@@ -4879,12 +4879,12 @@
       <c r="A143" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
       <c r="E143" s="29"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="34" t="s">
+      <c r="F143" s="32"/>
+      <c r="G143" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H143" s="11"/>
@@ -4903,12 +4903,12 @@
       <c r="A144" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
       <c r="E144" s="29"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="34" t="s">
+      <c r="F144" s="32"/>
+      <c r="G144" s="25" t="s">
         <v>65</v>
       </c>
       <c r="H144" s="11"/>
@@ -4927,9 +4927,9 @@
       <c r="A145" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
       <c r="E145" s="29"/>
       <c r="F145" s="11" t="s">
         <v>97</v>
@@ -4951,9 +4951,9 @@
       <c r="A146" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
       <c r="E146" s="29"/>
       <c r="F146" s="29" t="s">
         <v>98</v>
@@ -4977,9 +4977,9 @@
       <c r="A147" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
       <c r="E147" s="29"/>
       <c r="F147" s="29"/>
       <c r="G147" s="11" t="s">
@@ -5001,9 +5001,9 @@
       <c r="A148" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
       <c r="E148" s="29"/>
       <c r="F148" s="11" t="s">
         <v>99</v>
@@ -5025,9 +5025,9 @@
       <c r="A149" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
       <c r="E149" s="29"/>
       <c r="F149" s="11" t="s">
         <v>100</v>
@@ -5049,9 +5049,9 @@
       <c r="A150" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
       <c r="E150" s="29" t="s">
         <v>105</v>
       </c>
@@ -5075,9 +5075,9 @@
       <c r="A151" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
       <c r="E151" s="29"/>
       <c r="F151" s="11" t="s">
         <v>102</v>
@@ -5099,9 +5099,9 @@
       <c r="A152" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
       <c r="E152" s="29"/>
       <c r="F152" s="11" t="s">
         <v>103</v>
@@ -5123,9 +5123,9 @@
       <c r="A153" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
       <c r="E153" s="29"/>
       <c r="F153" s="11" t="s">
         <v>104</v>
@@ -5147,9 +5147,9 @@
       <c r="A154" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
       <c r="E154" s="29"/>
       <c r="F154" s="29" t="s">
         <v>37</v>
@@ -5173,9 +5173,9 @@
       <c r="A155" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
       <c r="E155" s="29"/>
       <c r="F155" s="29"/>
       <c r="G155" s="11" t="s">
@@ -5197,9 +5197,9 @@
       <c r="A156" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28" t="s">
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30" t="s">
         <v>106</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -5208,6 +5208,9 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
+      <c r="K156" t="s">
+        <v>296</v>
+      </c>
       <c r="P156" t="s">
         <v>296</v>
       </c>
@@ -5220,15 +5223,18 @@
       <c r="A157" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
       <c r="E157" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
+      <c r="K157" t="s">
+        <v>297</v>
+      </c>
       <c r="P157" t="s">
         <v>297</v>
       </c>
@@ -5241,15 +5247,18 @@
       <c r="A158" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
       <c r="E158" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
+      <c r="K158" t="s">
+        <v>298</v>
+      </c>
       <c r="P158" t="s">
         <v>298</v>
       </c>
@@ -5262,15 +5271,18 @@
       <c r="A159" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
       <c r="E159" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
+      <c r="K159" t="s">
+        <v>299</v>
+      </c>
       <c r="P159" t="s">
         <v>299</v>
       </c>
@@ -5283,15 +5295,18 @@
       <c r="A160" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
       <c r="E160" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
+      <c r="K160" t="s">
+        <v>300</v>
+      </c>
       <c r="P160" t="s">
         <v>300</v>
       </c>
@@ -5304,15 +5319,18 @@
       <c r="A161" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
       <c r="E161" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
+      <c r="K161" t="s">
+        <v>301</v>
+      </c>
       <c r="P161" t="s">
         <v>301</v>
       </c>
@@ -5325,15 +5343,18 @@
       <c r="A162" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
       <c r="E162" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
+      <c r="K162" t="s">
+        <v>302</v>
+      </c>
       <c r="P162" t="s">
         <v>302</v>
       </c>
@@ -5346,15 +5367,18 @@
       <c r="A163" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
       <c r="E163" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
+      <c r="K163" t="s">
+        <v>303</v>
+      </c>
       <c r="P163" t="s">
         <v>303</v>
       </c>
@@ -5367,15 +5391,18 @@
       <c r="A164" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
       <c r="E164" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
+      <c r="K164" t="s">
+        <v>304</v>
+      </c>
       <c r="P164" t="s">
         <v>304</v>
       </c>
@@ -5388,15 +5415,18 @@
       <c r="A165" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
       <c r="E165" s="8" t="s">
         <v>113</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
+      <c r="K165" t="s">
+        <v>305</v>
+      </c>
       <c r="P165" t="s">
         <v>305</v>
       </c>
@@ -5409,15 +5439,18 @@
       <c r="A166" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
       <c r="E166" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
+      <c r="K166" t="s">
+        <v>306</v>
+      </c>
       <c r="P166" t="s">
         <v>306</v>
       </c>
@@ -5430,15 +5463,18 @@
       <c r="A167" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
       <c r="E167" s="8" t="s">
         <v>115</v>
       </c>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
+      <c r="K167" t="s">
+        <v>307</v>
+      </c>
       <c r="P167" t="s">
         <v>307</v>
       </c>
@@ -5451,15 +5487,18 @@
       <c r="A168" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
       <c r="E168" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
+      <c r="K168" t="s">
+        <v>308</v>
+      </c>
       <c r="P168" t="s">
         <v>308</v>
       </c>
@@ -5472,15 +5511,18 @@
       <c r="A169" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
       <c r="E169" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
+      <c r="K169" t="s">
+        <v>309</v>
+      </c>
       <c r="P169" t="s">
         <v>309</v>
       </c>
@@ -5493,15 +5535,18 @@
       <c r="A170" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
       <c r="E170" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
+      <c r="K170" t="s">
+        <v>310</v>
+      </c>
       <c r="P170" t="s">
         <v>310</v>
       </c>
@@ -5514,15 +5559,18 @@
       <c r="A171" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
       <c r="E171" s="8" t="s">
         <v>119</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
+      <c r="K171" t="s">
+        <v>311</v>
+      </c>
       <c r="P171" t="s">
         <v>311</v>
       </c>
@@ -5535,15 +5583,18 @@
       <c r="A172" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
       <c r="E172" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
+      <c r="K172" t="s">
+        <v>312</v>
+      </c>
       <c r="P172" t="s">
         <v>312</v>
       </c>
@@ -5556,15 +5607,18 @@
       <c r="A173" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
       <c r="E173" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
+      <c r="K173" t="s">
+        <v>313</v>
+      </c>
       <c r="P173" t="s">
         <v>313</v>
       </c>
@@ -5577,15 +5631,18 @@
       <c r="A174" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
       <c r="E174" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
+      <c r="K174" t="s">
+        <v>314</v>
+      </c>
       <c r="P174" t="s">
         <v>314</v>
       </c>
@@ -5598,15 +5655,18 @@
       <c r="A175" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
       <c r="E175" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
+      <c r="K175" t="s">
+        <v>315</v>
+      </c>
       <c r="P175" t="s">
         <v>315</v>
       </c>
@@ -5619,15 +5679,18 @@
       <c r="A176" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
       <c r="E176" s="8" t="s">
         <v>124</v>
       </c>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
+      <c r="K176" t="s">
+        <v>316</v>
+      </c>
       <c r="P176" t="s">
         <v>316</v>
       </c>
@@ -5640,15 +5703,18 @@
       <c r="A177" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
       <c r="E177" s="8" t="s">
         <v>125</v>
       </c>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
+      <c r="K177" t="s">
+        <v>317</v>
+      </c>
       <c r="P177" t="s">
         <v>317</v>
       </c>
@@ -5661,15 +5727,18 @@
       <c r="A178" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
       <c r="E178" s="8" t="s">
         <v>126</v>
       </c>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
+      <c r="K178" t="s">
+        <v>318</v>
+      </c>
       <c r="P178" t="s">
         <v>318</v>
       </c>
@@ -5682,15 +5751,18 @@
       <c r="A179" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
       <c r="E179" s="8" t="s">
         <v>127</v>
       </c>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
+      <c r="K179" t="s">
+        <v>319</v>
+      </c>
       <c r="P179" t="s">
         <v>319</v>
       </c>
@@ -5703,15 +5775,18 @@
       <c r="A180" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
       <c r="E180" s="8" t="s">
         <v>128</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
+      <c r="K180" t="s">
+        <v>320</v>
+      </c>
       <c r="P180" t="s">
         <v>320</v>
       </c>
@@ -5724,15 +5799,18 @@
       <c r="A181" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
       <c r="E181" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
+      <c r="K181" t="s">
+        <v>321</v>
+      </c>
       <c r="P181" t="s">
         <v>321</v>
       </c>
@@ -5745,15 +5823,18 @@
       <c r="A182" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B182" s="28"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
       <c r="E182" s="8" t="s">
         <v>130</v>
       </c>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
+      <c r="K182" t="s">
+        <v>322</v>
+      </c>
       <c r="P182" t="s">
         <v>322</v>
       </c>
@@ -5766,15 +5847,18 @@
       <c r="A183" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
       <c r="E183" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
+      <c r="K183" t="s">
+        <v>323</v>
+      </c>
       <c r="P183" t="s">
         <v>323</v>
       </c>
@@ -5787,15 +5871,18 @@
       <c r="A184" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
       <c r="E184" s="8" t="s">
         <v>132</v>
       </c>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
+      <c r="K184" t="s">
+        <v>324</v>
+      </c>
       <c r="P184" t="s">
         <v>324</v>
       </c>
@@ -5808,15 +5895,18 @@
       <c r="A185" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
       <c r="E185" s="8" t="s">
         <v>133</v>
       </c>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
+      <c r="K185" t="s">
+        <v>325</v>
+      </c>
       <c r="P185" t="s">
         <v>325</v>
       </c>
@@ -5829,15 +5919,18 @@
       <c r="A186" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
       <c r="E186" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
+      <c r="K186" t="s">
+        <v>326</v>
+      </c>
       <c r="P186" t="s">
         <v>326</v>
       </c>
@@ -5850,15 +5943,18 @@
       <c r="A187" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
       <c r="E187" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
+      <c r="K187" t="s">
+        <v>302</v>
+      </c>
       <c r="P187" t="s">
         <v>302</v>
       </c>
@@ -5871,15 +5967,18 @@
       <c r="A188" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
       <c r="E188" s="8" t="s">
         <v>135</v>
       </c>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
+      <c r="K188" t="s">
+        <v>327</v>
+      </c>
       <c r="P188" t="s">
         <v>327</v>
       </c>
@@ -5892,15 +5991,18 @@
       <c r="A189" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B189" s="28"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
       <c r="E189" s="8" t="s">
         <v>136</v>
       </c>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
+      <c r="K189" t="s">
+        <v>328</v>
+      </c>
       <c r="P189" t="s">
         <v>328</v>
       </c>
@@ -5913,15 +6015,18 @@
       <c r="A190" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
       <c r="E190" s="8" t="s">
         <v>137</v>
       </c>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
+      <c r="K190" t="s">
+        <v>329</v>
+      </c>
       <c r="P190" t="s">
         <v>329</v>
       </c>
@@ -5934,15 +6039,18 @@
       <c r="A191" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
       <c r="E191" s="8" t="s">
         <v>138</v>
       </c>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
+      <c r="K191" t="s">
+        <v>330</v>
+      </c>
       <c r="P191" t="s">
         <v>330</v>
       </c>
@@ -5955,15 +6063,18 @@
       <c r="A192" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B192" s="28"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="30"/>
       <c r="E192" s="8" t="s">
         <v>139</v>
       </c>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
+      <c r="K192" t="s">
+        <v>331</v>
+      </c>
       <c r="P192" t="s">
         <v>331</v>
       </c>
@@ -5976,15 +6087,18 @@
       <c r="A193" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
       <c r="E193" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
+      <c r="K193" t="s">
+        <v>332</v>
+      </c>
       <c r="P193" t="s">
         <v>332</v>
       </c>
@@ -5994,15 +6108,18 @@
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B194" s="28"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
       <c r="E194" s="8" t="s">
         <v>141</v>
       </c>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
+      <c r="K194" t="s">
+        <v>333</v>
+      </c>
       <c r="P194" t="s">
         <v>333</v>
       </c>
@@ -6036,19 +6153,19 @@
       <c r="A200" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B200" s="25" t="s">
+      <c r="B200" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D200" s="25" t="s">
+      <c r="D200" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E200" s="32" t="s">
+      <c r="E200" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F200" s="25" t="s">
+      <c r="F200" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G200" s="9" t="s">
@@ -6067,11 +6184,11 @@
       <c r="A201" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="25"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="27"/>
       <c r="G201" s="9" t="s">
         <v>47</v>
       </c>
@@ -6088,10 +6205,10 @@
       <c r="A202" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B202" s="25"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="32"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="26"/>
       <c r="F202" s="9" t="s">
         <v>48</v>
       </c>
@@ -6109,10 +6226,10 @@
       <c r="A203" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B203" s="25"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="32"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="26"/>
       <c r="F203" s="9" t="s">
         <v>34</v>
       </c>
@@ -6130,10 +6247,10 @@
       <c r="A204" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B204" s="25"/>
-      <c r="C204" s="25"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="32"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="26"/>
       <c r="F204" s="9" t="s">
         <v>49</v>
       </c>
@@ -6151,10 +6268,10 @@
       <c r="A205" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="32"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="26"/>
       <c r="F205" s="9" t="s">
         <v>35</v>
       </c>
@@ -6172,10 +6289,10 @@
       <c r="A206" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="32"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="26"/>
       <c r="F206" s="9" t="s">
         <v>50</v>
       </c>
@@ -6193,10 +6310,10 @@
       <c r="A207" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="32"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="26"/>
       <c r="F207" s="9" t="s">
         <v>36</v>
       </c>
@@ -6212,6 +6329,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B200:B207"/>
+    <mergeCell ref="D200:D207"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B194"/>
+    <mergeCell ref="C200:C207"/>
+    <mergeCell ref="C38:C194"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="E68:E88"/>
+    <mergeCell ref="E89:E112"/>
     <mergeCell ref="E200:E207"/>
     <mergeCell ref="F200:F201"/>
     <mergeCell ref="E56:E59"/>
@@ -6228,34 +6373,6 @@
     <mergeCell ref="E137:E149"/>
     <mergeCell ref="F115:F118"/>
     <mergeCell ref="F119:F126"/>
-    <mergeCell ref="F127:F132"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="E68:E88"/>
-    <mergeCell ref="E89:E112"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B200:B207"/>
-    <mergeCell ref="D200:D207"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B194"/>
-    <mergeCell ref="C200:C207"/>
-    <mergeCell ref="C38:C194"/>
-    <mergeCell ref="D39:D42"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingra\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3FD97-329D-4AAD-BE72-73E1840C6015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="369" xr2:uid="{AD59DA9D-35A8-4B31-92D0-5D674CC53964}"/>
+    <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="274">
   <si>
     <t>:SYSTem</t>
   </si>
@@ -446,21 +445,12 @@
     <t>:NUMber</t>
   </si>
   <si>
-    <t>:PART</t>
-  </si>
-  <si>
     <t>:PART?</t>
   </si>
   <si>
-    <t>:LOT</t>
-  </si>
-  <si>
     <t>:LOT?</t>
   </si>
   <si>
-    <t>:SERIal</t>
-  </si>
-  <si>
     <t>:SERIal?</t>
   </si>
   <si>
@@ -548,9 +538,6 @@
     <t>:SYSTem:ROUNDing &lt;boolean&gt;|ON|OFF</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>:MEMory:DELete:LOCAtion &lt;register number&gt;</t>
   </si>
   <si>
@@ -662,213 +649,6 @@
     <t>:SOURce:SAFEty:STEP &lt;n&gt;:MODE?</t>
   </si>
   <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel] &lt;numeric value</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:FALL &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH] &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel] &lt;numeric value</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW &lt;boolean&gt;|ON|OFF</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH] &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel] &lt;numeric value</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer] &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer &lt;numeric_value&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO &lt;ON/OFF or Boolean&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH] &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW?</t>
-  </si>
-  <si>
     <t>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:OPEN &lt;numeric_value&gt;</t>
   </si>
   <si>
@@ -1019,51 +799,6 @@
     <t>:SOURce:SAFEty:PRESet:RJUDgment &lt;Boolean&gt;|ON|OFF</t>
   </si>
   <si>
-    <t>:SOURce:SAFEty:PRESet:NUMber</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:PRESet:PART</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:PRESet:PART?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:PRESet:LOT</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:PRESet:LOT?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:PRESet:SERIal</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:PRESet:SERIal?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage] &lt;Boolean&gt; |ON|OFF</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort:OMETerage &lt;Boolean&gt; |ON|OFF</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort:OMETerage?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort:MMETerage &lt;Boolean&gt; |ON|OFF</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort:MMETerage?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort:RMETerage</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:RESult:AREPort:RMETerage?</t>
-  </si>
-  <si>
     <t>:ROUNDing?</t>
   </si>
   <si>
@@ -1095,13 +830,40 @@
   </si>
   <si>
     <t>Configuration/Test Parameters</t>
+  </si>
+  <si>
+    <t>:PART&lt;string data&gt;</t>
+  </si>
+  <si>
+    <t>:LOT&lt;string data&gt;</t>
+  </si>
+  <si>
+    <t>:SERIal&lt;string data&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:PRESet:NUMber:PART&lt;string data&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:PRESet:NUMber:PART?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:PRESet:NUMber:LOT&lt;string data&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:PRESet:NUMber:LOT?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:PRESet:NUMber:SERIal&lt;string data&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:PRESet:NUMber:SERIal?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1260,11 +1022,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,10 +1114,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,20 +1132,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,233 +1492,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F7F1F1-753D-4231-9A9E-58D8F2C4BCFA}">
-  <dimension ref="A1:T207"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="D153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K196" sqref="K196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.25" customWidth="1"/>
     <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="63" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="23.25">
       <c r="A1" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="23.25">
       <c r="C2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" t="s">
+        <v>261</v>
+      </c>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s">
+        <v>261</v>
+      </c>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" t="s">
+        <v>261</v>
+      </c>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="I3" t="s">
-        <v>349</v>
-      </c>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="I6" t="s">
+        <v>261</v>
+      </c>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="I4" t="s">
-        <v>349</v>
-      </c>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="I7" t="s">
+        <v>261</v>
+      </c>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I5" t="s">
-        <v>349</v>
-      </c>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="I8" t="s">
+        <v>261</v>
+      </c>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I6" t="s">
-        <v>349</v>
-      </c>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="I9" t="s">
+        <v>261</v>
+      </c>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="I7" t="s">
-        <v>349</v>
-      </c>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="I10" t="s">
+        <v>261</v>
+      </c>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I8" t="s">
-        <v>349</v>
-      </c>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="I11" t="s">
+        <v>261</v>
+      </c>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I9" t="s">
-        <v>349</v>
-      </c>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="I12" t="s">
+        <v>261</v>
+      </c>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I10" t="s">
-        <v>349</v>
-      </c>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="I13" t="s">
+        <v>261</v>
+      </c>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I11" t="s">
-        <v>349</v>
-      </c>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" t="s">
-        <v>349</v>
-      </c>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" t="s">
-        <v>349</v>
-      </c>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="I14" t="s">
-        <v>349</v>
-      </c>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I15" t="s">
-        <v>349</v>
-      </c>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="A16" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>349</v>
-      </c>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1">
       <c r="A17" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>349</v>
-      </c>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="T18" s="12"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1">
+      <c r="S18" s="12"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1917,198 +1727,195 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
-      </c>
-      <c r="T20" t="str">
+        <v>159</v>
+      </c>
+      <c r="S20" t="str">
         <f>CONCATENATE($B$20,C20,D20)</f>
         <v>:SYSTem:ERRor:[NEXT]</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="B21" s="27"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="6"/>
       <c r="I21" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
-      </c>
-      <c r="T21" t="str">
+        <v>160</v>
+      </c>
+      <c r="S21" t="str">
         <f>CONCATENATE($B$20,C21,D21)</f>
         <v>:SYSTem:VERSion?</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="B22" s="27"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="6"/>
       <c r="I22" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
-      </c>
-      <c r="T22" t="str">
+        <v>161</v>
+      </c>
+      <c r="S22" t="str">
         <f>CONCATENATE($B$20,C22,D22)</f>
         <v>:SYSTem:KLOCk &lt;boolean&gt; |ON|OFF</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6"/>
       <c r="I23" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K23" t="s">
-        <v>165</v>
-      </c>
-      <c r="T23" t="str">
+        <v>162</v>
+      </c>
+      <c r="S23" t="str">
         <f>CONCATENATE($B$20,C23,D23)</f>
         <v>:SYSTem:KLOCk</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
-      </c>
-      <c r="T24" t="str">
+        <v>163</v>
+      </c>
+      <c r="S24" t="str">
         <f>CONCATENATE($B$20,$C$24,D24)</f>
         <v>:SYSTem:LOCK:OWNer?</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>167</v>
-      </c>
-      <c r="T25" t="str">
+        <v>164</v>
+      </c>
+      <c r="S25" t="str">
         <f>CONCATENATE($B$20,$C$24,D25)</f>
         <v>:SYSTem:LOCK:REQuest</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>168</v>
-      </c>
-      <c r="T26" t="str">
+        <v>165</v>
+      </c>
+      <c r="S26" t="str">
         <f>CONCATENATE($B$20,$C$24,D26)</f>
         <v>:SYSTem:LOCK:RELease</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" s="33"/>
+        <v>256</v>
+      </c>
+      <c r="B27" s="27"/>
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="20" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="I27" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="T27" t="str">
+        <v>166</v>
+      </c>
+      <c r="S27" t="str">
         <f>CONCATENATE($B$20,C27,D27)</f>
         <v>:SYSTem:ROUNDing &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B28" s="33"/>
+        <v>256</v>
+      </c>
+      <c r="B28" s="27"/>
       <c r="C28" s="18" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="20" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="I28" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="T28" t="str">
+        <v>255</v>
+      </c>
+      <c r="S28" t="str">
         <f>CONCATENATE($B$20,C28,D28)</f>
         <v>:SYSTem:ROUNDing?</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P29" t="s">
-        <v>170</v>
-      </c>
-      <c r="T29" t="str">
+    <row r="29" spans="1:19">
+      <c r="S29" t="str">
         <f>CONCATENATE(B29,C29,D29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2118,64 +1925,64 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>171</v>
-      </c>
-      <c r="T30" t="str">
+        <v>167</v>
+      </c>
+      <c r="S30" t="str">
         <f>CONCATENATE($B$30,C30,D30)</f>
         <v>:MEMory:DELete:LOCAtion &lt;register number&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s">
-        <v>172</v>
-      </c>
-      <c r="T31" t="str">
+        <v>168</v>
+      </c>
+      <c r="S31" t="str">
         <f>CONCATENATE($B$30,$C$31,D31)</f>
         <v>:MEMory:FREE:STEP?</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+        <v>158</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
-      </c>
-      <c r="T32" t="str">
+        <v>169</v>
+      </c>
+      <c r="S32" t="str">
         <f>CONCATENATE($B$30,$C$31,D32)</f>
         <v>:MEMory:FREE:STATe?</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2183,93 +1990,90 @@
       </c>
       <c r="E33" s="7"/>
       <c r="I33" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s">
-        <v>174</v>
-      </c>
-      <c r="T33" t="str">
+        <v>170</v>
+      </c>
+      <c r="S33" t="str">
         <f>CONCATENATE($B$30,$C$33,D33)</f>
         <v>:MEMory:STATe:DEFine &lt;name&gt;, &lt;register number&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+        <v>158</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>175</v>
-      </c>
-      <c r="T34" t="str">
+        <v>171</v>
+      </c>
+      <c r="S34" t="str">
         <f>CONCATENATE($B$30,$C$33,D34)</f>
         <v>:MEMory:STATe:DEFine? &lt;name&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+        <v>158</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>176</v>
-      </c>
-      <c r="T35" t="str">
+        <v>172</v>
+      </c>
+      <c r="S35" t="str">
         <f>CONCATENATE($B$30,$C$33,D35)</f>
         <v>:MEMory:STATe:LABEl? &lt;register number&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="34"/>
+        <v>158</v>
+      </c>
+      <c r="B36" s="28"/>
       <c r="C36" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1"/>
       <c r="I36" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>177</v>
-      </c>
-      <c r="T36" t="str">
+        <v>173</v>
+      </c>
+      <c r="S36" t="str">
         <f>CONCATENATE($B$30,C36,D36)</f>
         <v>:MEMory:NSTAtes?</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P37" t="s">
-        <v>170</v>
-      </c>
-      <c r="T37" t="str">
+    <row r="37" spans="1:19">
+      <c r="S37" t="str">
         <f>CONCATENATE(B37,C37,D37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2280,26 +2084,23 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="K38" t="s">
-        <v>178</v>
-      </c>
-      <c r="P38" t="s">
-        <v>178</v>
-      </c>
-      <c r="T38" t="str">
+        <v>174</v>
+      </c>
+      <c r="S38" t="str">
         <f>CONCATENATE($B$38,$C$38,D38,E38,F38,$G$38)</f>
         <v>:SOURce:SAFEty:FETCh? [ &lt;item&gt; ] { , &lt;item&gt; }</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2309,26 +2110,23 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="K39" t="s">
-        <v>179</v>
-      </c>
-      <c r="P39" t="s">
-        <v>179</v>
-      </c>
-      <c r="T39" t="str">
+        <v>175</v>
+      </c>
+      <c r="S39" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$39,E39,F39,$G$38)</f>
         <v>:SOURce:SAFEty:STARt[:ONCE]</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2336,26 +2134,23 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s">
-        <v>180</v>
-      </c>
-      <c r="P40" t="s">
-        <v>180</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" ref="T40:T42" si="0">CONCATENATE($B$38,$C$38,$D$39,E40,F40,$G$38)</f>
+        <v>176</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" ref="S40:S42" si="0">CONCATENATE($B$38,$C$38,$D$39,E40,F40,$G$38)</f>
         <v>:SOURce:SAFEty:STARt:OFFSet GET|OFF</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2363,26 +2158,23 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
-      </c>
-      <c r="P41" t="s">
-        <v>181</v>
-      </c>
-      <c r="T41" t="str">
+        <v>177</v>
+      </c>
+      <c r="S41" t="str">
         <f t="shared" si="0"/>
         <v>:SOURce:SAFEty:STARt:OFFSet?</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2390,25 +2182,22 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
-      </c>
-      <c r="P42" t="s">
-        <v>182</v>
-      </c>
-      <c r="T42" t="str">
+        <v>178</v>
+      </c>
+      <c r="S42" t="str">
         <f t="shared" si="0"/>
         <v>:SOURce:SAFEty:STARt:CSTandard</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2417,25 +2206,22 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="K43" t="s">
-        <v>183</v>
-      </c>
-      <c r="P43" t="s">
-        <v>183</v>
-      </c>
-      <c r="T43" t="str">
+        <v>179</v>
+      </c>
+      <c r="S43" t="str">
         <f>CONCATENATE($B$38,$C$38,D43,E43)</f>
         <v>:SOURce:SAFEty:STOP</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2444,29 +2230,26 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="K44" t="s">
-        <v>184</v>
-      </c>
-      <c r="P44" t="s">
-        <v>184</v>
-      </c>
-      <c r="T44" t="str">
+        <v>180</v>
+      </c>
+      <c r="S44" t="str">
         <f>CONCATENATE($B$38,$C$38,D44,E44)</f>
         <v>:SOURce:SAFEty:STATus?</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="30" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -2475,97 +2258,85 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="K45" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="P45" t="s">
-        <v>185</v>
-      </c>
-      <c r="T45" t="str">
+        <v>181</v>
+      </c>
+      <c r="S45" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,F45,G45)</f>
         <v>:SOURce:SAFEty:RESult:ALL[:JUDGment]?</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="K46" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="P46" t="s">
-        <v>186</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" ref="T46:T48" si="1">CONCATENATE($B$38,$C$38,$D$45,$E$45,F46,G46)</f>
+        <v>182</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" ref="S46:S48" si="1">CONCATENATE($B$38,$C$38,$D$45,$E$45,F46,G46)</f>
         <v>:SOURce:SAFEty:RESult:ALL:OMETerage?</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="K47" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="P47" t="s">
-        <v>187</v>
-      </c>
-      <c r="T47" t="str">
+        <v>183</v>
+      </c>
+      <c r="S47" t="str">
         <f t="shared" si="1"/>
         <v>:SOURce:SAFEty:RESult:ALL:MMETerage?</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="K48" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="P48" t="s">
-        <v>188</v>
-      </c>
-      <c r="T48" t="str">
+        <v>184</v>
+      </c>
+      <c r="S48" t="str">
         <f t="shared" si="1"/>
         <v>:SOURce:SAFEty:RESult:ALL:RMETerage?</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="13" t="s">
@@ -2573,143 +2344,125 @@
       </c>
       <c r="H49" s="13"/>
       <c r="K49" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="P49" t="s">
-        <v>189</v>
-      </c>
-      <c r="T49" t="str">
+        <v>185</v>
+      </c>
+      <c r="S49" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,$F$49,G49)</f>
         <v>:SOURce:SAFEty:RESult:ALL:TIME[:ELAPsed]</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
       <c r="G50" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H50" s="13"/>
       <c r="K50" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="P50" t="s">
-        <v>190</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" ref="T50:T53" si="2">CONCATENATE($B$38,$C$38,$D$45,$E$45,$F$49,G50)</f>
+        <v>186</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" ref="S50:S53" si="2">CONCATENATE($B$38,$C$38,$D$45,$E$45,$F$49,G50)</f>
         <v>:SOURce:SAFEty:RESult:ALL:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="13"/>
       <c r="K51" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="P51" t="s">
-        <v>191</v>
-      </c>
-      <c r="T51" t="str">
+        <v>187</v>
+      </c>
+      <c r="S51" t="str">
         <f t="shared" si="2"/>
         <v>:SOURce:SAFEty:RESult:ALL:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H52" s="13"/>
       <c r="K52" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="P52" t="s">
-        <v>192</v>
-      </c>
-      <c r="T52" t="str">
+        <v>188</v>
+      </c>
+      <c r="S52" t="str">
         <f t="shared" si="2"/>
         <v>:SOURce:SAFEty:RESult:ALL:TIME:FALL?</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H53" s="13"/>
       <c r="K53" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="P53" t="s">
-        <v>193</v>
-      </c>
-      <c r="T53" t="str">
+        <v>189</v>
+      </c>
+      <c r="S53" t="str">
         <f t="shared" si="2"/>
         <v>:SOURce:SAFEty:RESult:ALL:TIME:DWELl</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="K54" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="P54" t="s">
-        <v>194</v>
-      </c>
-      <c r="T54" t="str">
+        <v>190</v>
+      </c>
+      <c r="S54" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,F54,G54)</f>
         <v>:SOURce:SAFEty:RESult:ALL:MODE?</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="13" t="s">
         <v>44</v>
       </c>
@@ -2717,24 +2470,21 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="K55" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="P55" t="s">
-        <v>195</v>
-      </c>
-      <c r="T55" t="str">
+        <v>191</v>
+      </c>
+      <c r="S55" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,E55,F55,G55,H55)</f>
         <v>:SOURce:SAFEty:RESult:COMPleted?</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30" t="s">
         <v>53</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -2743,96 +2493,84 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="K56" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="P56" t="s">
-        <v>196</v>
-      </c>
-      <c r="T56" t="str">
+        <v>192</v>
+      </c>
+      <c r="S56" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F56,G56,H56)</f>
         <v>:SOURce:SAFEty:RESult[:LAST][:JUDGment]?</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="K57" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="P57" t="s">
-        <v>197</v>
-      </c>
-      <c r="T57" t="str">
+        <v>193</v>
+      </c>
+      <c r="S57" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F57,G57,H57)</f>
         <v>:SOURce:SAFEty:RESult[:LAST]:OMETerage?</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="K58" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="P58" t="s">
-        <v>198</v>
-      </c>
-      <c r="T58" t="str">
+        <v>194</v>
+      </c>
+      <c r="S58" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F58,G58,H58)</f>
         <v>:SOURce:SAFEty:RESult[:LAST]:MMETerage?</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="K59" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="P59" t="s">
-        <v>199</v>
-      </c>
-      <c r="T59" t="str">
+        <v>195</v>
+      </c>
+      <c r="S59" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F59,G59,H59)</f>
         <v>:SOURce:SAFEty:RESult[:LAST]:RMETerage?</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -2841,94 +2579,82 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="K60" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="P60" t="s">
-        <v>200</v>
-      </c>
-      <c r="T60" t="str">
+        <v>196</v>
+      </c>
+      <c r="S60" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F60,G60,H60)</f>
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:[JUDGment]?</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
       <c r="F61" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="K61" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="P61" t="s">
-        <v>201</v>
-      </c>
-      <c r="T61" t="str">
+        <v>197</v>
+      </c>
+      <c r="S61" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F61,G61,H61)</f>
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:OMETerage?</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
       <c r="F62" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="K62" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="P62" t="s">
-        <v>202</v>
-      </c>
-      <c r="T62" t="str">
+        <v>198</v>
+      </c>
+      <c r="S62" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F62,G62,H62)</f>
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:MMETerage?</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+        <v>256</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
       <c r="F63" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="K63" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="P63" t="s">
-        <v>203</v>
-      </c>
-      <c r="T63" t="str">
+        <v>199</v>
+      </c>
+      <c r="S63" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F63,G63,H63)</f>
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:RMETerage?</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="2" t="s">
         <v>56</v>
       </c>
@@ -2937,26 +2663,23 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="K64" t="s">
-        <v>204</v>
-      </c>
-      <c r="P64" t="s">
-        <v>204</v>
-      </c>
-      <c r="T64" t="str">
+        <v>200</v>
+      </c>
+      <c r="S64" t="str">
         <f>CONCATENATE($B$38,$C$38,D64,E64,F64,G64,H64)</f>
         <v>:SOURce:SAFEty:SNUMber?</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2966,26 +2689,23 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="K65" t="s">
-        <v>205</v>
-      </c>
-      <c r="P65" t="s">
-        <v>205</v>
-      </c>
-      <c r="T65" t="str">
+        <v>201</v>
+      </c>
+      <c r="S65" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E65,F65,G65,H65)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DELete</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="2" t="s">
         <v>57</v>
       </c>
@@ -2993,26 +2713,23 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="K66" t="s">
-        <v>206</v>
-      </c>
-      <c r="P66" t="s">
-        <v>206</v>
-      </c>
-      <c r="T66" t="str">
+        <v>202</v>
+      </c>
+      <c r="S66" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E66,F66,G66,H66)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:SET?</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="2" t="s">
         <v>43</v>
       </c>
@@ -3020,27 +2737,24 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="K67" t="s">
-        <v>207</v>
-      </c>
-      <c r="P67" t="s">
-        <v>207</v>
-      </c>
-      <c r="T67" t="str">
+        <v>203</v>
+      </c>
+      <c r="S67" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E67,F67,G67,H67)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:MODE?</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="31" t="s">
         <v>58</v>
       </c>
       <c r="F68" s="17" t="s">
@@ -3049,49 +2763,43 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" t="s">
-        <v>352</v>
-      </c>
-      <c r="P68" t="s">
-        <v>208</v>
-      </c>
-      <c r="T68" t="str">
+        <v>264</v>
+      </c>
+      <c r="S68" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F68,G68,H68)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel] &lt;numeric value</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" t="s">
-        <v>352</v>
-      </c>
-      <c r="P69" t="s">
-        <v>209</v>
-      </c>
-      <c r="T69" t="str">
+        <v>264</v>
+      </c>
+      <c r="S69" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F69,G69,H69)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel]?</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -3099,197 +2807,173 @@
       </c>
       <c r="H70" s="11"/>
       <c r="I70" t="s">
-        <v>352</v>
-      </c>
-      <c r="P70" t="s">
-        <v>210</v>
-      </c>
-      <c r="T70" t="str">
+        <v>264</v>
+      </c>
+      <c r="S70" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G70,H70)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="32"/>
       <c r="G71" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" t="s">
-        <v>352</v>
-      </c>
-      <c r="P71" t="s">
-        <v>211</v>
-      </c>
-      <c r="T71" t="str">
+        <v>264</v>
+      </c>
+      <c r="S71" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G71,H71)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH]?</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
       <c r="G72" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" t="s">
-        <v>352</v>
-      </c>
-      <c r="P72" t="s">
-        <v>212</v>
-      </c>
-      <c r="T72" t="str">
+        <v>264</v>
+      </c>
+      <c r="S72" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G72,H72)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="32"/>
       <c r="G73" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" t="s">
-        <v>352</v>
-      </c>
-      <c r="P73" t="s">
-        <v>213</v>
-      </c>
-      <c r="T73" t="str">
+        <v>264</v>
+      </c>
+      <c r="S73" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G73,H73)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW?</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="31" t="s">
         <v>66</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>67</v>
       </c>
       <c r="I74" t="s">
-        <v>352</v>
-      </c>
-      <c r="P74" t="s">
-        <v>214</v>
-      </c>
-      <c r="T74" t="str">
+        <v>264</v>
+      </c>
+      <c r="S74" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H74)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="31"/>
       <c r="H75" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I75" t="s">
-        <v>352</v>
-      </c>
-      <c r="P75" t="s">
-        <v>215</v>
-      </c>
-      <c r="T75" t="str">
+        <v>264</v>
+      </c>
+      <c r="S75" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H75)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel]?</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="31" t="s">
         <v>68</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I76" t="s">
-        <v>352</v>
-      </c>
-      <c r="P76" t="s">
-        <v>216</v>
-      </c>
-      <c r="T76" t="str">
+        <v>264</v>
+      </c>
+      <c r="S76" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H76)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="31"/>
       <c r="H77" s="11" t="s">
         <v>63</v>
       </c>
       <c r="I77" t="s">
-        <v>352</v>
-      </c>
-      <c r="P77" t="s">
-        <v>217</v>
-      </c>
-      <c r="T77" t="str">
+        <v>264</v>
+      </c>
+      <c r="S77" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H77)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]?</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -3297,121 +2981,106 @@
       </c>
       <c r="H78" s="11"/>
       <c r="I78" t="s">
-        <v>352</v>
-      </c>
-      <c r="P78" t="s">
-        <v>218</v>
-      </c>
-      <c r="T78" t="str">
+        <v>264</v>
+      </c>
+      <c r="S78" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G78,H78)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="32"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" t="s">
-        <v>352</v>
-      </c>
-      <c r="P79" t="s">
-        <v>219</v>
-      </c>
-      <c r="T79" t="str">
-        <f t="shared" ref="T79:T82" si="3">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G79,H79)</f>
+        <v>264</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" ref="S79:S82" si="3">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G79,H79)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="32"/>
       <c r="G80" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" t="s">
-        <v>352</v>
-      </c>
-      <c r="P80" t="s">
-        <v>220</v>
-      </c>
-      <c r="T80" t="str">
+        <v>264</v>
+      </c>
+      <c r="S80" t="str">
         <f t="shared" si="3"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="32"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" t="s">
-        <v>352</v>
-      </c>
-      <c r="P81" t="s">
-        <v>221</v>
-      </c>
-      <c r="T81" t="str">
+        <v>264</v>
+      </c>
+      <c r="S81" t="str">
         <f t="shared" si="3"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="32"/>
       <c r="G82" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" t="s">
-        <v>352</v>
-      </c>
-      <c r="P82" t="s">
-        <v>222</v>
-      </c>
-      <c r="T82" t="str">
+        <v>264</v>
+      </c>
+      <c r="S82" t="str">
         <f t="shared" si="3"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:FALL &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32" t="s">
         <v>73</v>
       </c>
       <c r="G83" s="11" t="s">
@@ -3419,97 +3088,85 @@
       </c>
       <c r="H83" s="11"/>
       <c r="I83" t="s">
-        <v>352</v>
-      </c>
-      <c r="P83" t="s">
-        <v>223</v>
-      </c>
-      <c r="T83" t="str">
+        <v>264</v>
+      </c>
+      <c r="S83" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G83,H83)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19">
       <c r="A84" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="32"/>
       <c r="G84" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" t="s">
-        <v>352</v>
-      </c>
-      <c r="P84" t="s">
-        <v>224</v>
-      </c>
-      <c r="T84" t="str">
-        <f t="shared" ref="T84:T86" si="4">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G84,H84)</f>
+        <v>264</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" ref="S84:S86" si="4">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G84,H84)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="32"/>
       <c r="G85" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" t="s">
-        <v>352</v>
-      </c>
-      <c r="P85" t="s">
-        <v>225</v>
-      </c>
-      <c r="T85" t="str">
+        <v>264</v>
+      </c>
+      <c r="S85" t="str">
         <f t="shared" si="4"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="32"/>
       <c r="G86" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" t="s">
-        <v>352</v>
-      </c>
-      <c r="P86" t="s">
-        <v>226</v>
-      </c>
-      <c r="T86" t="str">
+        <v>264</v>
+      </c>
+      <c r="S86" t="str">
         <f t="shared" si="4"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="32" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3517,48 +3174,42 @@
       </c>
       <c r="H87" s="11"/>
       <c r="I87" t="s">
-        <v>352</v>
-      </c>
-      <c r="P87" t="s">
-        <v>227</v>
-      </c>
-      <c r="T87" t="str">
+        <v>264</v>
+      </c>
+      <c r="S87" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G87,H87)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="32"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" t="s">
-        <v>352</v>
-      </c>
-      <c r="P88" t="s">
-        <v>228</v>
-      </c>
-      <c r="T88" t="str">
+        <v>264</v>
+      </c>
+      <c r="S88" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G88,H88)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet?</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="17" t="s">
@@ -3567,49 +3218,43 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" t="s">
-        <v>352</v>
-      </c>
-      <c r="P89" t="s">
-        <v>229</v>
-      </c>
-      <c r="T89" t="str">
+        <v>264</v>
+      </c>
+      <c r="S89" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F89,G89,H89)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel] &lt;numeric value</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" t="s">
-        <v>352</v>
-      </c>
-      <c r="P90" t="s">
-        <v>230</v>
-      </c>
-      <c r="T90" t="str">
+        <v>264</v>
+      </c>
+      <c r="S90" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F90,G90,H90)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel]?</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3617,195 +3262,171 @@
       </c>
       <c r="H91" s="11"/>
       <c r="I91" t="s">
-        <v>352</v>
-      </c>
-      <c r="P91" t="s">
-        <v>231</v>
-      </c>
-      <c r="T91" t="str">
+        <v>264</v>
+      </c>
+      <c r="S91" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G91,H91)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
       <c r="G92" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" t="s">
-        <v>352</v>
-      </c>
-      <c r="P92" t="s">
-        <v>232</v>
-      </c>
-      <c r="T92" t="str">
-        <f t="shared" ref="T92:T94" si="5">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G92,H92)</f>
+        <v>264</v>
+      </c>
+      <c r="S92" t="str">
+        <f t="shared" ref="S92:S94" si="5">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G92,H92)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH]?</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19">
       <c r="A93" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="32"/>
       <c r="G93" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" t="s">
-        <v>352</v>
-      </c>
-      <c r="P93" t="s">
-        <v>233</v>
-      </c>
-      <c r="T93" t="str">
+        <v>264</v>
+      </c>
+      <c r="S93" t="str">
         <f t="shared" si="5"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19">
       <c r="A94" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="32"/>
       <c r="G94" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" t="s">
-        <v>352</v>
-      </c>
-      <c r="P94" t="s">
-        <v>234</v>
-      </c>
-      <c r="T94" t="str">
+        <v>264</v>
+      </c>
+      <c r="S94" t="str">
         <f t="shared" si="5"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW?</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="31" t="s">
         <v>83</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>67</v>
       </c>
       <c r="I95" t="s">
-        <v>352</v>
-      </c>
-      <c r="P95" t="s">
-        <v>235</v>
-      </c>
-      <c r="T95" t="str">
+        <v>264</v>
+      </c>
+      <c r="S95" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H95)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="31"/>
       <c r="H96" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I96" t="s">
-        <v>352</v>
-      </c>
-      <c r="P96" t="s">
-        <v>236</v>
-      </c>
-      <c r="T96" t="str">
+        <v>264</v>
+      </c>
+      <c r="S96" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H96)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel]?</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="31"/>
       <c r="F97" s="17" t="s">
         <v>79</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" t="s">
-        <v>352</v>
-      </c>
-      <c r="P97" t="s">
-        <v>237</v>
-      </c>
-      <c r="T97" t="str">
-        <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F97,G835,H97)</f>
+        <v>264</v>
+      </c>
+      <c r="S97" t="str">
+        <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F97,G834,H97)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="31"/>
       <c r="F98" s="17" t="s">
         <v>80</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" t="s">
-        <v>352</v>
-      </c>
-      <c r="P98" t="s">
-        <v>238</v>
-      </c>
-      <c r="T98" t="str">
-        <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F98,G836,H98)</f>
+        <v>264</v>
+      </c>
+      <c r="S98" t="str">
+        <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F98,G835,H98)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3813,193 +3434,169 @@
       </c>
       <c r="H99" s="11"/>
       <c r="I99" t="s">
-        <v>352</v>
-      </c>
-      <c r="P99" t="s">
-        <v>239</v>
-      </c>
-      <c r="T99" t="str">
+        <v>264</v>
+      </c>
+      <c r="S99" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G99,H99)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="32"/>
       <c r="G100" s="11" t="s">
         <v>82</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" t="s">
-        <v>352</v>
-      </c>
-      <c r="P100" t="s">
-        <v>240</v>
-      </c>
-      <c r="T100" t="str">
-        <f t="shared" ref="T100:T106" si="6">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G100,H100)</f>
+        <v>264</v>
+      </c>
+      <c r="S100" t="str">
+        <f t="shared" ref="S100:S106" si="6">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G100,H100)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl?</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="32"/>
       <c r="G101" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" t="s">
-        <v>352</v>
-      </c>
-      <c r="P101" t="s">
-        <v>241</v>
-      </c>
-      <c r="T101" t="str">
+        <v>264</v>
+      </c>
+      <c r="S101" t="str">
         <f t="shared" si="6"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="32"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" t="s">
-        <v>352</v>
-      </c>
-      <c r="P102" t="s">
-        <v>242</v>
-      </c>
-      <c r="T102" t="str">
+        <v>264</v>
+      </c>
+      <c r="S102" t="str">
         <f t="shared" si="6"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="32"/>
       <c r="G103" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" t="s">
-        <v>352</v>
-      </c>
-      <c r="P103" t="s">
-        <v>243</v>
-      </c>
-      <c r="T103" t="str">
+        <v>264</v>
+      </c>
+      <c r="S103" t="str">
         <f t="shared" si="6"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="32"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" t="s">
-        <v>352</v>
-      </c>
-      <c r="P104" t="s">
-        <v>244</v>
-      </c>
-      <c r="T104" t="str">
+        <v>264</v>
+      </c>
+      <c r="S104" t="str">
         <f t="shared" si="6"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="32"/>
       <c r="G105" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" t="s">
-        <v>352</v>
-      </c>
-      <c r="P105" t="s">
-        <v>245</v>
-      </c>
-      <c r="T105" t="str">
+        <v>264</v>
+      </c>
+      <c r="S105" t="str">
         <f t="shared" si="6"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="32"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" t="s">
-        <v>352</v>
-      </c>
-      <c r="P106" t="s">
-        <v>246</v>
-      </c>
-      <c r="T106" t="str">
+        <v>264</v>
+      </c>
+      <c r="S106" t="str">
         <f t="shared" si="6"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL?</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="A107" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="32" t="s">
         <v>73</v>
       </c>
       <c r="G107" s="11" t="s">
@@ -4007,97 +3604,85 @@
       </c>
       <c r="H107" s="11"/>
       <c r="I107" t="s">
-        <v>352</v>
-      </c>
-      <c r="P107" t="s">
-        <v>247</v>
-      </c>
-      <c r="T107" t="str">
+        <v>264</v>
+      </c>
+      <c r="S107" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G107,H107)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="32"/>
       <c r="G108" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" t="s">
-        <v>352</v>
-      </c>
-      <c r="P108" t="s">
-        <v>248</v>
-      </c>
-      <c r="T108" t="str">
+        <v>264</v>
+      </c>
+      <c r="S108" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G108,H108)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="32"/>
       <c r="G109" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" t="s">
-        <v>352</v>
-      </c>
-      <c r="P109" t="s">
-        <v>249</v>
-      </c>
-      <c r="T109" t="str">
+        <v>264</v>
+      </c>
+      <c r="S109" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G109,H109)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="32"/>
       <c r="G110" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" t="s">
-        <v>352</v>
-      </c>
-      <c r="P110" t="s">
-        <v>250</v>
-      </c>
-      <c r="T110" t="str">
+        <v>264</v>
+      </c>
+      <c r="S110" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G110,H110)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="32" t="s">
         <v>76</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -4105,48 +3690,42 @@
       </c>
       <c r="H111" s="11"/>
       <c r="I111" t="s">
-        <v>352</v>
-      </c>
-      <c r="P111" t="s">
-        <v>251</v>
-      </c>
-      <c r="T111" t="str">
+        <v>264</v>
+      </c>
+      <c r="S111" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G111,H111)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="A112" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="32"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" t="s">
-        <v>352</v>
-      </c>
-      <c r="P112" t="s">
-        <v>252</v>
-      </c>
-      <c r="T112" t="str">
+        <v>264</v>
+      </c>
+      <c r="S112" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G112,H112)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet?</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19">
       <c r="A113" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="31" t="s">
         <v>84</v>
       </c>
       <c r="F113" s="17" t="s">
@@ -4155,49 +3734,43 @@
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" t="s">
-        <v>352</v>
-      </c>
-      <c r="P113" t="s">
-        <v>253</v>
-      </c>
-      <c r="T113" t="str">
+        <v>264</v>
+      </c>
+      <c r="S113" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F113,G113,H113)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel] &lt;numeric value</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19">
       <c r="A114" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" t="s">
-        <v>352</v>
-      </c>
-      <c r="P114" t="s">
-        <v>254</v>
-      </c>
-      <c r="T114" t="str">
+        <v>264</v>
+      </c>
+      <c r="S114" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F114,G114,H114)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel]?</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19">
       <c r="A115" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -4205,97 +3778,85 @@
       </c>
       <c r="H115" s="11"/>
       <c r="I115" t="s">
-        <v>352</v>
-      </c>
-      <c r="P115" t="s">
-        <v>255</v>
-      </c>
-      <c r="T115" t="str">
+        <v>264</v>
+      </c>
+      <c r="S115" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G115,H115)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19">
       <c r="A116" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="32"/>
       <c r="G116" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116" t="s">
-        <v>352</v>
-      </c>
-      <c r="P116" t="s">
-        <v>256</v>
-      </c>
-      <c r="T116" t="str">
+        <v>264</v>
+      </c>
+      <c r="S116" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G116,H116)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH]?</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19">
       <c r="A117" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="32"/>
       <c r="G117" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" t="s">
-        <v>352</v>
-      </c>
-      <c r="P117" t="s">
-        <v>257</v>
-      </c>
-      <c r="T117" t="str">
+        <v>264</v>
+      </c>
+      <c r="S117" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G117,H117)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19">
       <c r="A118" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="32"/>
       <c r="G118" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H118" s="11"/>
       <c r="I118" t="s">
-        <v>352</v>
-      </c>
-      <c r="P118" t="s">
-        <v>258</v>
-      </c>
-      <c r="T118" t="str">
+        <v>264</v>
+      </c>
+      <c r="S118" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G118,H118)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW?</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19">
       <c r="A119" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -4303,193 +3864,169 @@
       </c>
       <c r="H119" s="11"/>
       <c r="I119" t="s">
-        <v>352</v>
-      </c>
-      <c r="P119" t="s">
-        <v>259</v>
-      </c>
-      <c r="T119" t="str">
-        <f t="shared" ref="T119:T126" si="7">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$119,G119,H119)</f>
+        <v>264</v>
+      </c>
+      <c r="S119" t="str">
+        <f t="shared" ref="S119:S126" si="7">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$119,G119,H119)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19">
       <c r="A120" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="32"/>
       <c r="G120" s="11" t="s">
         <v>82</v>
       </c>
       <c r="H120" s="11"/>
       <c r="I120" t="s">
-        <v>352</v>
-      </c>
-      <c r="P120" t="s">
-        <v>260</v>
-      </c>
-      <c r="T120" t="str">
+        <v>264</v>
+      </c>
+      <c r="S120" t="str">
         <f t="shared" si="7"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl?</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19">
       <c r="A121" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="32"/>
       <c r="G121" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" t="s">
-        <v>352</v>
-      </c>
-      <c r="P121" t="s">
-        <v>261</v>
-      </c>
-      <c r="T121" t="str">
+        <v>264</v>
+      </c>
+      <c r="S121" t="str">
         <f t="shared" si="7"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19">
       <c r="A122" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="32"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" t="s">
-        <v>352</v>
-      </c>
-      <c r="P122" t="s">
-        <v>262</v>
-      </c>
-      <c r="T122" t="str">
+        <v>264</v>
+      </c>
+      <c r="S122" t="str">
         <f t="shared" si="7"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19">
       <c r="A123" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="32"/>
       <c r="G123" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" t="s">
-        <v>352</v>
-      </c>
-      <c r="P123" t="s">
-        <v>263</v>
-      </c>
-      <c r="T123" t="str">
+        <v>264</v>
+      </c>
+      <c r="S123" t="str">
         <f t="shared" si="7"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19">
       <c r="A124" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="32"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" t="s">
-        <v>352</v>
-      </c>
-      <c r="P124" t="s">
-        <v>264</v>
-      </c>
-      <c r="T124" t="str">
+        <v>264</v>
+      </c>
+      <c r="S124" t="str">
         <f t="shared" si="7"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19">
       <c r="A125" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="32"/>
       <c r="G125" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H125" s="11"/>
       <c r="I125" t="s">
-        <v>352</v>
-      </c>
-      <c r="P125" t="s">
-        <v>265</v>
-      </c>
-      <c r="T125" t="str">
+        <v>264</v>
+      </c>
+      <c r="S125" t="str">
         <f t="shared" si="7"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19">
       <c r="A126" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="32"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H126" s="11"/>
       <c r="I126" t="s">
-        <v>352</v>
-      </c>
-      <c r="P126" t="s">
-        <v>266</v>
-      </c>
-      <c r="T126" t="str">
+        <v>264</v>
+      </c>
+      <c r="S126" t="str">
         <f t="shared" si="7"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL?</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19">
       <c r="A127" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4497,145 +4034,127 @@
       </c>
       <c r="H127" s="11"/>
       <c r="I127" t="s">
-        <v>352</v>
-      </c>
-      <c r="P127" t="s">
-        <v>267</v>
-      </c>
-      <c r="T127" t="str">
-        <f t="shared" ref="T127:T132" si="8">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$127,G127,H127)</f>
+        <v>264</v>
+      </c>
+      <c r="S127" t="str">
+        <f t="shared" ref="S127:S132" si="8">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$127,G127,H127)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19">
       <c r="A128" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="32"/>
       <c r="G128" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H128" s="11"/>
       <c r="I128" t="s">
-        <v>352</v>
-      </c>
-      <c r="P128" t="s">
-        <v>268</v>
-      </c>
-      <c r="T128" t="str">
+        <v>264</v>
+      </c>
+      <c r="S128" t="str">
         <f t="shared" si="8"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer]?</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19">
       <c r="A129" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="32"/>
       <c r="G129" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" t="s">
-        <v>352</v>
-      </c>
-      <c r="P129" t="s">
-        <v>269</v>
-      </c>
-      <c r="T129" t="str">
+        <v>264</v>
+      </c>
+      <c r="S129" t="str">
         <f t="shared" si="8"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19">
       <c r="A130" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="32"/>
       <c r="G130" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H130" s="11"/>
       <c r="I130" t="s">
-        <v>352</v>
-      </c>
-      <c r="P130" t="s">
-        <v>270</v>
-      </c>
-      <c r="T130" t="str">
+        <v>264</v>
+      </c>
+      <c r="S130" t="str">
         <f t="shared" si="8"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer?</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19">
       <c r="A131" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="32"/>
       <c r="G131" s="11" t="s">
         <v>90</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" t="s">
-        <v>352</v>
-      </c>
-      <c r="P131" t="s">
-        <v>271</v>
-      </c>
-      <c r="T131" t="str">
+        <v>264</v>
+      </c>
+      <c r="S131" t="str">
         <f t="shared" si="8"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO &lt;ON/OFF or Boolean&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19">
       <c r="A132" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="32"/>
       <c r="G132" s="11" t="s">
         <v>91</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" t="s">
-        <v>352</v>
-      </c>
-      <c r="P132" t="s">
-        <v>272</v>
-      </c>
-      <c r="T132" t="str">
+        <v>264</v>
+      </c>
+      <c r="S132" t="str">
         <f t="shared" si="8"/>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO?</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19">
       <c r="A133" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32" t="s">
         <v>73</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4643,99 +4162,87 @@
       </c>
       <c r="H133" s="11"/>
       <c r="I133" t="s">
-        <v>352</v>
-      </c>
-      <c r="P133" t="s">
-        <v>273</v>
-      </c>
-      <c r="T133" t="str">
+        <v>264</v>
+      </c>
+      <c r="S133" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G133,H133)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19">
       <c r="A134" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="32"/>
       <c r="G134" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H134" s="11"/>
       <c r="I134" t="s">
-        <v>352</v>
-      </c>
-      <c r="P134" t="s">
-        <v>274</v>
-      </c>
-      <c r="T134" t="str">
+        <v>264</v>
+      </c>
+      <c r="S134" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G134,H134)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19">
       <c r="A135" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="32"/>
       <c r="G135" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H135" s="11"/>
       <c r="I135" t="s">
-        <v>352</v>
-      </c>
-      <c r="P135" t="s">
-        <v>275</v>
-      </c>
-      <c r="T135" t="str">
+        <v>264</v>
+      </c>
+      <c r="S135" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G135,H135)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19">
       <c r="A136" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="32"/>
       <c r="G136" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H136" s="11"/>
       <c r="I136" t="s">
-        <v>352</v>
-      </c>
-      <c r="P136" t="s">
-        <v>276</v>
-      </c>
-      <c r="T136" t="str">
+        <v>264</v>
+      </c>
+      <c r="S136" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G136,H136)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19">
       <c r="A137" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F137" s="31" t="s">
+      <c r="F137" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G137" s="11" t="s">
@@ -4743,97 +4250,85 @@
       </c>
       <c r="H137" s="11"/>
       <c r="K137" t="s">
-        <v>277</v>
-      </c>
-      <c r="P137" t="s">
-        <v>277</v>
-      </c>
-      <c r="T137" t="str">
+        <v>204</v>
+      </c>
+      <c r="S137" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G137,H137)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:OPEN &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19">
       <c r="A138" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="32"/>
       <c r="G138" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H138" s="11"/>
       <c r="K138" t="s">
-        <v>278</v>
-      </c>
-      <c r="P138" t="s">
-        <v>278</v>
-      </c>
-      <c r="T138" t="str">
+        <v>205</v>
+      </c>
+      <c r="S138" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G138,H138)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:OPEN?</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19">
       <c r="A139" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="32"/>
       <c r="G139" s="11" t="s">
         <v>95</v>
       </c>
       <c r="H139" s="11"/>
       <c r="K139" t="s">
-        <v>279</v>
-      </c>
-      <c r="P139" t="s">
-        <v>279</v>
-      </c>
-      <c r="T139" t="str">
+        <v>206</v>
+      </c>
+      <c r="S139" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G139,H139)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:SHORt &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19">
       <c r="A140" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="32"/>
       <c r="G140" s="11" t="s">
         <v>96</v>
       </c>
       <c r="H140" s="11"/>
       <c r="K140" t="s">
-        <v>280</v>
-      </c>
-      <c r="P140" t="s">
-        <v>280</v>
-      </c>
-      <c r="T140" t="str">
+        <v>207</v>
+      </c>
+      <c r="S140" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G140,H140)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:SHORt?</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19">
       <c r="A141" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B141" s="30"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="34" t="s">
         <v>73</v>
       </c>
       <c r="G141" s="25" t="s">
@@ -4841,121 +4336,106 @@
       </c>
       <c r="H141" s="11"/>
       <c r="K141" t="s">
-        <v>281</v>
-      </c>
-      <c r="P141" t="s">
-        <v>281</v>
-      </c>
-      <c r="T141" t="str">
+        <v>208</v>
+      </c>
+      <c r="S141" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G141,H141)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19">
       <c r="A142" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="32"/>
+        <v>256</v>
+      </c>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="34"/>
       <c r="G142" s="25" t="s">
         <v>63</v>
       </c>
       <c r="H142" s="11"/>
       <c r="K142" t="s">
-        <v>282</v>
-      </c>
-      <c r="P142" t="s">
-        <v>282</v>
-      </c>
-      <c r="T142" t="str">
+        <v>209</v>
+      </c>
+      <c r="S142" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G142,H142)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19">
       <c r="A143" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="32"/>
+        <v>256</v>
+      </c>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="34"/>
       <c r="G143" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H143" s="11"/>
       <c r="K143" t="s">
-        <v>283</v>
-      </c>
-      <c r="P143" t="s">
-        <v>283</v>
-      </c>
-      <c r="T143" t="str">
+        <v>210</v>
+      </c>
+      <c r="S143" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G143,H143)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19">
       <c r="A144" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="32"/>
+        <v>256</v>
+      </c>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="34"/>
       <c r="G144" s="25" t="s">
         <v>65</v>
       </c>
       <c r="H144" s="11"/>
       <c r="K144" t="s">
-        <v>284</v>
-      </c>
-      <c r="P144" t="s">
-        <v>284</v>
-      </c>
-      <c r="T144" t="str">
+        <v>211</v>
+      </c>
+      <c r="S144" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G144,H144)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19">
       <c r="A145" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="31"/>
       <c r="F145" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="K145" t="s">
-        <v>285</v>
-      </c>
-      <c r="P145" t="s">
-        <v>285</v>
-      </c>
-      <c r="T145" t="str">
+        <v>212</v>
+      </c>
+      <c r="S145" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F145,G145,H145)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CRANge? &lt;MAXimun|MINimum|NOW&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19">
       <c r="A146" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31" t="s">
         <v>98</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -4963,96 +4443,84 @@
       </c>
       <c r="H146" s="11"/>
       <c r="K146" t="s">
-        <v>286</v>
-      </c>
-      <c r="P146" t="s">
-        <v>286</v>
-      </c>
-      <c r="T146" t="str">
+        <v>213</v>
+      </c>
+      <c r="S146" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G146,H146)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CURRent&lt;m&gt;:OFFSet &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19">
       <c r="A147" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H147" s="11"/>
       <c r="K147" t="s">
-        <v>287</v>
-      </c>
-      <c r="P147" t="s">
-        <v>287</v>
-      </c>
-      <c r="T147" t="str">
+        <v>214</v>
+      </c>
+      <c r="S147" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G147,H147)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CURRent&lt;m&gt;:OFFSet?</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19">
       <c r="A148" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="31"/>
       <c r="F148" s="11" t="s">
         <v>99</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="K148" t="s">
-        <v>288</v>
-      </c>
-      <c r="P148" t="s">
-        <v>288</v>
-      </c>
-      <c r="T148" t="str">
+        <v>215</v>
+      </c>
+      <c r="S148" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F148,G148,H148)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CSTandard &lt;range&gt;,&lt;numeric value&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19">
       <c r="A149" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="31"/>
       <c r="F149" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="K149" t="s">
-        <v>289</v>
-      </c>
-      <c r="P149" t="s">
-        <v>289</v>
-      </c>
-      <c r="T149" t="str">
+        <v>216</v>
+      </c>
+      <c r="S149" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F149,G149,H149)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CSTandard?</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19">
       <c r="A150" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="31" t="s">
         <v>105</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -5061,97 +4529,85 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="K150" t="s">
-        <v>290</v>
-      </c>
-      <c r="P150" t="s">
-        <v>290</v>
-      </c>
-      <c r="T150" t="str">
+        <v>217</v>
+      </c>
+      <c r="S150" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F150,G150,H150)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse[:MESSage] &lt;string data&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19">
       <c r="A151" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="31"/>
       <c r="F151" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="K151" t="s">
-        <v>291</v>
-      </c>
-      <c r="P151" t="s">
-        <v>291</v>
-      </c>
-      <c r="T151" t="str">
+        <v>218</v>
+      </c>
+      <c r="S151" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F151,G151,H151)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse[:MESSage]?</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19">
       <c r="A152" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="31"/>
       <c r="F152" s="11" t="s">
         <v>103</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="K152" t="s">
-        <v>292</v>
-      </c>
-      <c r="P152" t="s">
-        <v>292</v>
-      </c>
-      <c r="T152" t="str">
+        <v>219</v>
+      </c>
+      <c r="S152" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F152,G152,H152)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:UTSIgnal &lt; boolean&gt; | ON | OFF &gt;</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19">
       <c r="A153" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="31"/>
       <c r="F153" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="K153" t="s">
-        <v>293</v>
-      </c>
-      <c r="P153" t="s">
-        <v>293</v>
-      </c>
-      <c r="T153" t="str">
+        <v>220</v>
+      </c>
+      <c r="S153" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F153,G153,H153)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:UTSIgnal?</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19">
       <c r="A154" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -5159,47 +4615,41 @@
       </c>
       <c r="H154" s="11"/>
       <c r="K154" t="s">
-        <v>294</v>
-      </c>
-      <c r="P154" t="s">
-        <v>294</v>
-      </c>
-      <c r="T154" t="str">
+        <v>221</v>
+      </c>
+      <c r="S154" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G154,H154)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19">
       <c r="A155" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H155" s="11"/>
       <c r="K155" t="s">
-        <v>295</v>
-      </c>
-      <c r="P155" t="s">
-        <v>295</v>
-      </c>
-      <c r="T155" t="str">
+        <v>222</v>
+      </c>
+      <c r="S155" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G155,H155)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19">
       <c r="A156" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29" t="s">
         <v>106</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -5209,23 +4659,20 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="K156" t="s">
-        <v>296</v>
-      </c>
-      <c r="P156" t="s">
-        <v>296</v>
-      </c>
-      <c r="T156" t="str">
-        <f t="shared" ref="T156:T194" si="9">CONCATENATE($B$38,$C$38,$D$156,E156,F156,G156,H156)</f>
+        <v>223</v>
+      </c>
+      <c r="S156" t="str">
+        <f t="shared" ref="S156:S187" si="9">CONCATENATE($B$38,$C$38,$D$156,E156,F156,G156,H156)</f>
         <v>:SOURce:SAFEty:PRESet:TIME</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19">
       <c r="A157" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
       <c r="E157" s="8" t="s">
         <v>107</v>
       </c>
@@ -5233,23 +4680,20 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="K157" t="s">
-        <v>297</v>
-      </c>
-      <c r="P157" t="s">
-        <v>297</v>
-      </c>
-      <c r="T157" t="str">
+        <v>224</v>
+      </c>
+      <c r="S157" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:PASS &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19">
       <c r="A158" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
       <c r="E158" s="8" t="s">
         <v>108</v>
       </c>
@@ -5257,23 +4701,20 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="K158" t="s">
-        <v>298</v>
-      </c>
-      <c r="P158" t="s">
-        <v>298</v>
-      </c>
-      <c r="T158" t="str">
+        <v>225</v>
+      </c>
+      <c r="S158" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:PASS?</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19">
       <c r="A159" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
       <c r="E159" s="8" t="s">
         <v>109</v>
       </c>
@@ -5281,23 +4722,20 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="K159" t="s">
-        <v>299</v>
-      </c>
-      <c r="P159" t="s">
-        <v>299</v>
-      </c>
-      <c r="T159" t="str">
+        <v>226</v>
+      </c>
+      <c r="S159" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:STEP &lt;numeric_value&gt;|KEY</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19">
       <c r="A160" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
       <c r="E160" s="8" t="s">
         <v>45</v>
       </c>
@@ -5305,23 +4743,20 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="K160" t="s">
-        <v>300</v>
-      </c>
-      <c r="P160" t="s">
-        <v>300</v>
-      </c>
-      <c r="T160" t="str">
+        <v>227</v>
+      </c>
+      <c r="S160" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:STEP?</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19">
       <c r="A161" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
       <c r="E161" s="8" t="s">
         <v>110</v>
       </c>
@@ -5329,23 +4764,20 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="K161" t="s">
-        <v>301</v>
-      </c>
-      <c r="P161" t="s">
-        <v>301</v>
-      </c>
-      <c r="T161" t="str">
+        <v>228</v>
+      </c>
+      <c r="S161" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:RJUDgment &lt;ON/OFF or boolean&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19">
       <c r="A162" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B162" s="29"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
       <c r="E162" s="8" t="s">
         <v>111</v>
       </c>
@@ -5353,23 +4785,20 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="K162" t="s">
-        <v>302</v>
-      </c>
-      <c r="P162" t="s">
-        <v>302</v>
-      </c>
-      <c r="T162" t="str">
+        <v>229</v>
+      </c>
+      <c r="S162" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:RJUDgment?</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19">
       <c r="A163" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
       <c r="E163" s="8" t="s">
         <v>58</v>
       </c>
@@ -5377,23 +4806,20 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="K163" t="s">
-        <v>303</v>
-      </c>
-      <c r="P163" t="s">
-        <v>303</v>
-      </c>
-      <c r="T163" t="str">
+        <v>230</v>
+      </c>
+      <c r="S163" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:AC</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19">
       <c r="A164" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
       <c r="E164" s="8" t="s">
         <v>112</v>
       </c>
@@ -5401,23 +4827,20 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="K164" t="s">
-        <v>304</v>
-      </c>
-      <c r="P164" t="s">
-        <v>304</v>
-      </c>
-      <c r="T164" t="str">
+        <v>231</v>
+      </c>
+      <c r="S164" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:FREQuency &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19">
       <c r="A165" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
       <c r="E165" s="8" t="s">
         <v>113</v>
       </c>
@@ -5425,23 +4848,20 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="K165" t="s">
-        <v>305</v>
-      </c>
-      <c r="P165" t="s">
-        <v>305</v>
-      </c>
-      <c r="T165" t="str">
+        <v>232</v>
+      </c>
+      <c r="S165" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:FREQuency?</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19">
       <c r="A166" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
       <c r="E166" s="8" t="s">
         <v>114</v>
       </c>
@@ -5449,23 +4869,20 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="K166" t="s">
-        <v>306</v>
-      </c>
-      <c r="P166" t="s">
-        <v>306</v>
-      </c>
-      <c r="T166" t="str">
+        <v>233</v>
+      </c>
+      <c r="S166" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:WRANge</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19">
       <c r="A167" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
       <c r="E167" s="8" t="s">
         <v>115</v>
       </c>
@@ -5473,23 +4890,20 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="K167" t="s">
-        <v>307</v>
-      </c>
-      <c r="P167" t="s">
-        <v>307</v>
-      </c>
-      <c r="T167" t="str">
+        <v>234</v>
+      </c>
+      <c r="S167" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet[:AUTO] &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19">
       <c r="A168" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
       <c r="E168" s="8" t="s">
         <v>116</v>
       </c>
@@ -5497,23 +4911,20 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="K168" t="s">
-        <v>308</v>
-      </c>
-      <c r="P168" t="s">
-        <v>308</v>
-      </c>
-      <c r="T168" t="str">
+        <v>235</v>
+      </c>
+      <c r="S168" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet[:AUTO]?</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19">
       <c r="A169" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
       <c r="E169" s="8" t="s">
         <v>117</v>
       </c>
@@ -5521,23 +4932,20 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="K169" t="s">
-        <v>309</v>
-      </c>
-      <c r="P169" t="s">
-        <v>309</v>
-      </c>
-      <c r="T169" t="str">
+        <v>236</v>
+      </c>
+      <c r="S169" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:AGC</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19">
       <c r="A170" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
       <c r="E170" s="8" t="s">
         <v>118</v>
       </c>
@@ -5545,23 +4953,20 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="K170" t="s">
-        <v>310</v>
-      </c>
-      <c r="P170" t="s">
-        <v>310</v>
-      </c>
-      <c r="T170" t="str">
+        <v>237</v>
+      </c>
+      <c r="S170" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet[:SOFTware] &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19">
       <c r="A171" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
       <c r="E171" s="8" t="s">
         <v>119</v>
       </c>
@@ -5569,23 +4974,20 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="K171" t="s">
-        <v>311</v>
-      </c>
-      <c r="P171" t="s">
-        <v>311</v>
-      </c>
-      <c r="T171" t="str">
+        <v>238</v>
+      </c>
+      <c r="S171" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet[:SOFTware]?</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19">
       <c r="A172" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
       <c r="E172" s="8" t="s">
         <v>120</v>
       </c>
@@ -5593,23 +4995,20 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="K172" t="s">
-        <v>312</v>
-      </c>
-      <c r="P172" t="s">
-        <v>312</v>
-      </c>
-      <c r="T172" t="str">
+        <v>239</v>
+      </c>
+      <c r="S172" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:GFI</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19">
       <c r="A173" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
       <c r="E173" s="8" t="s">
         <v>121</v>
       </c>
@@ -5617,23 +5016,20 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="K173" t="s">
-        <v>313</v>
-      </c>
-      <c r="P173" t="s">
-        <v>313</v>
-      </c>
-      <c r="T173" t="str">
+        <v>240</v>
+      </c>
+      <c r="S173" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet[:SWITch] &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19">
       <c r="A174" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B174" s="29"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
       <c r="E174" s="8" t="s">
         <v>122</v>
       </c>
@@ -5641,23 +5037,20 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="K174" t="s">
-        <v>314</v>
-      </c>
-      <c r="P174" t="s">
-        <v>314</v>
-      </c>
-      <c r="T174" t="str">
+        <v>241</v>
+      </c>
+      <c r="S174" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet[:SWITCH]?</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19">
       <c r="A175" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
       <c r="E175" s="8" t="s">
         <v>123</v>
       </c>
@@ -5665,23 +5058,20 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="K175" t="s">
-        <v>315</v>
-      </c>
-      <c r="P175" t="s">
-        <v>315</v>
-      </c>
-      <c r="T175" t="str">
+        <v>242</v>
+      </c>
+      <c r="S175" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:GR</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19">
       <c r="A176" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
       <c r="E176" s="8" t="s">
         <v>124</v>
       </c>
@@ -5689,23 +5079,20 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="K176" t="s">
-        <v>316</v>
-      </c>
-      <c r="P176" t="s">
-        <v>316</v>
-      </c>
-      <c r="T176" t="str">
+        <v>243</v>
+      </c>
+      <c r="S176" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:CONTinue &lt;numeric_value&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19">
       <c r="A177" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
       <c r="E177" s="8" t="s">
         <v>125</v>
       </c>
@@ -5713,23 +5100,20 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="K177" t="s">
-        <v>317</v>
-      </c>
-      <c r="P177" t="s">
-        <v>317</v>
-      </c>
-      <c r="T177" t="str">
+        <v>244</v>
+      </c>
+      <c r="S177" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:CONTinue?</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19">
       <c r="A178" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B178" s="29"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
       <c r="E178" s="8" t="s">
         <v>126</v>
       </c>
@@ -5737,23 +5121,20 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="K178" t="s">
-        <v>318</v>
-      </c>
-      <c r="P178" t="s">
-        <v>318</v>
-      </c>
-      <c r="T178" t="str">
+        <v>245</v>
+      </c>
+      <c r="S178" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:FAIL</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19">
       <c r="A179" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
       <c r="E179" s="8" t="s">
         <v>127</v>
       </c>
@@ -5761,23 +5142,20 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="K179" t="s">
-        <v>319</v>
-      </c>
-      <c r="P179" t="s">
-        <v>319</v>
-      </c>
-      <c r="T179" t="str">
+        <v>246</v>
+      </c>
+      <c r="S179" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:OPERation STOP|CONTinue|RESTart</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19">
       <c r="A180" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
       <c r="E180" s="8" t="s">
         <v>128</v>
       </c>
@@ -5785,23 +5163,20 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="K180" t="s">
-        <v>320</v>
-      </c>
-      <c r="P180" t="s">
-        <v>320</v>
-      </c>
-      <c r="T180" t="str">
+        <v>247</v>
+      </c>
+      <c r="S180" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:OPERation?</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19">
       <c r="A181" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B181" s="30"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
       <c r="E181" s="8" t="s">
         <v>129</v>
       </c>
@@ -5809,23 +5184,20 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="K181" t="s">
-        <v>321</v>
-      </c>
-      <c r="P181" t="s">
-        <v>321</v>
-      </c>
-      <c r="T181" t="str">
+        <v>248</v>
+      </c>
+      <c r="S181" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:SCREen &lt;Boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19">
       <c r="A182" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
       <c r="E182" s="8" t="s">
         <v>130</v>
       </c>
@@ -5833,23 +5205,20 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="K182" t="s">
-        <v>322</v>
-      </c>
-      <c r="P182" t="s">
-        <v>322</v>
-      </c>
-      <c r="T182" t="str">
+        <v>249</v>
+      </c>
+      <c r="S182" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:SCREen?</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19">
       <c r="A183" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
       <c r="E183" s="8" t="s">
         <v>131</v>
       </c>
@@ -5857,23 +5226,20 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="K183" t="s">
-        <v>323</v>
-      </c>
-      <c r="P183" t="s">
-        <v>323</v>
-      </c>
-      <c r="T183" t="str">
+        <v>250</v>
+      </c>
+      <c r="S183" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:KEYboard</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19">
       <c r="A184" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
       <c r="E184" s="8" t="s">
         <v>132</v>
       </c>
@@ -5881,23 +5247,20 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="K184" t="s">
-        <v>324</v>
-      </c>
-      <c r="P184" t="s">
-        <v>324</v>
-      </c>
-      <c r="T184" t="str">
+        <v>251</v>
+      </c>
+      <c r="S184" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:SMARt &lt;Boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19">
       <c r="A185" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B185" s="29"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
       <c r="E185" s="8" t="s">
         <v>133</v>
       </c>
@@ -5905,23 +5268,20 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="K185" t="s">
-        <v>325</v>
-      </c>
-      <c r="P185" t="s">
-        <v>325</v>
-      </c>
-      <c r="T185" t="str">
+        <v>252</v>
+      </c>
+      <c r="S185" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:SMARt?</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19">
       <c r="A186" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B186" s="30"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
       <c r="E186" s="8" t="s">
         <v>134</v>
       </c>
@@ -5929,23 +5289,20 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="K186" t="s">
-        <v>326</v>
-      </c>
-      <c r="P186" t="s">
-        <v>326</v>
-      </c>
-      <c r="T186" t="str">
+        <v>253</v>
+      </c>
+      <c r="S186" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:RJUDgment &lt;Boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19">
       <c r="A187" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
+        <v>256</v>
+      </c>
+      <c r="B187" s="29"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
       <c r="E187" s="8" t="s">
         <v>111</v>
       </c>
@@ -5953,393 +5310,341 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="K187" t="s">
-        <v>302</v>
-      </c>
-      <c r="P187" t="s">
-        <v>302</v>
-      </c>
-      <c r="T187" t="str">
+        <v>229</v>
+      </c>
+      <c r="S187" t="str">
         <f t="shared" si="9"/>
         <v>:SOURce:SAFEty:PRESet:RJUDgment?</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19">
       <c r="A188" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B188" s="30"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="30"/>
-      <c r="E188" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F188" s="8"/>
+      <c r="F188" s="38" t="s">
+        <v>265</v>
+      </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="K188" t="s">
-        <v>327</v>
-      </c>
-      <c r="P188" t="s">
-        <v>327</v>
-      </c>
-      <c r="T188" t="str">
-        <f t="shared" si="9"/>
-        <v>:SOURce:SAFEty:PRESet:NUMber</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="S188" t="str">
+        <f>CONCATENATE($B$38,$C$38,$D$156,$E$188,F188,G188,H188)</f>
+        <v>:SOURce:SAFEty:PRESet:NUMber:PART&lt;string data&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B189" s="30"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30"/>
-      <c r="E189" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="K189" t="s">
-        <v>328</v>
-      </c>
-      <c r="P189" t="s">
-        <v>328</v>
-      </c>
-      <c r="T189" t="str">
-        <f t="shared" si="9"/>
-        <v>:SOURce:SAFEty:PRESet:PART</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="S189" t="str">
+        <f t="shared" ref="S189:S193" si="10">CONCATENATE($B$38,$C$38,$D$156,$E$188,F189,G189,H189)</f>
+        <v>:SOURce:SAFEty:PRESet:NUMber:PART?</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F190" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="36"/>
+      <c r="F190" s="38" t="s">
+        <v>266</v>
+      </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="K190" t="s">
-        <v>329</v>
-      </c>
-      <c r="P190" t="s">
-        <v>329</v>
-      </c>
-      <c r="T190" t="str">
-        <f t="shared" si="9"/>
-        <v>:SOURce:SAFEty:PRESet:PART?</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="S190" t="str">
+        <f t="shared" si="10"/>
+        <v>:SOURce:SAFEty:PRESet:NUMber:LOT&lt;string data&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B191" s="30"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F191" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="K191" t="s">
-        <v>330</v>
-      </c>
-      <c r="P191" t="s">
-        <v>330</v>
-      </c>
-      <c r="T191" t="str">
-        <f t="shared" si="9"/>
-        <v>:SOURce:SAFEty:PRESet:LOT</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="S191" t="str">
+        <f t="shared" si="10"/>
+        <v>:SOURce:SAFEty:PRESet:NUMber:LOT?</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B192" s="30"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F192" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="38" t="s">
+        <v>267</v>
+      </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="K192" t="s">
-        <v>331</v>
-      </c>
-      <c r="P192" t="s">
-        <v>331</v>
-      </c>
-      <c r="T192" t="str">
-        <f t="shared" si="9"/>
-        <v>:SOURce:SAFEty:PRESet:LOT?</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="S192" t="str">
+        <f t="shared" si="10"/>
+        <v>:SOURce:SAFEty:PRESet:NUMber:SERIal&lt;string data&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F193" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="B193" s="29"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="K193" t="s">
-        <v>332</v>
-      </c>
-      <c r="P193" t="s">
-        <v>332</v>
-      </c>
-      <c r="T193" t="str">
-        <f t="shared" si="9"/>
-        <v>:SOURce:SAFEty:PRESet:SERIal</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B194" s="30"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="30"/>
-      <c r="E194" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="K194" t="s">
-        <v>333</v>
-      </c>
-      <c r="P194" t="s">
-        <v>333</v>
-      </c>
-      <c r="T194" t="str">
-        <f t="shared" si="9"/>
-        <v>:SOURce:SAFEty:PRESet:SERIal?</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="S193" t="str">
+        <f t="shared" si="10"/>
+        <v>:SOURce:SAFEty:PRESet:NUMber:SERIal?</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:19">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B199" s="5" t="s">
+    <row r="198" spans="1:19" ht="18">
+      <c r="B198" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19">
+      <c r="A199" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F199" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H199" s="9"/>
+      <c r="S199" t="str">
+        <f>CONCATENATE($B$199,$C$199,$D$199,$E$199,$F$199,G199,H199)</f>
+        <v>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage]?</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B200" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C200" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E200" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F200" s="27" t="s">
-        <v>46</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="26"/>
       <c r="G200" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H200" s="9"/>
-      <c r="P200" t="s">
-        <v>334</v>
-      </c>
-      <c r="T200" t="str">
-        <f>CONCATENATE($B$200,$C$200,$D$200,$E$200,$F$200,G200,H200)</f>
-        <v>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage]?</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S200" t="str">
+        <f>CONCATENATE($B$199,$C$199,$D$199,$E$199,$F$199,G200,H200)</f>
+        <v>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage] &lt;Boolean&gt; |ON|OFF</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
       <c r="A201" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G201" s="9"/>
       <c r="H201" s="9"/>
-      <c r="P201" t="s">
-        <v>335</v>
-      </c>
-      <c r="T201" t="str">
-        <f>CONCATENATE($B$200,$C$200,$D$200,$E$200,$F$200,G201,H201)</f>
-        <v>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage] &lt;Boolean&gt; |ON|OFF</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S201" t="str">
+        <f>CONCATENATE($B$199,$C$199,$D$199,$E$199,F201,G201,H201)</f>
+        <v>:SOURce:SAFEty:RESult:AREPort:OMETerage &lt;Boolean&gt; |ON|OFF</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
       <c r="A202" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="33"/>
       <c r="F202" s="9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
-      <c r="P202" t="s">
-        <v>336</v>
-      </c>
-      <c r="T202" t="str">
-        <f>CONCATENATE($B$200,$C$200,$D$200,$E$200,F202,G202,H202)</f>
-        <v>:SOURce:SAFEty:RESult:AREPort:OMETerage &lt;Boolean&gt; |ON|OFF</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S202" t="str">
+        <f t="shared" ref="S202:S206" si="11">CONCATENATE($B$199,$C$199,$D$199,$E$199,F202,G202,H202)</f>
+        <v>:SOURce:SAFEty:RESult:AREPort:OMETerage?</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
       <c r="A203" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="33"/>
       <c r="F203" s="9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
-      <c r="P203" t="s">
-        <v>337</v>
-      </c>
-      <c r="T203" t="str">
-        <f t="shared" ref="T203:T207" si="10">CONCATENATE($B$200,$C$200,$D$200,$E$200,F203,G203,H203)</f>
-        <v>:SOURce:SAFEty:RESult:AREPort:OMETerage?</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S203" t="str">
+        <f t="shared" si="11"/>
+        <v>:SOURce:SAFEty:RESult:AREPort:MMETerage &lt;Boolean&gt; |ON|OFF</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
       <c r="A204" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="33"/>
       <c r="F204" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
-      <c r="P204" t="s">
-        <v>338</v>
-      </c>
-      <c r="T204" t="str">
-        <f t="shared" si="10"/>
-        <v>:SOURce:SAFEty:RESult:AREPort:MMETerage &lt;Boolean&gt; |ON|OFF</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S204" t="str">
+        <f t="shared" si="11"/>
+        <v>:SOURce:SAFEty:RESult:AREPort:MMETerage?</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
       <c r="A205" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="33"/>
       <c r="F205" s="9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
-      <c r="P205" t="s">
-        <v>339</v>
-      </c>
-      <c r="T205" t="str">
-        <f t="shared" si="10"/>
-        <v>:SOURce:SAFEty:RESult:AREPort:MMETerage?</v>
-      </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S205" t="str">
+        <f t="shared" si="11"/>
+        <v>:SOURce:SAFEty:RESult:AREPort:RMETerage</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
       <c r="A206" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="33"/>
       <c r="F206" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
-      <c r="P206" t="s">
-        <v>340</v>
-      </c>
-      <c r="T206" t="str">
-        <f t="shared" si="10"/>
-        <v>:SOURce:SAFEty:RESult:AREPort:RMETerage</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A207" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="26"/>
-      <c r="F207" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G207" s="9"/>
-      <c r="H207" s="9"/>
-      <c r="P207" t="s">
-        <v>341</v>
-      </c>
-      <c r="T207" t="str">
-        <f t="shared" si="10"/>
+      <c r="S206" t="str">
+        <f t="shared" si="11"/>
         <v>:SOURce:SAFEty:RESult:AREPort:RMETerage?</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B200:B207"/>
-    <mergeCell ref="D200:D207"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B194"/>
-    <mergeCell ref="C200:C207"/>
-    <mergeCell ref="C38:C194"/>
-    <mergeCell ref="D39:D42"/>
+  <mergeCells count="45">
+    <mergeCell ref="E188:E193"/>
+    <mergeCell ref="E199:E206"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="D45:D63"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="D65:D155"/>
+    <mergeCell ref="D156:D193"/>
+    <mergeCell ref="E113:E136"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="E137:E149"/>
+    <mergeCell ref="F115:F118"/>
+    <mergeCell ref="F119:F126"/>
+    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="E68:E88"/>
+    <mergeCell ref="E89:E112"/>
     <mergeCell ref="F49:F53"/>
     <mergeCell ref="E45:E54"/>
     <mergeCell ref="G95:G96"/>
@@ -6351,28 +5656,17 @@
     <mergeCell ref="F83:F86"/>
     <mergeCell ref="F87:F88"/>
     <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F127:F132"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="E68:E88"/>
-    <mergeCell ref="E89:E112"/>
-    <mergeCell ref="E200:E207"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="D45:D63"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="E150:E155"/>
-    <mergeCell ref="D65:D155"/>
-    <mergeCell ref="D156:D194"/>
-    <mergeCell ref="E113:E136"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="E137:E149"/>
-    <mergeCell ref="F115:F118"/>
-    <mergeCell ref="F119:F126"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B193"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C38:C193"/>
+    <mergeCell ref="D39:D42"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingra\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215C202-4D42-42DA-BF78-2A7E8665BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209"/>
+    <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="275">
   <si>
     <t>:SYSTem</t>
   </si>
@@ -857,13 +858,16 @@
   </si>
   <si>
     <t>:SOURce:SAFEty:PRESet:NUMber:SERIal?</t>
+  </si>
+  <si>
+    <t>Configuration/Presets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,32 +1118,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1150,8 +1130,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,28 +1496,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K196" sqref="K196"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25">
+    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>157</v>
       </c>
@@ -1524,13 +1528,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="23.25">
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.4">
       <c r="C2" s="15" t="s">
         <v>155</v>
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
         <v>158</v>
       </c>
@@ -1542,7 +1546,7 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
         <v>158</v>
       </c>
@@ -1554,7 +1558,7 @@
       </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
         <v>158</v>
       </c>
@@ -1566,7 +1570,7 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>158</v>
       </c>
@@ -1578,7 +1582,7 @@
       </c>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
         <v>158</v>
       </c>
@@ -1590,7 +1594,7 @@
       </c>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
         <v>158</v>
       </c>
@@ -1602,7 +1606,7 @@
       </c>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
         <v>158</v>
       </c>
@@ -1614,7 +1618,7 @@
       </c>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
         <v>158</v>
       </c>
@@ -1626,7 +1630,7 @@
       </c>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
         <v>158</v>
       </c>
@@ -1638,7 +1642,7 @@
       </c>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>158</v>
       </c>
@@ -1650,7 +1654,7 @@
       </c>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
         <v>158</v>
       </c>
@@ -1662,7 +1666,7 @@
       </c>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
         <v>158</v>
       </c>
@@ -1674,7 +1678,7 @@
       </c>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
         <v>158</v>
       </c>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
         <v>158</v>
       </c>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
         <v>158</v>
       </c>
@@ -1710,14 +1714,14 @@
       </c>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S18" s="12"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1737,11 +1741,11 @@
         <v>:SYSTem:ERRor:[NEXT]</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1757,11 +1761,11 @@
         <v>:SYSTem:VERSion?</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1777,11 +1781,11 @@
         <v>:SYSTem:KLOCk &lt;boolean&gt; |ON|OFF</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
@@ -1797,12 +1801,12 @@
         <v>:SYSTem:KLOCk</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1819,12 +1823,12 @@
         <v>:SYSTem:LOCK:OWNer?</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1839,12 +1843,12 @@
         <v>:SYSTem:LOCK:REQuest</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
@@ -1859,11 +1863,11 @@
         <v>:SYSTem:LOCK:RELease</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="27"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
@@ -1882,11 +1886,11 @@
         <v>:SYSTem:ROUNDing &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="18" t="s">
         <v>254</v>
       </c>
@@ -1905,17 +1909,17 @@
         <v>:SYSTem:ROUNDing?</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S29" t="str">
         <f>CONCATENATE(B29,C29,D29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1935,12 +1939,12 @@
         <v>:MEMory:DELete:LOCAtion &lt;register number&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1957,12 +1961,12 @@
         <v>:MEMory:FREE:STEP?</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1977,12 +1981,12 @@
         <v>:MEMory:FREE:STATe?</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2000,12 +2004,12 @@
         <v>:MEMory:STATe:DEFine &lt;name&gt;, &lt;register number&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2020,12 +2024,12 @@
         <v>:MEMory:STATe:DEFine? &lt;name&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2040,11 +2044,11 @@
         <v>:MEMory:STATe:LABEl? &lt;register number&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="19" t="s">
         <v>20</v>
       </c>
@@ -2060,20 +2064,20 @@
         <v>:MEMory:NSTAtes?</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S37" t="str">
         <f>CONCATENATE(B37,C37,D37)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2094,13 +2098,13 @@
         <v>:SOURce:SAFEty:FETCh? [ &lt;item&gt; ] { , &lt;item&gt; }</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2120,13 +2124,13 @@
         <v>:SOURce:SAFEty:STARt[:ONCE]</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2144,13 +2148,13 @@
         <v>:SOURce:SAFEty:STARt:OFFSet GET|OFF</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2168,13 +2172,13 @@
         <v>:SOURce:SAFEty:STARt:OFFSet?</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2192,12 +2196,12 @@
         <v>:SOURce:SAFEty:STARt:CSTandard</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2216,12 +2220,12 @@
         <v>:SOURce:SAFEty:STOP</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2240,16 +2244,16 @@
         <v>:SOURce:SAFEty:STATus?</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -2265,14 +2269,14 @@
         <v>:SOURce:SAFEty:RESult:ALL[:JUDGment]?</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="13" t="s">
         <v>34</v>
       </c>
@@ -2286,14 +2290,14 @@
         <v>:SOURce:SAFEty:RESult:ALL:OMETerage?</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="13" t="s">
         <v>35</v>
       </c>
@@ -2307,14 +2311,14 @@
         <v>:SOURce:SAFEty:RESult:ALL:MMETerage?</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="13" t="s">
         <v>36</v>
       </c>
@@ -2328,15 +2332,15 @@
         <v>:SOURce:SAFEty:RESult:ALL:RMETerage?</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="13" t="s">
@@ -2351,15 +2355,15 @@
         <v>:SOURce:SAFEty:RESult:ALL:TIME[:ELAPsed]</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="13" t="s">
         <v>39</v>
       </c>
@@ -2372,15 +2376,15 @@
         <v>:SOURce:SAFEty:RESult:ALL:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="13" t="s">
         <v>40</v>
       </c>
@@ -2393,15 +2397,15 @@
         <v>:SOURce:SAFEty:RESult:ALL:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="13" t="s">
         <v>41</v>
       </c>
@@ -2414,15 +2418,15 @@
         <v>:SOURce:SAFEty:RESult:ALL:TIME:FALL?</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
       <c r="G53" s="13" t="s">
         <v>42</v>
       </c>
@@ -2435,14 +2439,14 @@
         <v>:SOURce:SAFEty:RESult:ALL:TIME:DWELl</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="13" t="s">
         <v>43</v>
       </c>
@@ -2456,13 +2460,13 @@
         <v>:SOURce:SAFEty:RESult:ALL:MODE?</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="13" t="s">
         <v>44</v>
       </c>
@@ -2477,14 +2481,14 @@
         <v>:SOURce:SAFEty:RESult:COMPleted?</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32" t="s">
         <v>53</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -2500,14 +2504,14 @@
         <v>:SOURce:SAFEty:RESult[:LAST][:JUDGment]?</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="13" t="s">
         <v>34</v>
       </c>
@@ -2521,14 +2525,14 @@
         <v>:SOURce:SAFEty:RESult[:LAST]:OMETerage?</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="13" t="s">
         <v>35</v>
       </c>
@@ -2542,14 +2546,14 @@
         <v>:SOURce:SAFEty:RESult[:LAST]:MMETerage?</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="13" t="s">
         <v>36</v>
       </c>
@@ -2563,14 +2567,14 @@
         <v>:SOURce:SAFEty:RESult[:LAST]:RMETerage?</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -2586,14 +2590,14 @@
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:[JUDGment]?</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="13" t="s">
         <v>34</v>
       </c>
@@ -2607,14 +2611,14 @@
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:OMETerage?</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="13" t="s">
         <v>35</v>
       </c>
@@ -2628,14 +2632,14 @@
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:MMETerage?</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="13" t="s">
         <v>36</v>
       </c>
@@ -2649,12 +2653,12 @@
         <v>:SOURce:SAFEty:RESult:STEP &lt;n&gt;:RMETerage?</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="2" t="s">
         <v>56</v>
       </c>
@@ -2673,13 +2677,13 @@
         <v>:SOURce:SAFEty:SNUMber?</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29" t="s">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2699,13 +2703,13 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DELete</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="2" t="s">
         <v>57</v>
       </c>
@@ -2723,13 +2727,13 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:SET?</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="2" t="s">
         <v>43</v>
       </c>
@@ -2747,14 +2751,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:MODE?</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="31" t="s">
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F68" s="17" t="s">
@@ -2770,14 +2774,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel] &lt;numeric value</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="31"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="33"/>
       <c r="F69" s="11" t="s">
         <v>61</v>
       </c>
@@ -2791,15 +2795,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel]?</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="32" t="s">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="35" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -2814,15 +2818,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="32"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="35"/>
       <c r="G71" s="11" t="s">
         <v>63</v>
       </c>
@@ -2835,15 +2839,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH]?</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="35"/>
       <c r="G72" s="11" t="s">
         <v>64</v>
       </c>
@@ -2856,15 +2860,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="35"/>
       <c r="G73" s="11" t="s">
         <v>65</v>
       </c>
@@ -2877,16 +2881,16 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW?</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="31" t="s">
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="33" t="s">
         <v>66</v>
       </c>
       <c r="H74" s="11" t="s">
@@ -2900,16 +2904,16 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="31"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="33"/>
       <c r="H75" s="11" t="s">
         <v>61</v>
       </c>
@@ -2921,16 +2925,16 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel]?</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="31" t="s">
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="33" t="s">
         <v>68</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -2944,16 +2948,16 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="31"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="33"/>
       <c r="H77" s="11" t="s">
         <v>63</v>
       </c>
@@ -2965,15 +2969,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]?</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="32" t="s">
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -2988,15 +2992,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="32"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="35"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
@@ -3009,15 +3013,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="32"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="35"/>
       <c r="G80" s="11" t="s">
         <v>71</v>
       </c>
@@ -3030,15 +3034,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="32"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="35"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
@@ -3051,15 +3055,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="32"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="35"/>
       <c r="G82" s="11" t="s">
         <v>72</v>
       </c>
@@ -3072,15 +3076,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:FALL &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="32" t="s">
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="35" t="s">
         <v>73</v>
       </c>
       <c r="G83" s="11" t="s">
@@ -3095,15 +3099,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="32"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="11" t="s">
         <v>63</v>
       </c>
@@ -3116,15 +3120,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="32"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="11" t="s">
         <v>75</v>
       </c>
@@ -3137,15 +3141,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="32"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="35"/>
       <c r="G86" s="11" t="s">
         <v>65</v>
       </c>
@@ -3158,15 +3162,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="32" t="s">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="35" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3181,15 +3185,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="32"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="35"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
@@ -3202,14 +3206,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet?</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="31" t="s">
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="33" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="17" t="s">
@@ -3225,14 +3229,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel] &lt;numeric value</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="31"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="33"/>
       <c r="F90" s="11" t="s">
         <v>61</v>
       </c>
@@ -3246,15 +3250,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel]?</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="32" t="s">
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="35" t="s">
         <v>60</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3269,15 +3273,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="35"/>
       <c r="G92" s="11" t="s">
         <v>63</v>
       </c>
@@ -3290,15 +3294,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH]?</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="32"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="35"/>
       <c r="G93" s="11" t="s">
         <v>64</v>
       </c>
@@ -3311,15 +3315,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="32"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="35"/>
       <c r="G94" s="11" t="s">
         <v>65</v>
       </c>
@@ -3332,16 +3336,16 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW?</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="31" t="s">
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="33" t="s">
         <v>83</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -3355,16 +3359,16 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="31"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="33"/>
       <c r="H96" s="11" t="s">
         <v>61</v>
       </c>
@@ -3376,14 +3380,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel]?</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="31"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="33"/>
       <c r="F97" s="17" t="s">
         <v>79</v>
       </c>
@@ -3397,14 +3401,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="31"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="33"/>
       <c r="F98" s="17" t="s">
         <v>80</v>
       </c>
@@ -3418,15 +3422,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32" t="s">
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3441,15 +3445,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="32"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="35"/>
       <c r="G100" s="11" t="s">
         <v>82</v>
       </c>
@@ -3462,15 +3466,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl?</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="32"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="35"/>
       <c r="G101" s="11" t="s">
         <v>70</v>
       </c>
@@ -3483,15 +3487,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="32"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="35"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
@@ -3504,15 +3508,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="32"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="35"/>
       <c r="G103" s="11" t="s">
         <v>71</v>
       </c>
@@ -3525,15 +3529,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="32"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="35"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
@@ -3546,15 +3550,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="35"/>
       <c r="G105" s="11" t="s">
         <v>72</v>
       </c>
@@ -3567,15 +3571,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="32"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="35"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
@@ -3588,15 +3592,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL?</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="32" t="s">
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="35" t="s">
         <v>73</v>
       </c>
       <c r="G107" s="11" t="s">
@@ -3611,15 +3615,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="32"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="35"/>
       <c r="G108" s="11" t="s">
         <v>63</v>
       </c>
@@ -3632,15 +3636,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="32"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="35"/>
       <c r="G109" s="11" t="s">
         <v>75</v>
       </c>
@@ -3653,15 +3657,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="32"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="35"/>
       <c r="G110" s="11" t="s">
         <v>65</v>
       </c>
@@ -3674,15 +3678,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="32" t="s">
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="35" t="s">
         <v>76</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -3697,15 +3701,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="32"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="35"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
@@ -3718,14 +3722,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet?</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="31" t="s">
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F113" s="17" t="s">
@@ -3741,14 +3745,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel] &lt;numeric value</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="31"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="33"/>
       <c r="F114" s="11" t="s">
         <v>61</v>
       </c>
@@ -3762,15 +3766,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel]?</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="32" t="s">
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="35" t="s">
         <v>60</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -3785,15 +3789,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="32"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="35"/>
       <c r="G116" s="11" t="s">
         <v>63</v>
       </c>
@@ -3806,15 +3810,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH]?</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="32"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="35"/>
       <c r="G117" s="11" t="s">
         <v>64</v>
       </c>
@@ -3827,15 +3831,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="32"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="35"/>
       <c r="G118" s="11" t="s">
         <v>65</v>
       </c>
@@ -3848,15 +3852,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW?</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="32" t="s">
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -3871,15 +3875,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="32"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="35"/>
       <c r="G120" s="11" t="s">
         <v>82</v>
       </c>
@@ -3892,15 +3896,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl?</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="32"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="35"/>
       <c r="G121" s="11" t="s">
         <v>70</v>
       </c>
@@ -3913,15 +3917,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="32"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="35"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
@@ -3934,15 +3938,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP?</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="32"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="35"/>
       <c r="G123" s="11" t="s">
         <v>71</v>
       </c>
@@ -3955,15 +3959,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="32"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="35"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
@@ -3976,15 +3980,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="32"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="35"/>
       <c r="G125" s="11" t="s">
         <v>72</v>
       </c>
@@ -3997,15 +4001,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="32"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="35"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
@@ -4018,15 +4022,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL?</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="32" t="s">
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="35" t="s">
         <v>85</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4041,15 +4045,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="32"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="35"/>
       <c r="G128" s="11" t="s">
         <v>87</v>
       </c>
@@ -4062,15 +4066,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer]?</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="32"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="35"/>
       <c r="G129" s="11" t="s">
         <v>88</v>
       </c>
@@ -4083,15 +4087,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="32"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="35"/>
       <c r="G130" s="11" t="s">
         <v>89</v>
       </c>
@@ -4104,15 +4108,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer?</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="32"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="35"/>
       <c r="G131" s="11" t="s">
         <v>90</v>
       </c>
@@ -4125,15 +4129,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO &lt;ON/OFF or Boolean&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="32"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="35"/>
       <c r="G132" s="11" t="s">
         <v>91</v>
       </c>
@@ -4146,15 +4150,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO?</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="32" t="s">
+      <c r="B133" s="34"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="35" t="s">
         <v>73</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4169,15 +4173,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="32"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="35"/>
       <c r="G134" s="11" t="s">
         <v>63</v>
       </c>
@@ -4190,15 +4194,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="32"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="35"/>
       <c r="G135" s="11" t="s">
         <v>75</v>
       </c>
@@ -4211,15 +4215,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="32"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="35"/>
       <c r="G136" s="11" t="s">
         <v>65</v>
       </c>
@@ -4232,23 +4236,26 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
-      <c r="A137" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="31" t="s">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F137" s="32" t="s">
+      <c r="F137" s="35" t="s">
         <v>60</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>93</v>
       </c>
       <c r="H137" s="11"/>
+      <c r="I137" t="s">
+        <v>264</v>
+      </c>
       <c r="K137" t="s">
         <v>204</v>
       </c>
@@ -4257,19 +4264,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:OPEN &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
-      <c r="A138" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="32"/>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="35"/>
       <c r="G138" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H138" s="11"/>
+      <c r="I138" t="s">
+        <v>264</v>
+      </c>
       <c r="K138" t="s">
         <v>205</v>
       </c>
@@ -4278,19 +4288,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:OPEN?</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
-      <c r="A139" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="32"/>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="35"/>
       <c r="G139" s="11" t="s">
         <v>95</v>
       </c>
       <c r="H139" s="11"/>
+      <c r="I139" t="s">
+        <v>264</v>
+      </c>
       <c r="K139" t="s">
         <v>206</v>
       </c>
@@ -4299,19 +4312,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:SHORt &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
-      <c r="A140" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="32"/>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="35"/>
       <c r="G140" s="11" t="s">
         <v>96</v>
       </c>
       <c r="H140" s="11"/>
+      <c r="I140" t="s">
+        <v>264</v>
+      </c>
       <c r="K140" t="s">
         <v>207</v>
       </c>
@@ -4320,21 +4336,24 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:SHORt?</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
-      <c r="A141" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="34" t="s">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="36" t="s">
         <v>73</v>
       </c>
       <c r="G141" s="25" t="s">
         <v>74</v>
       </c>
       <c r="H141" s="11"/>
+      <c r="I141" t="s">
+        <v>264</v>
+      </c>
       <c r="K141" t="s">
         <v>208</v>
       </c>
@@ -4343,19 +4362,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
-      <c r="A142" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="34"/>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="36"/>
       <c r="G142" s="25" t="s">
         <v>63</v>
       </c>
       <c r="H142" s="11"/>
+      <c r="I142" t="s">
+        <v>264</v>
+      </c>
       <c r="K142" t="s">
         <v>209</v>
       </c>
@@ -4364,19 +4386,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH]?</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
-      <c r="A143" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="34"/>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="36"/>
       <c r="G143" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H143" s="11"/>
+      <c r="I143" t="s">
+        <v>264</v>
+      </c>
       <c r="K143" t="s">
         <v>210</v>
       </c>
@@ -4385,19 +4410,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
-      <c r="A144" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="34"/>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="34"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="36"/>
       <c r="G144" s="25" t="s">
         <v>65</v>
       </c>
       <c r="H144" s="11"/>
+      <c r="I144" t="s">
+        <v>264</v>
+      </c>
       <c r="K144" t="s">
         <v>211</v>
       </c>
@@ -4406,19 +4434,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW?</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
-      <c r="A145" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="31"/>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="33"/>
       <c r="F145" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
+      <c r="I145" t="s">
+        <v>264</v>
+      </c>
       <c r="K145" t="s">
         <v>212</v>
       </c>
@@ -4427,21 +4458,24 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CRANge? &lt;MAXimun|MINimum|NOW&gt;</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
-      <c r="A146" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31" t="s">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33" t="s">
         <v>98</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>77</v>
       </c>
       <c r="H146" s="11"/>
+      <c r="I146" t="s">
+        <v>264</v>
+      </c>
       <c r="K146" t="s">
         <v>213</v>
       </c>
@@ -4450,19 +4484,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CURRent&lt;m&gt;:OFFSet &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
-      <c r="A147" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H147" s="11"/>
+      <c r="I147" t="s">
+        <v>264</v>
+      </c>
       <c r="K147" t="s">
         <v>214</v>
       </c>
@@ -4471,19 +4508,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CURRent&lt;m&gt;:OFFSet?</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
-      <c r="A148" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="31"/>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="33"/>
       <c r="F148" s="11" t="s">
         <v>99</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
+      <c r="I148" t="s">
+        <v>264</v>
+      </c>
       <c r="K148" t="s">
         <v>215</v>
       </c>
@@ -4492,19 +4532,22 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CSTandard &lt;range&gt;,&lt;numeric value&gt;</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
-      <c r="A149" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="31"/>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="33"/>
       <c r="F149" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
+      <c r="I149" t="s">
+        <v>264</v>
+      </c>
       <c r="K149" t="s">
         <v>216</v>
       </c>
@@ -4513,14 +4556,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CSTandard?</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="31" t="s">
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="33" t="s">
         <v>105</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -4536,14 +4579,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse[:MESSage] &lt;string data&gt;</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="31"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="33"/>
       <c r="F151" s="11" t="s">
         <v>102</v>
       </c>
@@ -4557,14 +4600,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse[:MESSage]?</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="31"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="33"/>
       <c r="F152" s="11" t="s">
         <v>103</v>
       </c>
@@ -4578,14 +4621,14 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:UTSIgnal &lt; boolean&gt; | ON | OFF &gt;</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="31"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="33"/>
       <c r="F153" s="11" t="s">
         <v>104</v>
       </c>
@@ -4599,15 +4642,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:UTSIgnal?</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31" t="s">
+      <c r="B154" s="34"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -4622,15 +4665,15 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:TIME[:TEST] &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
@@ -4643,13 +4686,13 @@
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:PAuse:TIME[:TEST]?</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
-      <c r="A156" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29" t="s">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="34"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34" t="s">
         <v>106</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -4658,6 +4701,9 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
+      <c r="I156" t="s">
+        <v>274</v>
+      </c>
       <c r="K156" t="s">
         <v>223</v>
       </c>
@@ -4666,19 +4712,22 @@
         <v>:SOURce:SAFEty:PRESet:TIME</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
-      <c r="A157" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="34"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
+      <c r="I157" t="s">
+        <v>274</v>
+      </c>
       <c r="K157" t="s">
         <v>224</v>
       </c>
@@ -4687,19 +4736,22 @@
         <v>:SOURce:SAFEty:PRESet:PASS &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
-      <c r="A158" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="34"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="34"/>
       <c r="E158" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
+      <c r="I158" t="s">
+        <v>274</v>
+      </c>
       <c r="K158" t="s">
         <v>225</v>
       </c>
@@ -4708,19 +4760,22 @@
         <v>:SOURce:SAFEty:PRESet:PASS?</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
-      <c r="A159" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
       <c r="E159" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
+      <c r="I159" t="s">
+        <v>274</v>
+      </c>
       <c r="K159" t="s">
         <v>226</v>
       </c>
@@ -4729,19 +4784,22 @@
         <v>:SOURce:SAFEty:PRESet:STEP &lt;numeric_value&gt;|KEY</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
-      <c r="A160" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="34"/>
       <c r="E160" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
+      <c r="I160" t="s">
+        <v>274</v>
+      </c>
       <c r="K160" t="s">
         <v>227</v>
       </c>
@@ -4750,19 +4808,22 @@
         <v>:SOURce:SAFEty:PRESet:STEP?</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
-      <c r="A161" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
       <c r="E161" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
+      <c r="I161" t="s">
+        <v>274</v>
+      </c>
       <c r="K161" t="s">
         <v>228</v>
       </c>
@@ -4771,19 +4832,22 @@
         <v>:SOURce:SAFEty:PRESet:RJUDgment &lt;ON/OFF or boolean&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
-      <c r="A162" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
       <c r="E162" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
+      <c r="I162" t="s">
+        <v>274</v>
+      </c>
       <c r="K162" t="s">
         <v>229</v>
       </c>
@@ -4792,19 +4856,22 @@
         <v>:SOURce:SAFEty:PRESet:RJUDgment?</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
-      <c r="A163" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="34"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
       <c r="E163" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
+      <c r="I163" t="s">
+        <v>274</v>
+      </c>
       <c r="K163" t="s">
         <v>230</v>
       </c>
@@ -4813,19 +4880,22 @@
         <v>:SOURce:SAFEty:PRESet:AC</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
-      <c r="A164" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
       <c r="E164" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
+      <c r="I164" t="s">
+        <v>274</v>
+      </c>
       <c r="K164" t="s">
         <v>231</v>
       </c>
@@ -4834,19 +4904,22 @@
         <v>:SOURce:SAFEty:PRESet:FREQuency &lt;numeric_value&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
-      <c r="A165" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="34"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
       <c r="E165" s="8" t="s">
         <v>113</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
+      <c r="I165" t="s">
+        <v>274</v>
+      </c>
       <c r="K165" t="s">
         <v>232</v>
       </c>
@@ -4855,19 +4928,22 @@
         <v>:SOURce:SAFEty:PRESet:FREQuency?</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
-      <c r="A166" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="34"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
       <c r="E166" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
+      <c r="I166" t="s">
+        <v>274</v>
+      </c>
       <c r="K166" t="s">
         <v>233</v>
       </c>
@@ -4876,19 +4952,22 @@
         <v>:SOURce:SAFEty:PRESet:WRANge</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
-      <c r="A167" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167" s="34"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
       <c r="E167" s="8" t="s">
         <v>115</v>
       </c>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
+      <c r="I167" t="s">
+        <v>274</v>
+      </c>
       <c r="K167" t="s">
         <v>234</v>
       </c>
@@ -4897,19 +4976,22 @@
         <v>:SOURce:SAFEty:PRESet[:AUTO] &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
-      <c r="A168" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B168" s="34"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
       <c r="E168" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
+      <c r="I168" t="s">
+        <v>274</v>
+      </c>
       <c r="K168" t="s">
         <v>235</v>
       </c>
@@ -4918,19 +5000,22 @@
         <v>:SOURce:SAFEty:PRESet[:AUTO]?</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
-      <c r="A169" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
       <c r="E169" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
+      <c r="I169" t="s">
+        <v>274</v>
+      </c>
       <c r="K169" t="s">
         <v>236</v>
       </c>
@@ -4939,19 +5024,22 @@
         <v>:SOURce:SAFEty:PRESet:AGC</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
-      <c r="A170" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="34"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
       <c r="E170" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
+      <c r="I170" t="s">
+        <v>274</v>
+      </c>
       <c r="K170" t="s">
         <v>237</v>
       </c>
@@ -4960,19 +5048,22 @@
         <v>:SOURce:SAFEty:PRESet[:SOFTware] &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
-      <c r="A171" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="8" t="s">
         <v>119</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
+      <c r="I171" t="s">
+        <v>274</v>
+      </c>
       <c r="K171" t="s">
         <v>238</v>
       </c>
@@ -4981,19 +5072,22 @@
         <v>:SOURce:SAFEty:PRESet[:SOFTware]?</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
-      <c r="A172" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" s="34"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="34"/>
       <c r="E172" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
+      <c r="I172" t="s">
+        <v>274</v>
+      </c>
       <c r="K172" t="s">
         <v>239</v>
       </c>
@@ -5002,19 +5096,22 @@
         <v>:SOURce:SAFEty:PRESet:GFI</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
-      <c r="A173" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
       <c r="E173" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
+      <c r="I173" t="s">
+        <v>274</v>
+      </c>
       <c r="K173" t="s">
         <v>240</v>
       </c>
@@ -5023,19 +5120,22 @@
         <v>:SOURce:SAFEty:PRESet[:SWITch] &lt;boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
-      <c r="A174" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B174" s="34"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="34"/>
       <c r="E174" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
+      <c r="I174" t="s">
+        <v>274</v>
+      </c>
       <c r="K174" t="s">
         <v>241</v>
       </c>
@@ -5044,19 +5144,22 @@
         <v>:SOURce:SAFEty:PRESet[:SWITCH]?</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
-      <c r="A175" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="34"/>
       <c r="E175" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
+      <c r="I175" t="s">
+        <v>274</v>
+      </c>
       <c r="K175" t="s">
         <v>242</v>
       </c>
@@ -5065,19 +5168,22 @@
         <v>:SOURce:SAFEty:PRESet:GR</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
-      <c r="A176" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B176" s="34"/>
+      <c r="C176" s="34"/>
+      <c r="D176" s="34"/>
       <c r="E176" s="8" t="s">
         <v>124</v>
       </c>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
+      <c r="I176" t="s">
+        <v>274</v>
+      </c>
       <c r="K176" t="s">
         <v>243</v>
       </c>
@@ -5086,19 +5192,22 @@
         <v>:SOURce:SAFEty:PRESet:CONTinue &lt;numeric_value&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
-      <c r="A177" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177" s="34"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="34"/>
       <c r="E177" s="8" t="s">
         <v>125</v>
       </c>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
+      <c r="I177" t="s">
+        <v>274</v>
+      </c>
       <c r="K177" t="s">
         <v>244</v>
       </c>
@@ -5107,19 +5216,22 @@
         <v>:SOURce:SAFEty:PRESet:CONTinue?</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
-      <c r="A178" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B178" s="34"/>
+      <c r="C178" s="34"/>
+      <c r="D178" s="34"/>
       <c r="E178" s="8" t="s">
         <v>126</v>
       </c>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
+      <c r="I178" t="s">
+        <v>274</v>
+      </c>
       <c r="K178" t="s">
         <v>245</v>
       </c>
@@ -5128,19 +5240,22 @@
         <v>:SOURce:SAFEty:PRESet:FAIL</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
-      <c r="A179" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
       <c r="E179" s="8" t="s">
         <v>127</v>
       </c>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
+      <c r="I179" t="s">
+        <v>274</v>
+      </c>
       <c r="K179" t="s">
         <v>246</v>
       </c>
@@ -5149,19 +5264,22 @@
         <v>:SOURce:SAFEty:PRESet:OPERation STOP|CONTinue|RESTart</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
-      <c r="A180" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
-      <c r="D180" s="29"/>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B180" s="34"/>
+      <c r="C180" s="34"/>
+      <c r="D180" s="34"/>
       <c r="E180" s="8" t="s">
         <v>128</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
+      <c r="I180" t="s">
+        <v>274</v>
+      </c>
       <c r="K180" t="s">
         <v>247</v>
       </c>
@@ -5170,19 +5288,22 @@
         <v>:SOURce:SAFEty:PRESet:OPERation?</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
-      <c r="A181" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
       <c r="E181" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
+      <c r="I181" t="s">
+        <v>274</v>
+      </c>
       <c r="K181" t="s">
         <v>248</v>
       </c>
@@ -5191,19 +5312,22 @@
         <v>:SOURce:SAFEty:PRESet:SCREen &lt;Boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
-      <c r="A182" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
       <c r="E182" s="8" t="s">
         <v>130</v>
       </c>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
+      <c r="I182" t="s">
+        <v>274</v>
+      </c>
       <c r="K182" t="s">
         <v>249</v>
       </c>
@@ -5212,19 +5336,22 @@
         <v>:SOURce:SAFEty:PRESet:SCREen?</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
-      <c r="A183" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="34"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="34"/>
       <c r="E183" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
+      <c r="I183" t="s">
+        <v>274</v>
+      </c>
       <c r="K183" t="s">
         <v>250</v>
       </c>
@@ -5233,19 +5360,22 @@
         <v>:SOURce:SAFEty:PRESet:KEYboard</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
-      <c r="A184" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
       <c r="E184" s="8" t="s">
         <v>132</v>
       </c>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
+      <c r="I184" t="s">
+        <v>274</v>
+      </c>
       <c r="K184" t="s">
         <v>251</v>
       </c>
@@ -5254,19 +5384,22 @@
         <v>:SOURce:SAFEty:PRESet:SMARt &lt;Boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
-      <c r="A185" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B185" s="34"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="34"/>
       <c r="E185" s="8" t="s">
         <v>133</v>
       </c>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
+      <c r="I185" t="s">
+        <v>274</v>
+      </c>
       <c r="K185" t="s">
         <v>252</v>
       </c>
@@ -5275,19 +5408,22 @@
         <v>:SOURce:SAFEty:PRESet:SMARt?</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
-      <c r="A186" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B186" s="34"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="34"/>
       <c r="E186" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
+      <c r="I186" t="s">
+        <v>274</v>
+      </c>
       <c r="K186" t="s">
         <v>253</v>
       </c>
@@ -5296,19 +5432,22 @@
         <v>:SOURce:SAFEty:PRESet:RJUDgment &lt;Boolean&gt;|ON|OFF</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
-      <c r="A187" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187" s="34"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="34"/>
       <c r="E187" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
+      <c r="I187" t="s">
+        <v>274</v>
+      </c>
       <c r="K187" t="s">
         <v>229</v>
       </c>
@@ -5317,21 +5456,24 @@
         <v>:SOURce:SAFEty:PRESet:RJUDgment?</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
-      <c r="A188" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="35" t="s">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B188" s="34"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F188" s="38" t="s">
+      <c r="F188" s="26" t="s">
         <v>265</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
+      <c r="I188" t="s">
+        <v>274</v>
+      </c>
       <c r="K188" t="s">
         <v>268</v>
       </c>
@@ -5340,19 +5482,22 @@
         <v>:SOURce:SAFEty:PRESet:NUMber:PART&lt;string data&gt;</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
-      <c r="A189" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="36"/>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B189" s="34"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="28"/>
       <c r="F189" s="8" t="s">
         <v>136</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
+      <c r="I189" t="s">
+        <v>274</v>
+      </c>
       <c r="K189" t="s">
         <v>269</v>
       </c>
@@ -5361,19 +5506,22 @@
         <v>:SOURce:SAFEty:PRESet:NUMber:PART?</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
-      <c r="A190" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="38" t="s">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="26" t="s">
         <v>266</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
+      <c r="I190" t="s">
+        <v>274</v>
+      </c>
       <c r="K190" t="s">
         <v>270</v>
       </c>
@@ -5382,19 +5530,22 @@
         <v>:SOURce:SAFEty:PRESet:NUMber:LOT&lt;string data&gt;</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
-      <c r="A191" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="36"/>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B191" s="34"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="28"/>
       <c r="F191" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
+      <c r="I191" t="s">
+        <v>274</v>
+      </c>
       <c r="K191" t="s">
         <v>271</v>
       </c>
@@ -5403,19 +5554,22 @@
         <v>:SOURce:SAFEty:PRESet:NUMber:LOT?</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
-      <c r="A192" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="38" t="s">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="26" t="s">
         <v>267</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
+      <c r="I192" t="s">
+        <v>274</v>
+      </c>
       <c r="K192" t="s">
         <v>272</v>
       </c>
@@ -5424,19 +5578,22 @@
         <v>:SOURce:SAFEty:PRESet:NUMber:SERIal&lt;string data&gt;</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
-      <c r="A193" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="37"/>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="29"/>
       <c r="F193" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
+      <c r="I193" t="s">
+        <v>274</v>
+      </c>
       <c r="K193" t="s">
         <v>273</v>
       </c>
@@ -5445,44 +5602,44 @@
         <v>:SOURce:SAFEty:PRESet:NUMber:SERIal?</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:19" ht="18">
+    <row r="198" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B198" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B199" s="26" t="s">
+      <c r="B199" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="26" t="s">
+      <c r="C199" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="33" t="s">
+      <c r="E199" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F199" s="26" t="s">
+      <c r="F199" s="31" t="s">
         <v>46</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -5494,15 +5651,15 @@
         <v>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage]?</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="26"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="31"/>
       <c r="G200" s="9" t="s">
         <v>47</v>
       </c>
@@ -5512,14 +5669,14 @@
         <v>:SOURce:SAFEty:RESult:AREPort[:JUDGment][:MESsage] &lt;Boolean&gt; |ON|OFF</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="33"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="30"/>
       <c r="F201" s="9" t="s">
         <v>48</v>
       </c>
@@ -5530,14 +5687,14 @@
         <v>:SOURce:SAFEty:RESult:AREPort:OMETerage &lt;Boolean&gt; |ON|OFF</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="33"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="30"/>
       <c r="F202" s="9" t="s">
         <v>34</v>
       </c>
@@ -5548,14 +5705,14 @@
         <v>:SOURce:SAFEty:RESult:AREPort:OMETerage?</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="33"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="30"/>
       <c r="F203" s="9" t="s">
         <v>49</v>
       </c>
@@ -5566,14 +5723,14 @@
         <v>:SOURce:SAFEty:RESult:AREPort:MMETerage &lt;Boolean&gt; |ON|OFF</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="33"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
+      <c r="E204" s="30"/>
       <c r="F204" s="9" t="s">
         <v>35</v>
       </c>
@@ -5584,14 +5741,14 @@
         <v>:SOURce:SAFEty:RESult:AREPort:MMETerage?</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="33"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="30"/>
       <c r="F205" s="9" t="s">
         <v>50</v>
       </c>
@@ -5602,14 +5759,14 @@
         <v>:SOURce:SAFEty:RESult:AREPort:RMETerage</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="33"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="30"/>
       <c r="F206" s="9" t="s">
         <v>36</v>
       </c>
@@ -5622,11 +5779,28 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E188:E193"/>
-    <mergeCell ref="E199:E206"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B193"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C38:C193"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G74:G75"/>
     <mergeCell ref="D45:D63"/>
     <mergeCell ref="F154:F155"/>
     <mergeCell ref="E150:E155"/>
@@ -5643,30 +5817,13 @@
     <mergeCell ref="F133:F136"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F112"/>
+    <mergeCell ref="E188:E193"/>
+    <mergeCell ref="E199:E206"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E63"/>
     <mergeCell ref="E68:E88"/>
     <mergeCell ref="E89:E112"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="D199:D206"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B193"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C38:C193"/>
-    <mergeCell ref="D39:D42"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215C202-4D42-42DA-BF78-2A7E8665BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA15E44-5C12-4766-AB6C-1CD1CDBC338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="344">
   <si>
     <t>:SYSTem</t>
   </si>
@@ -861,6 +861,213 @@
   </si>
   <si>
     <t>Configuration/Presets</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel] &lt;numeric value</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit[:HIGH]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:LOW?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit :ARC[:LEVel]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:LIMit:REAL[:HIGH]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:RAMP?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME[:TEST]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:TIME:FALL &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH] &lt;channel_list&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel[:HIGH]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW &lt;channel_list&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CHANnel:LOW?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:AC:CURRent:OFFSet?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel] &lt;numeric value</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit[:HIGH]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:LOW?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:LIMit:ARC[:LEVel]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW &lt;boolean&gt;|ON|OFF</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:DWELl?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:RAMP?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME[:TEST]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH] &lt;channel_list&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW &lt;channel_list&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel] &lt;numeric value</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit[:HIGH]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:LIMit:LOW?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:DWELl?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:RAMP?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME[:TEST]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:TIME:FALL?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer] &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe[:UPPer]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer &lt;numeric_value&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:LOWer?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO &lt;ON/OFF or Boolean&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:RANGe:AUTO?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH] &lt;channel_list&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel[:HIGH]?</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW &lt;channel_list&gt;</t>
+  </si>
+  <si>
+    <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW?</t>
   </si>
 </sst>
 </file>
@@ -1121,6 +1328,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1131,30 +1362,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,8 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I153" sqref="I153"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1929,7 @@
       <c r="A20" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1745,7 +1953,7 @@
       <c r="A21" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1973,7 @@
       <c r="A22" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1993,7 @@
       <c r="A23" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
@@ -1805,8 +2013,8 @@
       <c r="A24" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1827,8 +2035,8 @@
       <c r="A25" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1847,8 +2055,8 @@
       <c r="A26" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +2075,7 @@
       <c r="A27" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +2098,7 @@
       <c r="A28" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="18" t="s">
         <v>254</v>
       </c>
@@ -1919,7 +2127,7 @@
       <c r="A30" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1943,8 +2151,8 @@
       <c r="A31" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1965,8 +2173,8 @@
       <c r="A32" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1985,8 +2193,8 @@
       <c r="A33" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2008,8 +2216,8 @@
       <c r="A34" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2028,8 +2236,8 @@
       <c r="A35" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2048,7 +2256,7 @@
       <c r="A36" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="19" t="s">
         <v>20</v>
       </c>
@@ -2074,10 +2282,10 @@
       <c r="A38" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2102,9 +2310,9 @@
       <c r="A39" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2128,9 +2336,9 @@
       <c r="A40" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2152,9 +2360,9 @@
       <c r="A41" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2176,9 +2384,9 @@
       <c r="A42" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2200,8 +2408,8 @@
       <c r="A43" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2224,8 +2432,8 @@
       <c r="A44" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2248,12 +2456,12 @@
       <c r="A45" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="32" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -2273,10 +2481,10 @@
       <c r="A46" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="13" t="s">
         <v>34</v>
       </c>
@@ -2294,10 +2502,10 @@
       <c r="A47" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="13" t="s">
         <v>35</v>
       </c>
@@ -2315,10 +2523,10 @@
       <c r="A48" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13" t="s">
         <v>36</v>
       </c>
@@ -2336,11 +2544,11 @@
       <c r="A49" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="13" t="s">
@@ -2359,11 +2567,11 @@
       <c r="A50" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="13" t="s">
         <v>39</v>
       </c>
@@ -2380,11 +2588,11 @@
       <c r="A51" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="13" t="s">
         <v>40</v>
       </c>
@@ -2401,11 +2609,11 @@
       <c r="A52" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
       <c r="G52" s="13" t="s">
         <v>41</v>
       </c>
@@ -2422,11 +2630,11 @@
       <c r="A53" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
       <c r="G53" s="13" t="s">
         <v>42</v>
       </c>
@@ -2443,10 +2651,10 @@
       <c r="A54" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="13" t="s">
         <v>43</v>
       </c>
@@ -2464,9 +2672,9 @@
       <c r="A55" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="32"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="13" t="s">
         <v>44</v>
       </c>
@@ -2485,10 +2693,10 @@
       <c r="A56" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31" t="s">
         <v>53</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -2508,10 +2716,10 @@
       <c r="A57" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="13" t="s">
         <v>34</v>
       </c>
@@ -2529,10 +2737,10 @@
       <c r="A58" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="13" t="s">
         <v>35</v>
       </c>
@@ -2550,10 +2758,10 @@
       <c r="A59" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="13" t="s">
         <v>36</v>
       </c>
@@ -2571,10 +2779,10 @@
       <c r="A60" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -2594,10 +2802,10 @@
       <c r="A61" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="13" t="s">
         <v>34</v>
       </c>
@@ -2615,10 +2823,10 @@
       <c r="A62" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="13" t="s">
         <v>35</v>
       </c>
@@ -2636,10 +2844,10 @@
       <c r="A63" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="13" t="s">
         <v>36</v>
       </c>
@@ -2657,8 +2865,8 @@
       <c r="A64" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="2" t="s">
         <v>56</v>
       </c>
@@ -2681,9 +2889,9 @@
       <c r="A65" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34" t="s">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2707,9 +2915,9 @@
       <c r="A66" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="2" t="s">
         <v>57</v>
       </c>
@@ -2731,9 +2939,9 @@
       <c r="A67" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="2" t="s">
         <v>43</v>
       </c>
@@ -2755,10 +2963,10 @@
       <c r="A68" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="33" t="s">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="32" t="s">
         <v>58</v>
       </c>
       <c r="F68" s="17" t="s">
@@ -2769,6 +2977,9 @@
       <c r="I68" t="s">
         <v>264</v>
       </c>
+      <c r="K68" t="s">
+        <v>275</v>
+      </c>
       <c r="S68" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F68,G68,H68)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel] &lt;numeric value</v>
@@ -2778,10 +2989,10 @@
       <c r="A69" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="33"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="11" t="s">
         <v>61</v>
       </c>
@@ -2790,6 +3001,9 @@
       <c r="I69" t="s">
         <v>264</v>
       </c>
+      <c r="K69" t="s">
+        <v>276</v>
+      </c>
       <c r="S69" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F69,G69,H69)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:AC[:LEVel]?</v>
@@ -2799,11 +3013,11 @@
       <c r="A70" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="35" t="s">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="33" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -2812,6 +3026,9 @@
       <c r="H70" s="11"/>
       <c r="I70" t="s">
         <v>264</v>
+      </c>
+      <c r="K70" t="s">
+        <v>277</v>
       </c>
       <c r="S70" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G70,H70)</f>
@@ -2822,17 +3039,20 @@
       <c r="A71" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="35"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" t="s">
         <v>264</v>
+      </c>
+      <c r="K71" t="s">
+        <v>278</v>
       </c>
       <c r="S71" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G71,H71)</f>
@@ -2843,17 +3063,20 @@
       <c r="A72" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="35"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="33"/>
       <c r="G72" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" t="s">
         <v>264</v>
+      </c>
+      <c r="K72" t="s">
+        <v>279</v>
       </c>
       <c r="S72" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G72,H72)</f>
@@ -2864,17 +3087,20 @@
       <c r="A73" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="35"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="33"/>
       <c r="G73" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" t="s">
         <v>264</v>
+      </c>
+      <c r="K73" t="s">
+        <v>280</v>
       </c>
       <c r="S73" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G73,H73)</f>
@@ -2885,12 +3111,12 @@
       <c r="A74" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="33" t="s">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="32" t="s">
         <v>66</v>
       </c>
       <c r="H74" s="11" t="s">
@@ -2898,6 +3124,9 @@
       </c>
       <c r="I74" t="s">
         <v>264</v>
+      </c>
+      <c r="K74" t="s">
+        <v>281</v>
       </c>
       <c r="S74" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H74)</f>
@@ -2908,17 +3137,20 @@
       <c r="A75" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="33"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="32"/>
       <c r="H75" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I75" t="s">
         <v>264</v>
+      </c>
+      <c r="K75" t="s">
+        <v>282</v>
       </c>
       <c r="S75" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H75)</f>
@@ -2929,12 +3161,12 @@
       <c r="A76" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="33" t="s">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="32" t="s">
         <v>68</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -2942,6 +3174,9 @@
       </c>
       <c r="I76" t="s">
         <v>264</v>
+      </c>
+      <c r="K76" t="s">
+        <v>283</v>
       </c>
       <c r="S76" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H76)</f>
@@ -2952,17 +3187,20 @@
       <c r="A77" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="33"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="11" t="s">
         <v>63</v>
       </c>
       <c r="I77" t="s">
         <v>264</v>
+      </c>
+      <c r="K77" t="s">
+        <v>284</v>
       </c>
       <c r="S77" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H77)</f>
@@ -2973,11 +3211,11 @@
       <c r="A78" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="35" t="s">
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -2986,6 +3224,9 @@
       <c r="H78" s="11"/>
       <c r="I78" t="s">
         <v>264</v>
+      </c>
+      <c r="K78" t="s">
+        <v>285</v>
       </c>
       <c r="S78" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G78,H78)</f>
@@ -2996,17 +3237,20 @@
       <c r="A79" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="35"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" t="s">
         <v>264</v>
+      </c>
+      <c r="K79" t="s">
+        <v>286</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ref="S79:S82" si="3">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G79,H79)</f>
@@ -3017,17 +3261,20 @@
       <c r="A80" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="35"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="33"/>
       <c r="G80" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" t="s">
         <v>264</v>
+      </c>
+      <c r="K80" t="s">
+        <v>287</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" si="3"/>
@@ -3038,17 +3285,20 @@
       <c r="A81" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="35"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" t="s">
         <v>264</v>
+      </c>
+      <c r="K81" t="s">
+        <v>288</v>
       </c>
       <c r="S81" t="str">
         <f t="shared" si="3"/>
@@ -3059,17 +3309,20 @@
       <c r="A82" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="35"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" t="s">
         <v>264</v>
+      </c>
+      <c r="K82" t="s">
+        <v>289</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="3"/>
@@ -3080,11 +3333,11 @@
       <c r="A83" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="35" t="s">
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G83" s="11" t="s">
@@ -3093,6 +3346,9 @@
       <c r="H83" s="11"/>
       <c r="I83" t="s">
         <v>264</v>
+      </c>
+      <c r="K83" t="s">
+        <v>290</v>
       </c>
       <c r="S83" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G83,H83)</f>
@@ -3103,17 +3359,20 @@
       <c r="A84" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="35"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" t="s">
         <v>264</v>
+      </c>
+      <c r="K84" t="s">
+        <v>291</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" ref="S84:S86" si="4">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G84,H84)</f>
@@ -3124,17 +3383,20 @@
       <c r="A85" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="35"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" t="s">
         <v>264</v>
+      </c>
+      <c r="K85" t="s">
+        <v>292</v>
       </c>
       <c r="S85" t="str">
         <f t="shared" si="4"/>
@@ -3145,17 +3407,20 @@
       <c r="A86" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="35"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" t="s">
         <v>264</v>
+      </c>
+      <c r="K86" t="s">
+        <v>293</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" si="4"/>
@@ -3166,11 +3431,11 @@
       <c r="A87" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="35" t="s">
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="33" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3179,6 +3444,9 @@
       <c r="H87" s="11"/>
       <c r="I87" t="s">
         <v>264</v>
+      </c>
+      <c r="K87" t="s">
+        <v>294</v>
       </c>
       <c r="S87" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G87,H87)</f>
@@ -3189,17 +3457,20 @@
       <c r="A88" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="35"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="33"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" t="s">
         <v>264</v>
+      </c>
+      <c r="K88" t="s">
+        <v>295</v>
       </c>
       <c r="S88" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G88,H88)</f>
@@ -3210,10 +3481,10 @@
       <c r="A89" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="33" t="s">
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="32" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="17" t="s">
@@ -3224,6 +3495,9 @@
       <c r="I89" t="s">
         <v>264</v>
       </c>
+      <c r="K89" t="s">
+        <v>296</v>
+      </c>
       <c r="S89" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F89,G89,H89)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel] &lt;numeric value</v>
@@ -3233,10 +3507,10 @@
       <c r="A90" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="33"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="11" t="s">
         <v>61</v>
       </c>
@@ -3245,6 +3519,9 @@
       <c r="I90" t="s">
         <v>264</v>
       </c>
+      <c r="K90" t="s">
+        <v>297</v>
+      </c>
       <c r="S90" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F90,G90,H90)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC[:LEVel]?</v>
@@ -3254,11 +3531,11 @@
       <c r="A91" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="35" t="s">
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="33" t="s">
         <v>60</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3267,6 +3544,9 @@
       <c r="H91" s="11"/>
       <c r="I91" t="s">
         <v>264</v>
+      </c>
+      <c r="K91" t="s">
+        <v>298</v>
       </c>
       <c r="S91" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G91,H91)</f>
@@ -3277,17 +3557,20 @@
       <c r="A92" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="35"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="33"/>
       <c r="G92" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" t="s">
         <v>264</v>
+      </c>
+      <c r="K92" t="s">
+        <v>299</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" ref="S92:S94" si="5">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G92,H92)</f>
@@ -3298,17 +3581,20 @@
       <c r="A93" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="35"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" t="s">
         <v>264</v>
+      </c>
+      <c r="K93" t="s">
+        <v>300</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" si="5"/>
@@ -3319,17 +3605,20 @@
       <c r="A94" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="35"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" t="s">
         <v>264</v>
+      </c>
+      <c r="K94" t="s">
+        <v>301</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" si="5"/>
@@ -3340,12 +3629,12 @@
       <c r="A95" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="33" t="s">
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -3353,6 +3642,9 @@
       </c>
       <c r="I95" t="s">
         <v>264</v>
+      </c>
+      <c r="K95" t="s">
+        <v>302</v>
       </c>
       <c r="S95" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H95)</f>
@@ -3363,17 +3655,20 @@
       <c r="A96" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="33"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I96" t="s">
         <v>264</v>
+      </c>
+      <c r="K96" t="s">
+        <v>303</v>
       </c>
       <c r="S96" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H96)</f>
@@ -3384,10 +3679,10 @@
       <c r="A97" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="33"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="32"/>
       <c r="F97" s="17" t="s">
         <v>79</v>
       </c>
@@ -3396,6 +3691,9 @@
       <c r="I97" t="s">
         <v>264</v>
       </c>
+      <c r="K97" t="s">
+        <v>304</v>
+      </c>
       <c r="S97" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F97,G834,H97)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW &lt;boolean&gt;|ON|OFF</v>
@@ -3405,10 +3703,10 @@
       <c r="A98" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="33"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="32"/>
       <c r="F98" s="17" t="s">
         <v>80</v>
       </c>
@@ -3417,6 +3715,9 @@
       <c r="I98" t="s">
         <v>264</v>
       </c>
+      <c r="K98" t="s">
+        <v>305</v>
+      </c>
       <c r="S98" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F98,G835,H98)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CLOW</v>
@@ -3426,11 +3727,11 @@
       <c r="A99" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="35" t="s">
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3439,6 +3740,9 @@
       <c r="H99" s="11"/>
       <c r="I99" t="s">
         <v>264</v>
+      </c>
+      <c r="K99" t="s">
+        <v>306</v>
       </c>
       <c r="S99" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G99,H99)</f>
@@ -3449,17 +3753,20 @@
       <c r="A100" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="35"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="11" t="s">
         <v>82</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" t="s">
         <v>264</v>
+      </c>
+      <c r="K100" t="s">
+        <v>307</v>
       </c>
       <c r="S100" t="str">
         <f t="shared" ref="S100:S106" si="6">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G100,H100)</f>
@@ -3470,17 +3777,20 @@
       <c r="A101" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="35"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33"/>
       <c r="G101" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" t="s">
         <v>264</v>
+      </c>
+      <c r="K101" t="s">
+        <v>308</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="6"/>
@@ -3491,17 +3801,20 @@
       <c r="A102" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="35"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="33"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" t="s">
         <v>264</v>
+      </c>
+      <c r="K102" t="s">
+        <v>309</v>
       </c>
       <c r="S102" t="str">
         <f t="shared" si="6"/>
@@ -3512,17 +3825,20 @@
       <c r="A103" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="35"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="33"/>
       <c r="G103" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" t="s">
         <v>264</v>
+      </c>
+      <c r="K103" t="s">
+        <v>310</v>
       </c>
       <c r="S103" t="str">
         <f t="shared" si="6"/>
@@ -3533,17 +3849,20 @@
       <c r="A104" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="35"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="33"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" t="s">
         <v>264</v>
+      </c>
+      <c r="K104" t="s">
+        <v>311</v>
       </c>
       <c r="S104" t="str">
         <f t="shared" si="6"/>
@@ -3554,17 +3873,20 @@
       <c r="A105" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="35"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="33"/>
       <c r="G105" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" t="s">
         <v>264</v>
+      </c>
+      <c r="K105" t="s">
+        <v>312</v>
       </c>
       <c r="S105" t="str">
         <f t="shared" si="6"/>
@@ -3575,17 +3897,20 @@
       <c r="A106" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="35"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="33"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" t="s">
         <v>264</v>
+      </c>
+      <c r="K106" t="s">
+        <v>313</v>
       </c>
       <c r="S106" t="str">
         <f t="shared" si="6"/>
@@ -3596,11 +3921,11 @@
       <c r="A107" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="35" t="s">
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G107" s="11" t="s">
@@ -3609,6 +3934,9 @@
       <c r="H107" s="11"/>
       <c r="I107" t="s">
         <v>264</v>
+      </c>
+      <c r="K107" t="s">
+        <v>314</v>
       </c>
       <c r="S107" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G107,H107)</f>
@@ -3619,17 +3947,20 @@
       <c r="A108" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="35"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="33"/>
       <c r="G108" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" t="s">
         <v>264</v>
+      </c>
+      <c r="K108" t="s">
+        <v>315</v>
       </c>
       <c r="S108" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G108,H108)</f>
@@ -3640,17 +3971,20 @@
       <c r="A109" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="35"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" t="s">
         <v>264</v>
+      </c>
+      <c r="K109" t="s">
+        <v>316</v>
       </c>
       <c r="S109" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G109,H109)</f>
@@ -3661,17 +3995,20 @@
       <c r="A110" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="35"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="33"/>
       <c r="G110" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" t="s">
         <v>264</v>
+      </c>
+      <c r="K110" t="s">
+        <v>317</v>
       </c>
       <c r="S110" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G110,H110)</f>
@@ -3682,11 +4019,11 @@
       <c r="A111" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="35" t="s">
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="33" t="s">
         <v>76</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -3695,6 +4032,9 @@
       <c r="H111" s="11"/>
       <c r="I111" t="s">
         <v>264</v>
+      </c>
+      <c r="K111" t="s">
+        <v>318</v>
       </c>
       <c r="S111" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G111,H111)</f>
@@ -3705,17 +4045,20 @@
       <c r="A112" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="35"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="33"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" t="s">
         <v>264</v>
+      </c>
+      <c r="K112" t="s">
+        <v>319</v>
       </c>
       <c r="S112" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G112,H112)</f>
@@ -3726,10 +4069,10 @@
       <c r="A113" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="33" t="s">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="32" t="s">
         <v>84</v>
       </c>
       <c r="F113" s="17" t="s">
@@ -3740,6 +4083,9 @@
       <c r="I113" t="s">
         <v>264</v>
       </c>
+      <c r="K113" t="s">
+        <v>320</v>
+      </c>
       <c r="S113" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F113,G113,H113)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel] &lt;numeric value</v>
@@ -3749,10 +4095,10 @@
       <c r="A114" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="33"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="32"/>
       <c r="F114" s="11" t="s">
         <v>61</v>
       </c>
@@ -3761,6 +4107,9 @@
       <c r="I114" t="s">
         <v>264</v>
       </c>
+      <c r="K114" t="s">
+        <v>321</v>
+      </c>
       <c r="S114" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F114,G114,H114)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:IR[:LEVel]?</v>
@@ -3770,11 +4119,11 @@
       <c r="A115" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="35" t="s">
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="33" t="s">
         <v>60</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -3783,6 +4132,9 @@
       <c r="H115" s="11"/>
       <c r="I115" t="s">
         <v>264</v>
+      </c>
+      <c r="K115" t="s">
+        <v>322</v>
       </c>
       <c r="S115" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G115,H115)</f>
@@ -3793,17 +4145,20 @@
       <c r="A116" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="35"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="33"/>
       <c r="G116" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116" t="s">
         <v>264</v>
+      </c>
+      <c r="K116" t="s">
+        <v>323</v>
       </c>
       <c r="S116" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G116,H116)</f>
@@ -3814,17 +4169,20 @@
       <c r="A117" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="35"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="33"/>
       <c r="G117" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" t="s">
         <v>264</v>
+      </c>
+      <c r="K117" t="s">
+        <v>324</v>
       </c>
       <c r="S117" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G117,H117)</f>
@@ -3835,17 +4193,20 @@
       <c r="A118" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="35"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="33"/>
       <c r="G118" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H118" s="11"/>
       <c r="I118" t="s">
         <v>264</v>
+      </c>
+      <c r="K118" t="s">
+        <v>325</v>
       </c>
       <c r="S118" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G118,H118)</f>
@@ -3856,11 +4217,11 @@
       <c r="A119" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="35" t="s">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -3869,6 +4230,9 @@
       <c r="H119" s="11"/>
       <c r="I119" t="s">
         <v>264</v>
+      </c>
+      <c r="K119" t="s">
+        <v>326</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" ref="S119:S126" si="7">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$119,G119,H119)</f>
@@ -3879,17 +4243,20 @@
       <c r="A120" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="35"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="33"/>
       <c r="G120" s="11" t="s">
         <v>82</v>
       </c>
       <c r="H120" s="11"/>
       <c r="I120" t="s">
         <v>264</v>
+      </c>
+      <c r="K120" t="s">
+        <v>327</v>
       </c>
       <c r="S120" t="str">
         <f t="shared" si="7"/>
@@ -3900,17 +4267,20 @@
       <c r="A121" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="35"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="33"/>
       <c r="G121" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" t="s">
         <v>264</v>
+      </c>
+      <c r="K121" t="s">
+        <v>328</v>
       </c>
       <c r="S121" t="str">
         <f t="shared" si="7"/>
@@ -3921,17 +4291,20 @@
       <c r="A122" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="35"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="33"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" t="s">
         <v>264</v>
+      </c>
+      <c r="K122" t="s">
+        <v>329</v>
       </c>
       <c r="S122" t="str">
         <f t="shared" si="7"/>
@@ -3942,17 +4315,20 @@
       <c r="A123" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="35"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="33"/>
       <c r="G123" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" t="s">
         <v>264</v>
+      </c>
+      <c r="K123" t="s">
+        <v>330</v>
       </c>
       <c r="S123" t="str">
         <f t="shared" si="7"/>
@@ -3963,17 +4339,20 @@
       <c r="A124" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="35"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="33"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" t="s">
         <v>264</v>
+      </c>
+      <c r="K124" t="s">
+        <v>331</v>
       </c>
       <c r="S124" t="str">
         <f t="shared" si="7"/>
@@ -3984,17 +4363,20 @@
       <c r="A125" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="35"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="33"/>
       <c r="G125" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H125" s="11"/>
       <c r="I125" t="s">
         <v>264</v>
+      </c>
+      <c r="K125" t="s">
+        <v>332</v>
       </c>
       <c r="S125" t="str">
         <f t="shared" si="7"/>
@@ -4005,17 +4387,20 @@
       <c r="A126" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="35"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="33"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H126" s="11"/>
       <c r="I126" t="s">
         <v>264</v>
+      </c>
+      <c r="K126" t="s">
+        <v>333</v>
       </c>
       <c r="S126" t="str">
         <f t="shared" si="7"/>
@@ -4026,11 +4411,11 @@
       <c r="A127" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="35" t="s">
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="33" t="s">
         <v>85</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4039,6 +4424,9 @@
       <c r="H127" s="11"/>
       <c r="I127" t="s">
         <v>264</v>
+      </c>
+      <c r="K127" t="s">
+        <v>334</v>
       </c>
       <c r="S127" t="str">
         <f t="shared" ref="S127:S132" si="8">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$127,G127,H127)</f>
@@ -4049,17 +4437,20 @@
       <c r="A128" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="35"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="33"/>
       <c r="G128" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H128" s="11"/>
       <c r="I128" t="s">
         <v>264</v>
+      </c>
+      <c r="K128" t="s">
+        <v>335</v>
       </c>
       <c r="S128" t="str">
         <f t="shared" si="8"/>
@@ -4070,17 +4461,20 @@
       <c r="A129" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="35"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="33"/>
       <c r="G129" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" t="s">
         <v>264</v>
+      </c>
+      <c r="K129" t="s">
+        <v>336</v>
       </c>
       <c r="S129" t="str">
         <f t="shared" si="8"/>
@@ -4091,17 +4485,20 @@
       <c r="A130" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="35"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="33"/>
       <c r="G130" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H130" s="11"/>
       <c r="I130" t="s">
         <v>264</v>
+      </c>
+      <c r="K130" t="s">
+        <v>337</v>
       </c>
       <c r="S130" t="str">
         <f t="shared" si="8"/>
@@ -4112,17 +4509,20 @@
       <c r="A131" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="35"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="33"/>
       <c r="G131" s="11" t="s">
         <v>90</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" t="s">
         <v>264</v>
+      </c>
+      <c r="K131" t="s">
+        <v>338</v>
       </c>
       <c r="S131" t="str">
         <f t="shared" si="8"/>
@@ -4133,17 +4533,20 @@
       <c r="A132" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="35"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="33"/>
       <c r="G132" s="11" t="s">
         <v>91</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" t="s">
         <v>264</v>
+      </c>
+      <c r="K132" t="s">
+        <v>339</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" si="8"/>
@@ -4154,11 +4557,11 @@
       <c r="A133" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="35" t="s">
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4167,6 +4570,9 @@
       <c r="H133" s="11"/>
       <c r="I133" t="s">
         <v>264</v>
+      </c>
+      <c r="K133" t="s">
+        <v>340</v>
       </c>
       <c r="S133" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G133,H133)</f>
@@ -4177,17 +4583,20 @@
       <c r="A134" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="35"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="33"/>
       <c r="G134" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H134" s="11"/>
       <c r="I134" t="s">
         <v>264</v>
+      </c>
+      <c r="K134" t="s">
+        <v>341</v>
       </c>
       <c r="S134" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G134,H134)</f>
@@ -4198,17 +4607,20 @@
       <c r="A135" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="35"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="33"/>
       <c r="G135" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H135" s="11"/>
       <c r="I135" t="s">
         <v>264</v>
+      </c>
+      <c r="K135" t="s">
+        <v>342</v>
       </c>
       <c r="S135" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G135,H135)</f>
@@ -4219,17 +4631,20 @@
       <c r="A136" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="35"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="33"/>
       <c r="G136" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H136" s="11"/>
       <c r="I136" t="s">
         <v>264</v>
+      </c>
+      <c r="K136" t="s">
+        <v>343</v>
       </c>
       <c r="S136" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G136,H136)</f>
@@ -4240,13 +4655,13 @@
       <c r="A137" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="33" t="s">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F137" s="35" t="s">
+      <c r="F137" s="33" t="s">
         <v>60</v>
       </c>
       <c r="G137" s="11" t="s">
@@ -4268,11 +4683,11 @@
       <c r="A138" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="35"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="33"/>
       <c r="G138" s="11" t="s">
         <v>94</v>
       </c>
@@ -4292,11 +4707,11 @@
       <c r="A139" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="35"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="33"/>
       <c r="G139" s="11" t="s">
         <v>95</v>
       </c>
@@ -4316,11 +4731,11 @@
       <c r="A140" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="35"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="33"/>
       <c r="G140" s="11" t="s">
         <v>96</v>
       </c>
@@ -4340,11 +4755,11 @@
       <c r="A141" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="36" t="s">
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="34" t="s">
         <v>73</v>
       </c>
       <c r="G141" s="25" t="s">
@@ -4366,11 +4781,11 @@
       <c r="A142" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="36"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="34"/>
       <c r="G142" s="25" t="s">
         <v>63</v>
       </c>
@@ -4390,11 +4805,11 @@
       <c r="A143" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="36"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="34"/>
       <c r="G143" s="25" t="s">
         <v>75</v>
       </c>
@@ -4414,11 +4829,11 @@
       <c r="A144" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="36"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="34"/>
       <c r="G144" s="25" t="s">
         <v>65</v>
       </c>
@@ -4438,10 +4853,10 @@
       <c r="A145" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="33"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="32"/>
       <c r="F145" s="11" t="s">
         <v>97</v>
       </c>
@@ -4462,11 +4877,11 @@
       <c r="A146" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33" t="s">
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32" t="s">
         <v>98</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -4488,11 +4903,11 @@
       <c r="A147" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
@@ -4512,10 +4927,10 @@
       <c r="A148" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="33"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="32"/>
       <c r="F148" s="11" t="s">
         <v>99</v>
       </c>
@@ -4536,10 +4951,10 @@
       <c r="A149" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="32"/>
       <c r="F149" s="11" t="s">
         <v>100</v>
       </c>
@@ -4557,13 +4972,13 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="33" t="s">
+      <c r="A150" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="32" t="s">
         <v>105</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -4571,6 +4986,9 @@
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
+      <c r="I150" t="s">
+        <v>264</v>
+      </c>
       <c r="K150" t="s">
         <v>217</v>
       </c>
@@ -4580,18 +4998,21 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="33"/>
+      <c r="A151" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="32"/>
       <c r="F151" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
+      <c r="I151" t="s">
+        <v>264</v>
+      </c>
       <c r="K151" t="s">
         <v>218</v>
       </c>
@@ -4601,18 +5022,21 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="33"/>
+      <c r="A152" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="11" t="s">
         <v>103</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
+      <c r="I152" t="s">
+        <v>264</v>
+      </c>
       <c r="K152" t="s">
         <v>219</v>
       </c>
@@ -4622,18 +5046,21 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="33"/>
+      <c r="A153" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="32"/>
       <c r="F153" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
+      <c r="I153" t="s">
+        <v>264</v>
+      </c>
       <c r="K153" t="s">
         <v>220</v>
       </c>
@@ -4643,20 +5070,23 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33" t="s">
+      <c r="A154" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H154" s="11"/>
+      <c r="I154" t="s">
+        <v>264</v>
+      </c>
       <c r="K154" t="s">
         <v>221</v>
       </c>
@@ -4666,18 +5096,21 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
+      <c r="A155" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H155" s="11"/>
+      <c r="I155" t="s">
+        <v>264</v>
+      </c>
       <c r="K155" t="s">
         <v>222</v>
       </c>
@@ -4690,9 +5123,9 @@
       <c r="A156" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B156" s="34"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34" t="s">
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30" t="s">
         <v>106</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -4716,9 +5149,9 @@
       <c r="A157" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="34"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
       <c r="E157" s="8" t="s">
         <v>107</v>
       </c>
@@ -4740,9 +5173,9 @@
       <c r="A158" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="34"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
       <c r="E158" s="8" t="s">
         <v>108</v>
       </c>
@@ -4764,9 +5197,9 @@
       <c r="A159" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="34"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
       <c r="E159" s="8" t="s">
         <v>109</v>
       </c>
@@ -4788,9 +5221,9 @@
       <c r="A160" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
       <c r="E160" s="8" t="s">
         <v>45</v>
       </c>
@@ -4812,9 +5245,9 @@
       <c r="A161" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
       <c r="E161" s="8" t="s">
         <v>110</v>
       </c>
@@ -4836,9 +5269,9 @@
       <c r="A162" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="34"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
       <c r="E162" s="8" t="s">
         <v>111</v>
       </c>
@@ -4860,9 +5293,9 @@
       <c r="A163" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B163" s="34"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
       <c r="E163" s="8" t="s">
         <v>58</v>
       </c>
@@ -4884,9 +5317,9 @@
       <c r="A164" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
       <c r="E164" s="8" t="s">
         <v>112</v>
       </c>
@@ -4908,9 +5341,9 @@
       <c r="A165" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B165" s="34"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
       <c r="E165" s="8" t="s">
         <v>113</v>
       </c>
@@ -4932,9 +5365,9 @@
       <c r="A166" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="34"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
       <c r="E166" s="8" t="s">
         <v>114</v>
       </c>
@@ -4956,9 +5389,9 @@
       <c r="A167" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B167" s="34"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
       <c r="E167" s="8" t="s">
         <v>115</v>
       </c>
@@ -4980,9 +5413,9 @@
       <c r="A168" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B168" s="34"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
       <c r="E168" s="8" t="s">
         <v>116</v>
       </c>
@@ -5004,9 +5437,9 @@
       <c r="A169" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
       <c r="E169" s="8" t="s">
         <v>117</v>
       </c>
@@ -5028,9 +5461,9 @@
       <c r="A170" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B170" s="34"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
       <c r="E170" s="8" t="s">
         <v>118</v>
       </c>
@@ -5052,9 +5485,9 @@
       <c r="A171" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
       <c r="E171" s="8" t="s">
         <v>119</v>
       </c>
@@ -5076,9 +5509,9 @@
       <c r="A172" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B172" s="34"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
       <c r="E172" s="8" t="s">
         <v>120</v>
       </c>
@@ -5100,9 +5533,9 @@
       <c r="A173" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
       <c r="E173" s="8" t="s">
         <v>121</v>
       </c>
@@ -5124,9 +5557,9 @@
       <c r="A174" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B174" s="34"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="34"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
       <c r="E174" s="8" t="s">
         <v>122</v>
       </c>
@@ -5148,9 +5581,9 @@
       <c r="A175" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B175" s="34"/>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
       <c r="E175" s="8" t="s">
         <v>123</v>
       </c>
@@ -5172,9 +5605,9 @@
       <c r="A176" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B176" s="34"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="34"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
       <c r="E176" s="8" t="s">
         <v>124</v>
       </c>
@@ -5196,9 +5629,9 @@
       <c r="A177" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B177" s="34"/>
-      <c r="C177" s="34"/>
-      <c r="D177" s="34"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
       <c r="E177" s="8" t="s">
         <v>125</v>
       </c>
@@ -5220,9 +5653,9 @@
       <c r="A178" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
       <c r="E178" s="8" t="s">
         <v>126</v>
       </c>
@@ -5244,9 +5677,9 @@
       <c r="A179" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B179" s="34"/>
-      <c r="C179" s="34"/>
-      <c r="D179" s="34"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
       <c r="E179" s="8" t="s">
         <v>127</v>
       </c>
@@ -5268,9 +5701,9 @@
       <c r="A180" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B180" s="34"/>
-      <c r="C180" s="34"/>
-      <c r="D180" s="34"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
       <c r="E180" s="8" t="s">
         <v>128</v>
       </c>
@@ -5292,9 +5725,9 @@
       <c r="A181" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
       <c r="E181" s="8" t="s">
         <v>129</v>
       </c>
@@ -5316,9 +5749,9 @@
       <c r="A182" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
       <c r="E182" s="8" t="s">
         <v>130</v>
       </c>
@@ -5340,9 +5773,9 @@
       <c r="A183" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B183" s="34"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="34"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
       <c r="E183" s="8" t="s">
         <v>131</v>
       </c>
@@ -5364,9 +5797,9 @@
       <c r="A184" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
       <c r="E184" s="8" t="s">
         <v>132</v>
       </c>
@@ -5388,9 +5821,9 @@
       <c r="A185" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B185" s="34"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="34"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
       <c r="E185" s="8" t="s">
         <v>133</v>
       </c>
@@ -5412,9 +5845,9 @@
       <c r="A186" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
       <c r="E186" s="8" t="s">
         <v>134</v>
       </c>
@@ -5436,9 +5869,9 @@
       <c r="A187" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B187" s="34"/>
-      <c r="C187" s="34"/>
-      <c r="D187" s="34"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
       <c r="E187" s="8" t="s">
         <v>111</v>
       </c>
@@ -5460,10 +5893,10 @@
       <c r="A188" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B188" s="34"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="27" t="s">
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="35" t="s">
         <v>135</v>
       </c>
       <c r="F188" s="26" t="s">
@@ -5486,10 +5919,10 @@
       <c r="A189" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B189" s="34"/>
-      <c r="C189" s="34"/>
-      <c r="D189" s="34"/>
-      <c r="E189" s="28"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="36"/>
       <c r="F189" s="8" t="s">
         <v>136</v>
       </c>
@@ -5510,10 +5943,10 @@
       <c r="A190" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B190" s="34"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="28"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="36"/>
       <c r="F190" s="26" t="s">
         <v>266</v>
       </c>
@@ -5534,10 +5967,10 @@
       <c r="A191" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B191" s="34"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="28"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="36"/>
       <c r="F191" s="8" t="s">
         <v>137</v>
       </c>
@@ -5558,10 +5991,10 @@
       <c r="A192" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B192" s="34"/>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="28"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="36"/>
       <c r="F192" s="26" t="s">
         <v>267</v>
       </c>
@@ -5582,10 +6015,10 @@
       <c r="A193" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="29"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="37"/>
       <c r="F193" s="8" t="s">
         <v>138</v>
       </c>
@@ -5627,19 +6060,19 @@
       <c r="A199" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B199" s="31" t="s">
+      <c r="B199" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="31" t="s">
+      <c r="C199" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="31" t="s">
+      <c r="D199" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="30" t="s">
+      <c r="E199" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="F199" s="31" t="s">
+      <c r="F199" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -5655,11 +6088,11 @@
       <c r="A200" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="30"/>
-      <c r="F200" s="31"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="38"/>
+      <c r="F200" s="27"/>
       <c r="G200" s="9" t="s">
         <v>47</v>
       </c>
@@ -5673,10 +6106,10 @@
       <c r="A201" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="30"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="38"/>
       <c r="F201" s="9" t="s">
         <v>48</v>
       </c>
@@ -5691,10 +6124,10 @@
       <c r="A202" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="31"/>
-      <c r="E202" s="30"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="38"/>
       <c r="F202" s="9" t="s">
         <v>34</v>
       </c>
@@ -5709,10 +6142,10 @@
       <c r="A203" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="31"/>
-      <c r="E203" s="30"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="38"/>
       <c r="F203" s="9" t="s">
         <v>49</v>
       </c>
@@ -5727,10 +6160,10 @@
       <c r="A204" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="31"/>
-      <c r="E204" s="30"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="38"/>
       <c r="F204" s="9" t="s">
         <v>35</v>
       </c>
@@ -5745,10 +6178,10 @@
       <c r="A205" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="31"/>
-      <c r="E205" s="30"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="38"/>
       <c r="F205" s="9" t="s">
         <v>50</v>
       </c>
@@ -5763,10 +6196,10 @@
       <c r="A206" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="31"/>
-      <c r="E206" s="30"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="38"/>
       <c r="F206" s="9" t="s">
         <v>36</v>
       </c>
@@ -5779,29 +6212,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="D199:D206"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B193"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C38:C193"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="D45:D63"/>
+    <mergeCell ref="E199:E206"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E68:E88"/>
+    <mergeCell ref="E89:E112"/>
     <mergeCell ref="F154:F155"/>
     <mergeCell ref="E150:E155"/>
     <mergeCell ref="D65:D155"/>
@@ -5818,12 +6234,29 @@
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="E188:E193"/>
-    <mergeCell ref="E199:E206"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E68:E88"/>
-    <mergeCell ref="E89:E112"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B193"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C38:C193"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D45:D63"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA15E44-5C12-4766-AB6C-1CD1CDBC338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9F3D8-1CB2-490D-A1B2-8F126EB64D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1328,22 +1328,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1358,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1706,9 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1929,7 @@
       <c r="A20" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1953,7 +1953,7 @@
       <c r="A21" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="A22" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="A23" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
@@ -2013,8 +2013,8 @@
       <c r="A24" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2035,8 +2035,8 @@
       <c r="A25" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
@@ -2055,8 +2055,8 @@
       <c r="A26" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="A27" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="A28" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="18" t="s">
         <v>254</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="A30" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2151,8 +2151,8 @@
       <c r="A31" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2173,8 +2173,8 @@
       <c r="A32" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
@@ -2193,8 +2193,8 @@
       <c r="A33" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2216,8 +2216,8 @@
       <c r="A34" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2236,8 +2236,8 @@
       <c r="A35" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="A36" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="19" t="s">
         <v>20</v>
       </c>
@@ -2282,10 +2282,10 @@
       <c r="A38" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2310,9 +2310,9 @@
       <c r="A39" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2336,9 +2336,9 @@
       <c r="A40" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2360,9 +2360,9 @@
       <c r="A41" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2384,9 +2384,9 @@
       <c r="A42" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2408,8 +2408,8 @@
       <c r="A43" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2432,8 +2432,8 @@
       <c r="A44" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2456,12 +2456,12 @@
       <c r="A45" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="29" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -2481,10 +2481,10 @@
       <c r="A46" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="13" t="s">
         <v>34</v>
       </c>
@@ -2502,10 +2502,10 @@
       <c r="A47" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="13" t="s">
         <v>35</v>
       </c>
@@ -2523,10 +2523,10 @@
       <c r="A48" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
       <c r="F48" s="13" t="s">
         <v>36</v>
       </c>
@@ -2544,11 +2544,11 @@
       <c r="A49" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="13" t="s">
@@ -2567,11 +2567,11 @@
       <c r="A50" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="13" t="s">
         <v>39</v>
       </c>
@@ -2588,11 +2588,11 @@
       <c r="A51" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="13" t="s">
         <v>40</v>
       </c>
@@ -2609,11 +2609,11 @@
       <c r="A52" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="13" t="s">
         <v>41</v>
       </c>
@@ -2630,11 +2630,11 @@
       <c r="A53" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="13" t="s">
         <v>42</v>
       </c>
@@ -2651,10 +2651,10 @@
       <c r="A54" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="13" t="s">
         <v>43</v>
       </c>
@@ -2672,9 +2672,9 @@
       <c r="A55" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="13" t="s">
         <v>44</v>
       </c>
@@ -2693,17 +2693,17 @@
       <c r="A56" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="K56" s="24" t="s">
         <v>192</v>
       </c>
@@ -2716,15 +2716,15 @@
       <c r="A57" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="31"/>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
       <c r="K57" s="24" t="s">
         <v>193</v>
       </c>
@@ -2737,15 +2737,15 @@
       <c r="A58" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="31"/>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="K58" s="24" t="s">
         <v>194</v>
       </c>
@@ -2758,15 +2758,15 @@
       <c r="A59" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="31"/>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="K59" s="24" t="s">
         <v>195</v>
       </c>
@@ -2779,10 +2779,10 @@
       <c r="A60" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -2802,10 +2802,10 @@
       <c r="A61" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="13" t="s">
         <v>34</v>
       </c>
@@ -2823,10 +2823,10 @@
       <c r="A62" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="13" t="s">
         <v>35</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="A63" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="13" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2865,8 @@
       <c r="A64" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="2" t="s">
         <v>56</v>
       </c>
@@ -2889,9 +2889,9 @@
       <c r="A65" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2915,9 +2915,9 @@
       <c r="A66" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="2" t="s">
         <v>57</v>
       </c>
@@ -2939,9 +2939,9 @@
       <c r="A67" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="2" t="s">
         <v>43</v>
       </c>
@@ -2963,10 +2963,10 @@
       <c r="A68" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="32" t="s">
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="30" t="s">
         <v>58</v>
       </c>
       <c r="F68" s="17" t="s">
@@ -2989,10 +2989,10 @@
       <c r="A69" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="11" t="s">
         <v>61</v>
       </c>
@@ -3013,11 +3013,11 @@
       <c r="A70" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33" t="s">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -3039,11 +3039,11 @@
       <c r="A71" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="32"/>
       <c r="G71" s="11" t="s">
         <v>63</v>
       </c>
@@ -3063,11 +3063,11 @@
       <c r="A72" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="32"/>
       <c r="G72" s="11" t="s">
         <v>64</v>
       </c>
@@ -3087,11 +3087,11 @@
       <c r="A73" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="32"/>
       <c r="G73" s="11" t="s">
         <v>65</v>
       </c>
@@ -3111,12 +3111,12 @@
       <c r="A74" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="32" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="30" t="s">
         <v>66</v>
       </c>
       <c r="H74" s="11" t="s">
@@ -3137,12 +3137,12 @@
       <c r="A75" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="32"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="30"/>
       <c r="H75" s="11" t="s">
         <v>61</v>
       </c>
@@ -3161,12 +3161,12 @@
       <c r="A76" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="32" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="30" t="s">
         <v>68</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -3187,12 +3187,12 @@
       <c r="A77" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="32"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="30"/>
       <c r="H77" s="11" t="s">
         <v>63</v>
       </c>
@@ -3211,11 +3211,11 @@
       <c r="A78" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="33" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -3237,11 +3237,11 @@
       <c r="A79" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="33"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="32"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
@@ -3261,11 +3261,11 @@
       <c r="A80" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="33"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="32"/>
       <c r="G80" s="11" t="s">
         <v>71</v>
       </c>
@@ -3285,11 +3285,11 @@
       <c r="A81" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="32"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
@@ -3309,11 +3309,11 @@
       <c r="A82" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="32"/>
       <c r="G82" s="11" t="s">
         <v>72</v>
       </c>
@@ -3333,11 +3333,11 @@
       <c r="A83" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="32" t="s">
         <v>73</v>
       </c>
       <c r="G83" s="11" t="s">
@@ -3359,11 +3359,11 @@
       <c r="A84" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="32"/>
       <c r="G84" s="11" t="s">
         <v>63</v>
       </c>
@@ -3383,11 +3383,11 @@
       <c r="A85" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="32"/>
       <c r="G85" s="11" t="s">
         <v>75</v>
       </c>
@@ -3407,11 +3407,11 @@
       <c r="A86" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="32"/>
       <c r="G86" s="11" t="s">
         <v>65</v>
       </c>
@@ -3431,11 +3431,11 @@
       <c r="A87" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="32" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3457,11 +3457,11 @@
       <c r="A88" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="32"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
@@ -3481,10 +3481,10 @@
       <c r="A89" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="32" t="s">
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="30" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="17" t="s">
@@ -3507,10 +3507,10 @@
       <c r="A90" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="32"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="11" t="s">
         <v>61</v>
       </c>
@@ -3531,11 +3531,11 @@
       <c r="A91" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="33" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3557,11 +3557,11 @@
       <c r="A92" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="33"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="32"/>
       <c r="G92" s="11" t="s">
         <v>63</v>
       </c>
@@ -3581,11 +3581,11 @@
       <c r="A93" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="33"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="32"/>
       <c r="G93" s="11" t="s">
         <v>64</v>
       </c>
@@ -3605,11 +3605,11 @@
       <c r="A94" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="33"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="32"/>
       <c r="G94" s="11" t="s">
         <v>65</v>
       </c>
@@ -3629,12 +3629,12 @@
       <c r="A95" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="32" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="30" t="s">
         <v>83</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -3655,12 +3655,12 @@
       <c r="A96" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="32"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="30"/>
       <c r="H96" s="11" t="s">
         <v>61</v>
       </c>
@@ -3679,10 +3679,10 @@
       <c r="A97" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="32"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="17" t="s">
         <v>79</v>
       </c>
@@ -3703,10 +3703,10 @@
       <c r="A98" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="32"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="17" t="s">
         <v>80</v>
       </c>
@@ -3727,11 +3727,11 @@
       <c r="A99" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="33" t="s">
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3753,11 +3753,11 @@
       <c r="A100" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="33"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="32"/>
       <c r="G100" s="11" t="s">
         <v>82</v>
       </c>
@@ -3777,11 +3777,11 @@
       <c r="A101" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="33"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="32"/>
       <c r="G101" s="11" t="s">
         <v>70</v>
       </c>
@@ -3801,11 +3801,11 @@
       <c r="A102" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="33"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="32"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
@@ -3825,11 +3825,11 @@
       <c r="A103" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="33"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="32"/>
       <c r="G103" s="11" t="s">
         <v>71</v>
       </c>
@@ -3849,11 +3849,11 @@
       <c r="A104" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="33"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="32"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
@@ -3873,11 +3873,11 @@
       <c r="A105" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="33"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="32"/>
       <c r="G105" s="11" t="s">
         <v>72</v>
       </c>
@@ -3897,11 +3897,11 @@
       <c r="A106" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="33"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="32"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
@@ -3921,11 +3921,11 @@
       <c r="A107" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="33" t="s">
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="32" t="s">
         <v>73</v>
       </c>
       <c r="G107" s="11" t="s">
@@ -3947,11 +3947,11 @@
       <c r="A108" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="33"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="32"/>
       <c r="G108" s="11" t="s">
         <v>63</v>
       </c>
@@ -3971,11 +3971,11 @@
       <c r="A109" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="33"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="32"/>
       <c r="G109" s="11" t="s">
         <v>75</v>
       </c>
@@ -3995,11 +3995,11 @@
       <c r="A110" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="33"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="32"/>
       <c r="G110" s="11" t="s">
         <v>65</v>
       </c>
@@ -4019,11 +4019,11 @@
       <c r="A111" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="33" t="s">
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="32" t="s">
         <v>76</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -4045,11 +4045,11 @@
       <c r="A112" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="33"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="32"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
@@ -4069,10 +4069,10 @@
       <c r="A113" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="32" t="s">
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F113" s="17" t="s">
@@ -4095,10 +4095,10 @@
       <c r="A114" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="32"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="11" t="s">
         <v>61</v>
       </c>
@@ -4119,11 +4119,11 @@
       <c r="A115" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="33" t="s">
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -4145,11 +4145,11 @@
       <c r="A116" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="33"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="32"/>
       <c r="G116" s="11" t="s">
         <v>63</v>
       </c>
@@ -4169,11 +4169,11 @@
       <c r="A117" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="33"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="32"/>
       <c r="G117" s="11" t="s">
         <v>64</v>
       </c>
@@ -4193,11 +4193,11 @@
       <c r="A118" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="33"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="32"/>
       <c r="G118" s="11" t="s">
         <v>65</v>
       </c>
@@ -4217,11 +4217,11 @@
       <c r="A119" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33" t="s">
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -4243,11 +4243,11 @@
       <c r="A120" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="33"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="32"/>
       <c r="G120" s="11" t="s">
         <v>82</v>
       </c>
@@ -4267,11 +4267,11 @@
       <c r="A121" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="33"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="32"/>
       <c r="G121" s="11" t="s">
         <v>70</v>
       </c>
@@ -4291,11 +4291,11 @@
       <c r="A122" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="33"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="32"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
@@ -4315,11 +4315,11 @@
       <c r="A123" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="33"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="32"/>
       <c r="G123" s="11" t="s">
         <v>71</v>
       </c>
@@ -4339,11 +4339,11 @@
       <c r="A124" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="33"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="32"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
@@ -4363,11 +4363,11 @@
       <c r="A125" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="33"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="32"/>
       <c r="G125" s="11" t="s">
         <v>72</v>
       </c>
@@ -4387,11 +4387,11 @@
       <c r="A126" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="33"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="32"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
@@ -4411,11 +4411,11 @@
       <c r="A127" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="33" t="s">
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4437,11 +4437,11 @@
       <c r="A128" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="33"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="32"/>
       <c r="G128" s="11" t="s">
         <v>87</v>
       </c>
@@ -4461,11 +4461,11 @@
       <c r="A129" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="33"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="32"/>
       <c r="G129" s="11" t="s">
         <v>88</v>
       </c>
@@ -4485,11 +4485,11 @@
       <c r="A130" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="33"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="32"/>
       <c r="G130" s="11" t="s">
         <v>89</v>
       </c>
@@ -4509,11 +4509,11 @@
       <c r="A131" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="33"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="32"/>
       <c r="G131" s="11" t="s">
         <v>90</v>
       </c>
@@ -4533,11 +4533,11 @@
       <c r="A132" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="33"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="32"/>
       <c r="G132" s="11" t="s">
         <v>91</v>
       </c>
@@ -4557,11 +4557,11 @@
       <c r="A133" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="33" t="s">
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="32" t="s">
         <v>73</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4583,11 +4583,11 @@
       <c r="A134" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="33"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="32"/>
       <c r="G134" s="11" t="s">
         <v>63</v>
       </c>
@@ -4607,11 +4607,11 @@
       <c r="A135" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="33"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="32"/>
       <c r="G135" s="11" t="s">
         <v>75</v>
       </c>
@@ -4631,11 +4631,11 @@
       <c r="A136" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="33"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="32"/>
       <c r="G136" s="11" t="s">
         <v>65</v>
       </c>
@@ -4655,13 +4655,13 @@
       <c r="A137" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="32" t="s">
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F137" s="33" t="s">
+      <c r="F137" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G137" s="11" t="s">
@@ -4683,11 +4683,11 @@
       <c r="A138" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="33"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="32"/>
       <c r="G138" s="11" t="s">
         <v>94</v>
       </c>
@@ -4707,11 +4707,11 @@
       <c r="A139" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="33"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="32"/>
       <c r="G139" s="11" t="s">
         <v>95</v>
       </c>
@@ -4731,11 +4731,11 @@
       <c r="A140" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="33"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="32"/>
       <c r="G140" s="11" t="s">
         <v>96</v>
       </c>
@@ -4755,11 +4755,11 @@
       <c r="A141" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B141" s="30"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="34" t="s">
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G141" s="25" t="s">
@@ -4781,11 +4781,11 @@
       <c r="A142" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="34"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="33"/>
       <c r="G142" s="25" t="s">
         <v>63</v>
       </c>
@@ -4805,11 +4805,11 @@
       <c r="A143" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="34"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="33"/>
       <c r="G143" s="25" t="s">
         <v>75</v>
       </c>
@@ -4829,11 +4829,11 @@
       <c r="A144" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="34"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="33"/>
       <c r="G144" s="25" t="s">
         <v>65</v>
       </c>
@@ -4853,10 +4853,10 @@
       <c r="A145" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="32"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="11" t="s">
         <v>97</v>
       </c>
@@ -4877,11 +4877,11 @@
       <c r="A146" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32" t="s">
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30" t="s">
         <v>98</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -4903,11 +4903,11 @@
       <c r="A147" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
@@ -4927,10 +4927,10 @@
       <c r="A148" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="32"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="30"/>
       <c r="F148" s="11" t="s">
         <v>99</v>
       </c>
@@ -4951,10 +4951,10 @@
       <c r="A149" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="32"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="30"/>
       <c r="F149" s="11" t="s">
         <v>100</v>
       </c>
@@ -4975,10 +4975,10 @@
       <c r="A150" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="32" t="s">
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="30" t="s">
         <v>105</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -5001,10 +5001,10 @@
       <c r="A151" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="32"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="11" t="s">
         <v>102</v>
       </c>
@@ -5025,10 +5025,10 @@
       <c r="A152" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="32"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="30"/>
       <c r="F152" s="11" t="s">
         <v>103</v>
       </c>
@@ -5049,10 +5049,10 @@
       <c r="A153" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="32"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="11" t="s">
         <v>104</v>
       </c>
@@ -5073,11 +5073,11 @@
       <c r="A154" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32" t="s">
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -5099,11 +5099,11 @@
       <c r="A155" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
@@ -5123,9 +5123,9 @@
       <c r="A156" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30" t="s">
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31" t="s">
         <v>106</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -5149,9 +5149,9 @@
       <c r="A157" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
       <c r="E157" s="8" t="s">
         <v>107</v>
       </c>
@@ -5173,9 +5173,9 @@
       <c r="A158" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
       <c r="E158" s="8" t="s">
         <v>108</v>
       </c>
@@ -5197,9 +5197,9 @@
       <c r="A159" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
       <c r="E159" s="8" t="s">
         <v>109</v>
       </c>
@@ -5221,9 +5221,9 @@
       <c r="A160" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
       <c r="E160" s="8" t="s">
         <v>45</v>
       </c>
@@ -5245,9 +5245,9 @@
       <c r="A161" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
       <c r="E161" s="8" t="s">
         <v>110</v>
       </c>
@@ -5269,9 +5269,9 @@
       <c r="A162" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
       <c r="E162" s="8" t="s">
         <v>111</v>
       </c>
@@ -5293,9 +5293,9 @@
       <c r="A163" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
       <c r="E163" s="8" t="s">
         <v>58</v>
       </c>
@@ -5317,9 +5317,9 @@
       <c r="A164" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
       <c r="E164" s="8" t="s">
         <v>112</v>
       </c>
@@ -5341,9 +5341,9 @@
       <c r="A165" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
       <c r="E165" s="8" t="s">
         <v>113</v>
       </c>
@@ -5365,9 +5365,9 @@
       <c r="A166" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
       <c r="E166" s="8" t="s">
         <v>114</v>
       </c>
@@ -5389,9 +5389,9 @@
       <c r="A167" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
       <c r="E167" s="8" t="s">
         <v>115</v>
       </c>
@@ -5413,9 +5413,9 @@
       <c r="A168" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
       <c r="E168" s="8" t="s">
         <v>116</v>
       </c>
@@ -5437,9 +5437,9 @@
       <c r="A169" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
       <c r="E169" s="8" t="s">
         <v>117</v>
       </c>
@@ -5461,9 +5461,9 @@
       <c r="A170" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
       <c r="E170" s="8" t="s">
         <v>118</v>
       </c>
@@ -5485,9 +5485,9 @@
       <c r="A171" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
       <c r="E171" s="8" t="s">
         <v>119</v>
       </c>
@@ -5509,9 +5509,9 @@
       <c r="A172" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
       <c r="E172" s="8" t="s">
         <v>120</v>
       </c>
@@ -5533,9 +5533,9 @@
       <c r="A173" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
       <c r="E173" s="8" t="s">
         <v>121</v>
       </c>
@@ -5557,9 +5557,9 @@
       <c r="A174" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
       <c r="E174" s="8" t="s">
         <v>122</v>
       </c>
@@ -5581,9 +5581,9 @@
       <c r="A175" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
       <c r="E175" s="8" t="s">
         <v>123</v>
       </c>
@@ -5605,9 +5605,9 @@
       <c r="A176" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
       <c r="E176" s="8" t="s">
         <v>124</v>
       </c>
@@ -5629,9 +5629,9 @@
       <c r="A177" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
       <c r="E177" s="8" t="s">
         <v>125</v>
       </c>
@@ -5653,9 +5653,9 @@
       <c r="A178" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
       <c r="E178" s="8" t="s">
         <v>126</v>
       </c>
@@ -5677,9 +5677,9 @@
       <c r="A179" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
       <c r="E179" s="8" t="s">
         <v>127</v>
       </c>
@@ -5701,9 +5701,9 @@
       <c r="A180" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
       <c r="E180" s="8" t="s">
         <v>128</v>
       </c>
@@ -5725,9 +5725,9 @@
       <c r="A181" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B181" s="30"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
       <c r="E181" s="8" t="s">
         <v>129</v>
       </c>
@@ -5749,9 +5749,9 @@
       <c r="A182" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
       <c r="E182" s="8" t="s">
         <v>130</v>
       </c>
@@ -5773,9 +5773,9 @@
       <c r="A183" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
       <c r="E183" s="8" t="s">
         <v>131</v>
       </c>
@@ -5797,9 +5797,9 @@
       <c r="A184" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
       <c r="E184" s="8" t="s">
         <v>132</v>
       </c>
@@ -5821,9 +5821,9 @@
       <c r="A185" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
       <c r="E185" s="8" t="s">
         <v>133</v>
       </c>
@@ -5845,9 +5845,9 @@
       <c r="A186" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B186" s="30"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="30"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
       <c r="E186" s="8" t="s">
         <v>134</v>
       </c>
@@ -5869,9 +5869,9 @@
       <c r="A187" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
       <c r="E187" s="8" t="s">
         <v>111</v>
       </c>
@@ -5893,10 +5893,10 @@
       <c r="A188" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B188" s="30"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="30"/>
-      <c r="E188" s="35" t="s">
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="34" t="s">
         <v>135</v>
       </c>
       <c r="F188" s="26" t="s">
@@ -5919,10 +5919,10 @@
       <c r="A189" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B189" s="30"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30"/>
-      <c r="E189" s="36"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="35"/>
       <c r="F189" s="8" t="s">
         <v>136</v>
       </c>
@@ -5943,10 +5943,10 @@
       <c r="A190" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="36"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="35"/>
       <c r="F190" s="26" t="s">
         <v>266</v>
       </c>
@@ -5967,10 +5967,10 @@
       <c r="A191" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B191" s="30"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="36"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="35"/>
       <c r="F191" s="8" t="s">
         <v>137</v>
       </c>
@@ -5991,10 +5991,10 @@
       <c r="A192" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B192" s="30"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="36"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="35"/>
       <c r="F192" s="26" t="s">
         <v>267</v>
       </c>
@@ -6015,10 +6015,10 @@
       <c r="A193" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="37"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="36"/>
       <c r="F193" s="8" t="s">
         <v>138</v>
       </c>
@@ -6060,19 +6060,19 @@
       <c r="A199" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="27" t="s">
+      <c r="D199" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="38" t="s">
+      <c r="E199" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F199" s="27" t="s">
+      <c r="F199" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -6088,11 +6088,11 @@
       <c r="A200" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="38"/>
-      <c r="F200" s="27"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="28"/>
       <c r="G200" s="9" t="s">
         <v>47</v>
       </c>
@@ -6106,10 +6106,10 @@
       <c r="A201" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="38"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="27"/>
       <c r="F201" s="9" t="s">
         <v>48</v>
       </c>
@@ -6124,10 +6124,10 @@
       <c r="A202" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="38"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="27"/>
       <c r="F202" s="9" t="s">
         <v>34</v>
       </c>
@@ -6142,10 +6142,10 @@
       <c r="A203" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="38"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="27"/>
       <c r="F203" s="9" t="s">
         <v>49</v>
       </c>
@@ -6160,10 +6160,10 @@
       <c r="A204" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="38"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="27"/>
       <c r="F204" s="9" t="s">
         <v>35</v>
       </c>
@@ -6178,10 +6178,10 @@
       <c r="A205" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="38"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="27"/>
       <c r="F205" s="9" t="s">
         <v>50</v>
       </c>
@@ -6196,10 +6196,10 @@
       <c r="A206" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="38"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="27"/>
       <c r="F206" s="9" t="s">
         <v>36</v>
       </c>
@@ -6212,14 +6212,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E199:E206"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E68:E88"/>
-    <mergeCell ref="E89:E112"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B193"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C38:C193"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D45:D63"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G74:G75"/>
     <mergeCell ref="D65:D155"/>
     <mergeCell ref="D156:D193"/>
     <mergeCell ref="E113:E136"/>
@@ -6234,29 +6249,14 @@
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="E188:E193"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="D199:D206"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B193"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C38:C193"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D45:D63"/>
+    <mergeCell ref="E199:E206"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E68:E88"/>
+    <mergeCell ref="E89:E112"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="E150:E155"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9F3D8-1CB2-490D-A1B2-8F126EB64D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D9F82-4314-4C33-913F-5B197BC6A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>:FALL?</t>
   </si>
   <si>
-    <t>:DWELl</t>
-  </si>
-  <si>
     <t>:MODE?</t>
   </si>
   <si>
@@ -1068,6 +1065,9 @@
   </si>
   <si>
     <t>:SOURce:SAFEty:STEP &lt;n&gt;:IR:CHANnel:LOW?</t>
+  </si>
+  <si>
+    <t>:DWEL?</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,19 +1328,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,10 +1361,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1708,7 +1711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F58" sqref="F58"/>
+      <selection pane="topRight" activeCell="D45" sqref="D45:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,198 +1730,198 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.4">
       <c r="C2" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S17" s="12"/>
     </row>
@@ -1927,9 +1930,9 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1939,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S20" t="str">
         <f>CONCATENATE($B$20,C20,D20)</f>
@@ -1951,18 +1954,18 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="B21" s="28"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="6"/>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S21" t="str">
         <f>CONCATENATE($B$20,C21,D21)</f>
@@ -1971,18 +1974,18 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="B22" s="28"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="6"/>
       <c r="I22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S22" t="str">
         <f>CONCATENATE($B$20,C22,D22)</f>
@@ -1991,18 +1994,18 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6"/>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S23" t="str">
         <f>CONCATENATE($B$20,C23,D23)</f>
@@ -2011,20 +2014,20 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S24" t="str">
         <f>CONCATENATE($B$20,$C$24,D24)</f>
@@ -2033,18 +2036,18 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S25" t="str">
         <f>CONCATENATE($B$20,$C$24,D25)</f>
@@ -2053,18 +2056,18 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S26" t="str">
         <f>CONCATENATE($B$20,$C$24,D26)</f>
@@ -2073,21 +2076,21 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="B27" s="28"/>
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S27" t="str">
         <f>CONCATENATE($B$20,C27,D27)</f>
@@ -2096,21 +2099,21 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="B28" s="28"/>
       <c r="C28" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S28" t="str">
         <f>CONCATENATE($B$20,C28,D28)</f>
@@ -2125,9 +2128,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2137,10 +2140,10 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S30" t="str">
         <f>CONCATENATE($B$30,C30,D30)</f>
@@ -2149,20 +2152,20 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S31" t="str">
         <f>CONCATENATE($B$30,$C$31,D31)</f>
@@ -2171,18 +2174,18 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
+        <v>157</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S32" t="str">
         <f>CONCATENATE($B$30,$C$31,D32)</f>
@@ -2191,10 +2194,10 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2202,10 +2205,10 @@
       </c>
       <c r="E33" s="7"/>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S33" t="str">
         <f>CONCATENATE($B$30,$C$33,D33)</f>
@@ -2214,18 +2217,18 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+        <v>157</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S34" t="str">
         <f>CONCATENATE($B$30,$C$33,D34)</f>
@@ -2234,18 +2237,18 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+        <v>157</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S35" t="str">
         <f>CONCATENATE($B$30,$C$33,D35)</f>
@@ -2254,18 +2257,18 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="38"/>
+        <v>157</v>
+      </c>
+      <c r="B36" s="29"/>
       <c r="C36" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1"/>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S36" t="str">
         <f>CONCATENATE($B$30,C36,D36)</f>
@@ -2280,12 +2283,12 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2296,10 +2299,10 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S38" t="str">
         <f>CONCATENATE($B$38,$C$38,D38,E38,F38,$G$38)</f>
@@ -2308,11 +2311,11 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2322,10 +2325,10 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S39" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$39,E39,F39,$G$38)</f>
@@ -2334,11 +2337,11 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2346,10 +2349,10 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" ref="S40:S42" si="0">CONCATENATE($B$38,$C$38,$D$39,E40,F40,$G$38)</f>
@@ -2358,11 +2361,11 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2370,10 +2373,10 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="0"/>
@@ -2382,11 +2385,11 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2394,10 +2397,10 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S42" t="str">
         <f t="shared" si="0"/>
@@ -2406,10 +2409,10 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2418,10 +2421,10 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S43" t="str">
         <f>CONCATENATE($B$38,$C$38,D43,E43)</f>
@@ -2430,10 +2433,10 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2442,10 +2445,10 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S44" t="str">
         <f>CONCATENATE($B$38,$C$38,D44,E44)</f>
@@ -2454,23 +2457,23 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="K45" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S45" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,F45,G45)</f>
@@ -2479,19 +2482,19 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="K46" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" ref="S46:S48" si="1">CONCATENATE($B$38,$C$38,$D$45,$E$45,F46,G46)</f>
@@ -2500,19 +2503,19 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="K47" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" si="1"/>
@@ -2521,19 +2524,19 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="K48" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" si="1"/>
@@ -2542,21 +2545,21 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="2"/>
       <c r="K49" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S49" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,$F$49,G49)</f>
@@ -2565,19 +2568,19 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="2"/>
       <c r="K50" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" ref="S50:S53" si="2">CONCATENATE($B$38,$C$38,$D$45,$E$45,$F$49,G50)</f>
@@ -2586,19 +2589,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="2"/>
       <c r="K51" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" si="2"/>
@@ -2607,19 +2610,19 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="2"/>
       <c r="K52" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" si="2"/>
@@ -2628,40 +2631,40 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" s="13"/>
+        <v>255</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="K53" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" si="2"/>
-        <v>:SOURce:SAFEty:RESult:ALL:TIME:DWELl</v>
+        <v>:SOURce:SAFEty:RESult:ALL:TIME:DWEL?</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+        <v>255</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="K54" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S54" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,F54,G54)</f>
@@ -2670,19 +2673,19 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+        <v>255</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="K55" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S55" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,E55,F55,G55,H55)</f>
@@ -2691,13 +2694,13 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="31" t="s">
-        <v>53</v>
+        <v>255</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>33</v>
@@ -2705,7 +2708,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="K56" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S56" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F56,G56,H56)</f>
@@ -2714,19 +2717,19 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="31"/>
+        <v>255</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="K57" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S57" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F57,G57,H57)</f>
@@ -2735,19 +2738,19 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="31"/>
+        <v>255</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="K58" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S58" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F58,G58,H58)</f>
@@ -2756,19 +2759,19 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="31"/>
+        <v>255</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="K59" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F59,G59,H59)</f>
@@ -2777,21 +2780,21 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="K60" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S60" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F60,G60,H60)</f>
@@ -2800,19 +2803,19 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+        <v>255</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="K61" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S61" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F61,G61,H61)</f>
@@ -2821,19 +2824,19 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+        <v>255</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="K62" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S62" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F62,G62,H62)</f>
@@ -2842,19 +2845,19 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+        <v>255</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="K63" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S63" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F63,G63,H63)</f>
@@ -2863,22 +2866,22 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S64" t="str">
         <f>CONCATENATE($B$38,$C$38,D64,E64,F64,G64,H64)</f>
@@ -2887,12 +2890,12 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31" t="s">
-        <v>54</v>
+        <v>157</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -2901,10 +2904,10 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S65" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E65,F65,G65,H65)</f>
@@ -2913,22 +2916,22 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S66" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E66,F66,G66,H66)</f>
@@ -2937,22 +2940,22 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S67" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E67,F67,G67,H67)</f>
@@ -2961,24 +2964,24 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S68" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F68,G68,H68)</f>
@@ -2987,22 +2990,22 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S69" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F69,G69,H69)</f>
@@ -3011,24 +3014,24 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="32" t="s">
-        <v>60</v>
+        <v>157</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S70" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G70,H70)</f>
@@ -3037,22 +3040,22 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S71" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G71,H71)</f>
@@ -3061,22 +3064,22 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="33"/>
       <c r="G72" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S72" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G72,H72)</f>
@@ -3085,22 +3088,22 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="33"/>
       <c r="G73" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S73" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G73,H73)</f>
@@ -3109,24 +3112,24 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="I74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S74" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H74)</f>
@@ -3135,22 +3138,22 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="32"/>
       <c r="H75" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S75" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H75)</f>
@@ -3159,24 +3162,24 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="I76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S76" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H76)</f>
@@ -3185,22 +3188,22 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S77" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H77)</f>
@@ -3209,24 +3212,24 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S78" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G78,H78)</f>
@@ -3235,22 +3238,22 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ref="S79:S82" si="3">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G79,H79)</f>
@@ -3259,22 +3262,22 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="33"/>
       <c r="G80" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" si="3"/>
@@ -3283,22 +3286,22 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S81" t="str">
         <f t="shared" si="3"/>
@@ -3307,22 +3310,22 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="3"/>
@@ -3331,24 +3334,24 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S83" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G83,H83)</f>
@@ -3357,22 +3360,22 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" ref="S84:S86" si="4">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G84,H84)</f>
@@ -3381,22 +3384,22 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S85" t="str">
         <f t="shared" si="4"/>
@@ -3405,22 +3408,22 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" si="4"/>
@@ -3429,24 +3432,24 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S87" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G87,H87)</f>
@@ -3455,22 +3458,22 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="33"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S88" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G88,H88)</f>
@@ -3479,24 +3482,24 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="30" t="s">
-        <v>78</v>
+        <v>157</v>
+      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S89" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F89,G89,H89)</f>
@@ -3505,22 +3508,22 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S90" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F90,G90,H90)</f>
@@ -3529,24 +3532,24 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="32" t="s">
-        <v>60</v>
+        <v>157</v>
+      </c>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S91" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G91,H91)</f>
@@ -3555,22 +3558,22 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="33"/>
       <c r="G92" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K92" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" ref="S92:S94" si="5">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G92,H92)</f>
@@ -3579,22 +3582,22 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" si="5"/>
@@ -3603,22 +3606,22 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" si="5"/>
@@ -3627,24 +3630,24 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="30" t="s">
-        <v>83</v>
+        <v>157</v>
+      </c>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S95" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H95)</f>
@@ -3653,22 +3656,22 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S96" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H96)</f>
@@ -3677,22 +3680,22 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="32"/>
       <c r="F97" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S97" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F97,G834,H97)</f>
@@ -3701,22 +3704,22 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="32"/>
       <c r="F98" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S98" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F98,G835,H98)</f>
@@ -3725,24 +3728,24 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S99" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G99,H99)</f>
@@ -3751,22 +3754,22 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S100" t="str">
         <f t="shared" ref="S100:S106" si="6">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G100,H100)</f>
@@ -3775,22 +3778,22 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33"/>
       <c r="G101" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K101" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="6"/>
@@ -3799,22 +3802,22 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="33"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S102" t="str">
         <f t="shared" si="6"/>
@@ -3823,22 +3826,22 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="33"/>
       <c r="G103" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S103" t="str">
         <f t="shared" si="6"/>
@@ -3847,22 +3850,22 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="33"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S104" t="str">
         <f t="shared" si="6"/>
@@ -3871,22 +3874,22 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="33"/>
       <c r="G105" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K105" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S105" t="str">
         <f t="shared" si="6"/>
@@ -3895,22 +3898,22 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="33"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S106" t="str">
         <f t="shared" si="6"/>
@@ -3919,24 +3922,24 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G107" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S107" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G107,H107)</f>
@@ -3945,22 +3948,22 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="33"/>
       <c r="G108" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K108" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S108" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G108,H108)</f>
@@ -3969,22 +3972,22 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K109" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S109" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G109,H109)</f>
@@ -3993,22 +3996,22 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="33"/>
       <c r="G110" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S110" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G110,H110)</f>
@@ -4017,24 +4020,24 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G111" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K111" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S111" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G111,H111)</f>
@@ -4043,22 +4046,22 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="33"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S112" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G112,H112)</f>
@@ -4067,24 +4070,24 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="30" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K113" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S113" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F113,G113,H113)</f>
@@ -4093,22 +4096,22 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="32"/>
       <c r="F114" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S114" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F114,G114,H114)</f>
@@ -4117,24 +4120,24 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="32" t="s">
-        <v>60</v>
+        <v>157</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H115" s="11"/>
       <c r="I115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K115" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S115" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G115,H115)</f>
@@ -4143,22 +4146,22 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="33"/>
       <c r="G116" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K116" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S116" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G116,H116)</f>
@@ -4167,22 +4170,22 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="33"/>
       <c r="G117" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K117" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S117" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G117,H117)</f>
@@ -4191,22 +4194,22 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="33"/>
       <c r="G118" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H118" s="11"/>
       <c r="I118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S118" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G118,H118)</f>
@@ -4215,24 +4218,24 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H119" s="11"/>
       <c r="I119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" ref="S119:S126" si="7">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$119,G119,H119)</f>
@@ -4241,22 +4244,22 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="33"/>
       <c r="G120" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H120" s="11"/>
       <c r="I120" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S120" t="str">
         <f t="shared" si="7"/>
@@ -4265,22 +4268,22 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="33"/>
       <c r="G121" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S121" t="str">
         <f t="shared" si="7"/>
@@ -4289,22 +4292,22 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="33"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K122" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S122" t="str">
         <f t="shared" si="7"/>
@@ -4313,22 +4316,22 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="33"/>
       <c r="G123" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K123" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S123" t="str">
         <f t="shared" si="7"/>
@@ -4337,22 +4340,22 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="33"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K124" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S124" t="str">
         <f t="shared" si="7"/>
@@ -4361,22 +4364,22 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="33"/>
       <c r="G125" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H125" s="11"/>
       <c r="I125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S125" t="str">
         <f t="shared" si="7"/>
@@ -4385,22 +4388,22 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="33"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H126" s="11"/>
       <c r="I126" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K126" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S126" t="str">
         <f t="shared" si="7"/>
@@ -4409,24 +4412,24 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="H127" s="11"/>
       <c r="I127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K127" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S127" t="str">
         <f t="shared" ref="S127:S132" si="8">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$127,G127,H127)</f>
@@ -4435,22 +4438,22 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="33"/>
       <c r="G128" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H128" s="11"/>
       <c r="I128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S128" t="str">
         <f t="shared" si="8"/>
@@ -4459,22 +4462,22 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="33"/>
       <c r="G129" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K129" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S129" t="str">
         <f t="shared" si="8"/>
@@ -4483,22 +4486,22 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="33"/>
       <c r="G130" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H130" s="11"/>
       <c r="I130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K130" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S130" t="str">
         <f t="shared" si="8"/>
@@ -4507,22 +4510,22 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="33"/>
       <c r="G131" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K131" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S131" t="str">
         <f t="shared" si="8"/>
@@ -4531,22 +4534,22 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="33"/>
       <c r="G132" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K132" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" si="8"/>
@@ -4555,24 +4558,24 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G133" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S133" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G133,H133)</f>
@@ -4581,22 +4584,22 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="33"/>
       <c r="G134" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H134" s="11"/>
       <c r="I134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S134" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G134,H134)</f>
@@ -4605,22 +4608,22 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="33"/>
       <c r="G135" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H135" s="11"/>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K135" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S135" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G135,H135)</f>
@@ -4629,22 +4632,22 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="33"/>
       <c r="G136" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H136" s="11"/>
       <c r="I136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K136" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S136" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G136,H136)</f>
@@ -4653,26 +4656,26 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="F137" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="H137" s="11"/>
       <c r="I137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S137" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G137,H137)</f>
@@ -4681,22 +4684,22 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="33"/>
       <c r="G138" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H138" s="11"/>
       <c r="I138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S138" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G138,H138)</f>
@@ -4705,22 +4708,22 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="33"/>
       <c r="G139" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S139" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G139,H139)</f>
@@ -4729,22 +4732,22 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="33"/>
       <c r="G140" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S140" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G140,H140)</f>
@@ -4753,24 +4756,24 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G141" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>74</v>
       </c>
       <c r="H141" s="11"/>
       <c r="I141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S141" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G141,H141)</f>
@@ -4779,22 +4782,22 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="33"/>
+        <v>157</v>
+      </c>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="34"/>
       <c r="G142" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H142" s="11"/>
       <c r="I142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S142" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G142,H142)</f>
@@ -4803,22 +4806,22 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="33"/>
+        <v>157</v>
+      </c>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="34"/>
       <c r="G143" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H143" s="11"/>
       <c r="I143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S143" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G143,H143)</f>
@@ -4827,22 +4830,22 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="33"/>
+        <v>157</v>
+      </c>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="34"/>
       <c r="G144" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H144" s="11"/>
       <c r="I144" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S144" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G144,H144)</f>
@@ -4851,22 +4854,22 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="32"/>
       <c r="F145" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S145" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F145,G145,H145)</f>
@@ -4875,24 +4878,24 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30" t="s">
-        <v>98</v>
+        <v>157</v>
+      </c>
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H146" s="11"/>
       <c r="I146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S146" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G146,H146)</f>
@@ -4901,22 +4904,22 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H147" s="11"/>
       <c r="I147" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S147" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G147,H147)</f>
@@ -4925,22 +4928,22 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="32"/>
       <c r="F148" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S148" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F148,G148,H148)</f>
@@ -4949,22 +4952,22 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="32"/>
       <c r="F149" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S149" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F149,G149,H149)</f>
@@ -4973,24 +4976,24 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="30" t="s">
-        <v>105</v>
+        <v>157</v>
+      </c>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S150" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F150,G150,H150)</f>
@@ -4999,22 +5002,22 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="32"/>
       <c r="F151" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S151" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F151,G151,H151)</f>
@@ -5023,22 +5026,22 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S152" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F152,G152,H152)</f>
@@ -5047,22 +5050,22 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="32"/>
       <c r="F153" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S153" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F153,G153,H153)</f>
@@ -5071,24 +5074,24 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H154" s="11"/>
       <c r="I154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S154" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G154,H154)</f>
@@ -5097,22 +5100,22 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H155" s="11"/>
       <c r="I155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S155" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G155,H155)</f>
@@ -5121,12 +5124,12 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31" t="s">
-        <v>106</v>
+        <v>157</v>
+      </c>
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>37</v>
@@ -5135,10 +5138,10 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S156" t="str">
         <f t="shared" ref="S156:S187" si="9">CONCATENATE($B$38,$C$38,$D$156,E156,F156,G156,H156)</f>
@@ -5147,22 +5150,22 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
       <c r="E157" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" si="9"/>
@@ -5171,22 +5174,22 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158" s="31"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
       <c r="E158" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" si="9"/>
@@ -5195,22 +5198,22 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
       <c r="E159" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" si="9"/>
@@ -5219,22 +5222,22 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
       <c r="E160" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K160" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S160" t="str">
         <f t="shared" si="9"/>
@@ -5243,22 +5246,22 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
       <c r="E161" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K161" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S161" t="str">
         <f t="shared" si="9"/>
@@ -5267,22 +5270,22 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
       <c r="E162" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K162" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" si="9"/>
@@ -5291,22 +5294,22 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
       <c r="E163" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K163" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" si="9"/>
@@ -5315,22 +5318,22 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
       <c r="E164" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K164" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" si="9"/>
@@ -5339,22 +5342,22 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
       <c r="E165" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K165" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" si="9"/>
@@ -5363,22 +5366,22 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
       <c r="E166" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K166" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S166" t="str">
         <f t="shared" si="9"/>
@@ -5387,22 +5390,22 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
       <c r="E167" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S167" t="str">
         <f t="shared" si="9"/>
@@ -5411,22 +5414,22 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
       <c r="E168" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K168" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" si="9"/>
@@ -5435,22 +5438,22 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
       <c r="E169" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" si="9"/>
@@ -5459,22 +5462,22 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
       <c r="E170" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" si="9"/>
@@ -5483,22 +5486,22 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
       <c r="E171" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S171" t="str">
         <f t="shared" si="9"/>
@@ -5507,22 +5510,22 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
       <c r="E172" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K172" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S172" t="str">
         <f t="shared" si="9"/>
@@ -5531,22 +5534,22 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
       <c r="E173" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K173" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S173" t="str">
         <f t="shared" si="9"/>
@@ -5555,22 +5558,22 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
       <c r="E174" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K174" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" si="9"/>
@@ -5579,22 +5582,22 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
       <c r="E175" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K175" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S175" t="str">
         <f t="shared" si="9"/>
@@ -5603,22 +5606,22 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
       <c r="E176" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S176" t="str">
         <f t="shared" si="9"/>
@@ -5627,22 +5630,22 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
       <c r="E177" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K177" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S177" t="str">
         <f t="shared" si="9"/>
@@ -5651,22 +5654,22 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
       <c r="E178" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="I178" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K178" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S178" t="str">
         <f t="shared" si="9"/>
@@ -5675,22 +5678,22 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
       <c r="E179" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K179" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S179" t="str">
         <f t="shared" si="9"/>
@@ -5699,22 +5702,22 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
       <c r="E180" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K180" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S180" t="str">
         <f t="shared" si="9"/>
@@ -5723,22 +5726,22 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
       <c r="E181" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="I181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K181" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S181" t="str">
         <f t="shared" si="9"/>
@@ -5747,22 +5750,22 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
       <c r="E182" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" si="9"/>
@@ -5771,22 +5774,22 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
       <c r="E183" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K183" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S183" t="str">
         <f t="shared" si="9"/>
@@ -5795,22 +5798,22 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
       <c r="E184" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K184" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" si="9"/>
@@ -5819,22 +5822,22 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
       <c r="E185" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" si="9"/>
@@ -5843,22 +5846,22 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
       <c r="E186" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="I186" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K186" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S186" t="str">
         <f t="shared" si="9"/>
@@ -5867,22 +5870,22 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
       <c r="E187" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K187" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S187" t="str">
         <f t="shared" si="9"/>
@@ -5891,24 +5894,24 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="34" t="s">
-        <v>135</v>
+        <v>157</v>
+      </c>
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="F188" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K188" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S188" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$156,$E$188,F188,G188,H188)</f>
@@ -5917,22 +5920,22 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="31"/>
-      <c r="E189" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="36"/>
       <c r="F189" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="I189" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K189" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S189" t="str">
         <f t="shared" ref="S189:S193" si="10">CONCATENATE($B$38,$C$38,$D$156,$E$188,F189,G189,H189)</f>
@@ -5941,22 +5944,22 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="36"/>
       <c r="F190" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K190" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S190" t="str">
         <f t="shared" si="10"/>
@@ -5965,22 +5968,22 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="36"/>
       <c r="F191" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K191" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" si="10"/>
@@ -5989,22 +5992,22 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="36"/>
       <c r="F192" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="I192" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K192" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S192" t="str">
         <f t="shared" si="10"/>
@@ -6013,22 +6016,22 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="36"/>
+        <v>157</v>
+      </c>
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="37"/>
       <c r="F193" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="I193" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K193" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S193" t="str">
         <f t="shared" si="10"/>
@@ -6053,30 +6056,30 @@
     </row>
     <row r="198" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B198" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B199" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B199" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="28" t="s">
+      <c r="C199" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="28" t="s">
+      <c r="D199" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F199" s="28" t="s">
-        <v>46</v>
+      <c r="E199" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H199" s="9"/>
       <c r="S199" t="str">
@@ -6086,15 +6089,15 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="28"/>
+        <v>255</v>
+      </c>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="38"/>
+      <c r="F200" s="27"/>
       <c r="G200" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H200" s="9"/>
       <c r="S200" t="str">
@@ -6104,14 +6107,14 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="27"/>
+        <v>255</v>
+      </c>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="38"/>
       <c r="F201" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -6122,12 +6125,12 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B202" s="28"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="27"/>
+        <v>255</v>
+      </c>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="38"/>
       <c r="F202" s="9" t="s">
         <v>34</v>
       </c>
@@ -6140,14 +6143,14 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B203" s="28"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="27"/>
+        <v>255</v>
+      </c>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="38"/>
       <c r="F203" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -6158,12 +6161,12 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="27"/>
+        <v>255</v>
+      </c>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="38"/>
       <c r="F204" s="9" t="s">
         <v>35</v>
       </c>
@@ -6176,14 +6179,14 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="27"/>
+        <v>255</v>
+      </c>
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="38"/>
       <c r="F205" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
@@ -6194,12 +6197,12 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="27"/>
+        <v>255</v>
+      </c>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="38"/>
       <c r="F206" s="9" t="s">
         <v>36</v>
       </c>
@@ -6212,6 +6215,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="E188:E193"/>
+    <mergeCell ref="E199:E206"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="E89:E112"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="E113:E136"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="E137:E149"/>
+    <mergeCell ref="F115:F118"/>
+    <mergeCell ref="F119:F126"/>
+    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E68:E88"/>
     <mergeCell ref="B199:B206"/>
     <mergeCell ref="D199:D206"/>
     <mergeCell ref="C24:C26"/>
@@ -6224,39 +6258,8 @@
     <mergeCell ref="C38:C193"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="D45:D63"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G74:G75"/>
     <mergeCell ref="D65:D155"/>
     <mergeCell ref="D156:D193"/>
-    <mergeCell ref="E113:E136"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="E137:E149"/>
-    <mergeCell ref="F115:F118"/>
-    <mergeCell ref="F119:F126"/>
-    <mergeCell ref="F127:F132"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="E188:E193"/>
-    <mergeCell ref="E199:E206"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E68:E88"/>
-    <mergeCell ref="E89:E112"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="E150:E155"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D9F82-4314-4C33-913F-5B197BC6A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D277120-126C-4B34-8A82-97C2BF965792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="336">
   <si>
     <t>:SYSTem</t>
   </si>
@@ -659,18 +659,6 @@
     <t>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:LIMit:SHORt?</t>
   </si>
   <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH] &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW?</t>
-  </si>
-  <si>
     <t>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CRANge? &lt;MAXimun|MINimum|NOW&gt;</t>
   </si>
   <si>
@@ -975,18 +963,6 @@
   </si>
   <si>
     <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:TIME:FALL?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH] &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH]?</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW &lt;channel_list&gt;</t>
-  </si>
-  <si>
-    <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW?</t>
   </si>
   <si>
     <t>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CURRent:OFFSet &lt;numeric_value&gt;</t>
@@ -1274,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,9 +1274,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1328,28 +1301,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1319,25 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,195 +1706,195 @@
         <v>156</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="S1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.4">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>154</v>
       </c>
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S17" s="12"/>
     </row>
@@ -1929,10 +1902,10 @@
       <c r="S18" s="12"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1942,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K20" t="s">
         <v>158</v>
@@ -1953,16 +1926,16 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="28"/>
+      <c r="A21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="6"/>
       <c r="I21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K21" t="s">
         <v>159</v>
@@ -1973,16 +1946,16 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="28"/>
+      <c r="A22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="37"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="6"/>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K22" t="s">
         <v>160</v>
@@ -1993,16 +1966,16 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="28"/>
+      <c r="A23" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="37"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6"/>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K23" t="s">
         <v>161</v>
@@ -2013,18 +1986,18 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28" t="s">
+      <c r="A24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
         <v>162</v>
@@ -2035,16 +2008,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
         <v>163</v>
@@ -2055,16 +2028,16 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
         <v>164</v>
@@ -2075,21 +2048,21 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="20" t="s">
-        <v>256</v>
+      <c r="E27" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
-      </c>
-      <c r="K27" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>165</v>
       </c>
       <c r="S27" t="str">
@@ -2098,22 +2071,22 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="18" t="s">
-        <v>253</v>
+      <c r="A28" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="20" t="s">
-        <v>256</v>
+      <c r="E28" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="S28" t="str">
         <f>CONCATENATE($B$20,C28,D28)</f>
@@ -2127,10 +2100,10 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2140,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
         <v>166</v>
@@ -2151,18 +2124,18 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
         <v>167</v>
@@ -2173,16 +2146,16 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
         <v>168</v>
@@ -2193,11 +2166,11 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29" t="s">
+      <c r="A33" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2205,7 +2178,7 @@
       </c>
       <c r="E33" s="7"/>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s">
         <v>169</v>
@@ -2216,16 +2189,16 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s">
         <v>170</v>
@@ -2236,16 +2209,16 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K35" t="s">
         <v>171</v>
@@ -2256,16 +2229,16 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="19" t="s">
+      <c r="A36" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1"/>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s">
         <v>172</v>
@@ -2282,13 +2255,13 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2299,7 +2272,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K38" t="s">
         <v>173</v>
@@ -2310,12 +2283,12 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2325,7 +2298,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s">
         <v>174</v>
@@ -2336,12 +2309,12 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="A40" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2349,7 +2322,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K40" t="s">
         <v>175</v>
@@ -2360,12 +2333,12 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="A41" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2373,7 +2346,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K41" t="s">
         <v>176</v>
@@ -2384,12 +2357,12 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="A42" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2397,7 +2370,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K42" t="s">
         <v>177</v>
@@ -2408,11 +2381,11 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2421,7 +2394,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K43" t="s">
         <v>178</v>
@@ -2432,11 +2405,11 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2445,7 +2418,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s">
         <v>179</v>
@@ -2457,14 +2430,14 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2472,7 +2445,7 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="K45" s="24" t="s">
+      <c r="K45" s="23" t="s">
         <v>180</v>
       </c>
       <c r="S45" t="str">
@@ -2482,18 +2455,18 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="23" t="s">
         <v>181</v>
       </c>
       <c r="S46" t="str">
@@ -2503,18 +2476,18 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="23" t="s">
         <v>182</v>
       </c>
       <c r="S47" t="str">
@@ -2524,18 +2497,18 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="23" t="s">
         <v>183</v>
       </c>
       <c r="S48" t="str">
@@ -2545,20 +2518,20 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="K49" s="24" t="s">
+      <c r="K49" s="23" t="s">
         <v>184</v>
       </c>
       <c r="S49" t="str">
@@ -2568,18 +2541,18 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="23" t="s">
         <v>185</v>
       </c>
       <c r="S50" t="str">
@@ -2589,18 +2562,18 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
       <c r="G51" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="K51" s="24" t="s">
+      <c r="K51" s="23" t="s">
         <v>186</v>
       </c>
       <c r="S51" t="str">
@@ -2610,18 +2583,18 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="23" t="s">
         <v>187</v>
       </c>
       <c r="S52" t="str">
@@ -2631,18 +2604,18 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H53" s="2"/>
-      <c r="K53" s="24" t="s">
+      <c r="K53" s="23" t="s">
         <v>188</v>
       </c>
       <c r="S53" t="str">
@@ -2652,18 +2625,18 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="K54" s="24" t="s">
+      <c r="K54" s="23" t="s">
         <v>189</v>
       </c>
       <c r="S54" t="str">
@@ -2673,18 +2646,18 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="K55" s="24" t="s">
+      <c r="K55" s="23" t="s">
         <v>190</v>
       </c>
       <c r="S55" t="str">
@@ -2694,12 +2667,12 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="35" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2707,7 +2680,7 @@
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="23" t="s">
         <v>191</v>
       </c>
       <c r="S56" t="str">
@@ -2717,18 +2690,18 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="35"/>
       <c r="F57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="K57" s="24" t="s">
+      <c r="K57" s="23" t="s">
         <v>192</v>
       </c>
       <c r="S57" t="str">
@@ -2738,18 +2711,18 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="23" t="s">
         <v>193</v>
       </c>
       <c r="S58" t="str">
@@ -2759,18 +2732,18 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="35"/>
       <c r="F59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="K59" s="24" t="s">
+      <c r="K59" s="23" t="s">
         <v>194</v>
       </c>
       <c r="S59" t="str">
@@ -2780,20 +2753,20 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="K60" s="24" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="K60" s="23" t="s">
         <v>195</v>
       </c>
       <c r="S60" t="str">
@@ -2803,18 +2776,18 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="K61" s="24" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="K61" s="23" t="s">
         <v>196</v>
       </c>
       <c r="S61" t="str">
@@ -2824,18 +2797,18 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="K62" s="24" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="K62" s="23" t="s">
         <v>197</v>
       </c>
       <c r="S62" t="str">
@@ -2845,18 +2818,18 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="K63" s="24" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="K63" s="23" t="s">
         <v>198</v>
       </c>
       <c r="S63" t="str">
@@ -2865,11 +2838,11 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
@@ -2878,7 +2851,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s">
         <v>199</v>
@@ -2889,12 +2862,12 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30" t="s">
+      <c r="A65" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2904,7 +2877,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K65" t="s">
         <v>200</v>
@@ -2915,12 +2888,12 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+      <c r="A66" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="2" t="s">
         <v>56</v>
       </c>
@@ -2928,7 +2901,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K66" t="s">
         <v>201</v>
@@ -2939,12 +2912,12 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="A67" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="2" t="s">
         <v>42</v>
       </c>
@@ -2952,7 +2925,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K67" t="s">
         <v>202</v>
@@ -2963,25 +2936,25 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="32" t="s">
+      <c r="A68" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K68" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S68" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F68,G68,H68)</f>
@@ -2989,23 +2962,23 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="32"/>
+      <c r="A69" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="33"/>
       <c r="F69" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K69" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="S69" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F69,G69,H69)</f>
@@ -3013,14 +2986,14 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33" t="s">
+      <c r="A70" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -3028,10 +3001,10 @@
       </c>
       <c r="H70" s="11"/>
       <c r="I70" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="S70" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G70,H70)</f>
@@ -3039,23 +3012,23 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
+      <c r="A71" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K71" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="S71" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G71,H71)</f>
@@ -3063,23 +3036,23 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33"/>
+      <c r="A72" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="27"/>
       <c r="G72" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K72" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S72" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G72,H72)</f>
@@ -3087,23 +3060,23 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33"/>
+      <c r="A73" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="27"/>
       <c r="G73" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K73" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S73" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G73,H73)</f>
@@ -3111,25 +3084,25 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="32" t="s">
+      <c r="A74" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="33" t="s">
         <v>65</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K74" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S74" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H74)</f>
@@ -3137,23 +3110,23 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="32"/>
+      <c r="A75" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="33"/>
       <c r="H75" s="11" t="s">
         <v>60</v>
       </c>
       <c r="I75" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K75" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="S75" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H75)</f>
@@ -3161,25 +3134,25 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="32" t="s">
+      <c r="A76" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="33" t="s">
         <v>67</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>68</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K76" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="S76" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H76)</f>
@@ -3187,23 +3160,23 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="32"/>
+      <c r="A77" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="33"/>
       <c r="H77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I77" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K77" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S77" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H77)</f>
@@ -3211,14 +3184,14 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="33" t="s">
+      <c r="A78" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="27" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -3226,10 +3199,10 @@
       </c>
       <c r="H78" s="11"/>
       <c r="I78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K78" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S78" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G78,H78)</f>
@@ -3237,23 +3210,23 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="33"/>
+      <c r="A79" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="27"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K79" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ref="S79:S82" si="3">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G79,H79)</f>
@@ -3261,23 +3234,23 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="33"/>
+      <c r="A80" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K80" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" si="3"/>
@@ -3285,23 +3258,23 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
+      <c r="A81" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K81" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="S81" t="str">
         <f t="shared" si="3"/>
@@ -3309,23 +3282,23 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33"/>
+      <c r="A82" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="27"/>
       <c r="G82" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K82" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="3"/>
@@ -3333,25 +3306,25 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="A83" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H83" s="11"/>
+      <c r="H83" s="24"/>
       <c r="I83" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K83" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S83" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G83,H83)</f>
@@ -3359,23 +3332,23 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="11" t="s">
+      <c r="A84" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H84" s="11"/>
+      <c r="H84" s="24"/>
       <c r="I84" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K84" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" ref="S84:S86" si="4">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G84,H84)</f>
@@ -3383,23 +3356,23 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="11" t="s">
+      <c r="A85" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="11"/>
+      <c r="H85" s="24"/>
       <c r="I85" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K85" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S85" t="str">
         <f t="shared" si="4"/>
@@ -3407,23 +3380,23 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="11" t="s">
+      <c r="A86" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H86" s="11"/>
+      <c r="H86" s="24"/>
       <c r="I86" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K86" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" si="4"/>
@@ -3431,14 +3404,14 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33" t="s">
+      <c r="A87" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="27" t="s">
         <v>75</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3446,10 +3419,10 @@
       </c>
       <c r="H87" s="11"/>
       <c r="I87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K87" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S87" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G87,H87)</f>
@@ -3457,23 +3430,23 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33"/>
+      <c r="A88" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K88" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S88" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G88,H88)</f>
@@ -3481,25 +3454,25 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="32" t="s">
+      <c r="A89" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K89" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S89" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F89,G89,H89)</f>
@@ -3507,23 +3480,23 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="32"/>
+      <c r="A90" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="33"/>
       <c r="F90" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K90" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S90" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F90,G90,H90)</f>
@@ -3531,14 +3504,14 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="33" t="s">
+      <c r="A91" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3546,10 +3519,10 @@
       </c>
       <c r="H91" s="11"/>
       <c r="I91" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K91" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S91" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G91,H91)</f>
@@ -3557,23 +3530,23 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="33"/>
+      <c r="A92" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K92" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" ref="S92:S94" si="5">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G92,H92)</f>
@@ -3581,23 +3554,23 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="33"/>
+      <c r="A93" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="27"/>
       <c r="G93" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K93" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" si="5"/>
@@ -3605,23 +3578,23 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="33"/>
+      <c r="A94" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K94" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" si="5"/>
@@ -3629,25 +3602,25 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="32" t="s">
+      <c r="A95" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="33" t="s">
         <v>82</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>66</v>
       </c>
       <c r="I95" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K95" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S95" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H95)</f>
@@ -3655,23 +3628,23 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="32"/>
+      <c r="A96" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="33"/>
       <c r="H96" s="11" t="s">
         <v>60</v>
       </c>
       <c r="I96" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K96" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="S96" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H96)</f>
@@ -3679,23 +3652,23 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="17" t="s">
+      <c r="A97" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="16" t="s">
         <v>78</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K97" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="S97" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F97,G834,H97)</f>
@@ -3703,23 +3676,23 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="17" t="s">
+      <c r="A98" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="16" t="s">
         <v>79</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K98" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="S98" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F98,G835,H98)</f>
@@ -3727,14 +3700,14 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="33" t="s">
+      <c r="A99" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="27" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3742,10 +3715,10 @@
       </c>
       <c r="H99" s="11"/>
       <c r="I99" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K99" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S99" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G99,H99)</f>
@@ -3753,23 +3726,23 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="33"/>
+      <c r="A100" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="27"/>
       <c r="G100" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K100" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S100" t="str">
         <f t="shared" ref="S100:S106" si="6">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G100,H100)</f>
@@ -3777,23 +3750,23 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="33"/>
+      <c r="A101" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="27"/>
       <c r="G101" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K101" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="6"/>
@@ -3801,23 +3774,23 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="33"/>
+      <c r="A102" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="27"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K102" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="S102" t="str">
         <f t="shared" si="6"/>
@@ -3825,23 +3798,23 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="33"/>
+      <c r="A103" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="27"/>
       <c r="G103" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K103" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S103" t="str">
         <f t="shared" si="6"/>
@@ -3849,23 +3822,23 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="33"/>
+      <c r="A104" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="27"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K104" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="S104" t="str">
         <f t="shared" si="6"/>
@@ -3873,23 +3846,23 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="33"/>
+      <c r="A105" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="27"/>
       <c r="G105" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K105" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S105" t="str">
         <f t="shared" si="6"/>
@@ -3897,23 +3870,23 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="33"/>
+      <c r="A106" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="27"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K106" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S106" t="str">
         <f t="shared" si="6"/>
@@ -3921,112 +3894,88 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="33" t="s">
+      <c r="A107" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H107" s="11"/>
-      <c r="I107" t="s">
-        <v>263</v>
-      </c>
-      <c r="K107" t="s">
-        <v>313</v>
-      </c>
+      <c r="H107" s="24"/>
       <c r="S107" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G107,H107)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="11" t="s">
+      <c r="A108" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H108" s="11"/>
-      <c r="I108" t="s">
-        <v>263</v>
-      </c>
-      <c r="K108" t="s">
-        <v>314</v>
-      </c>
+      <c r="H108" s="24"/>
       <c r="S108" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G108,H108)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH]?</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="11" t="s">
+      <c r="A109" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H109" s="11"/>
-      <c r="I109" t="s">
-        <v>263</v>
-      </c>
-      <c r="K109" t="s">
-        <v>315</v>
-      </c>
+      <c r="H109" s="24"/>
       <c r="S109" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G109,H109)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="11" t="s">
+      <c r="A110" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H110" s="11"/>
-      <c r="I110" t="s">
-        <v>263</v>
-      </c>
-      <c r="K110" t="s">
-        <v>316</v>
-      </c>
+      <c r="H110" s="24"/>
       <c r="S110" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G110,H110)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW?</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="33" t="s">
+      <c r="A111" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="27" t="s">
         <v>75</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -4034,10 +3983,10 @@
       </c>
       <c r="H111" s="11"/>
       <c r="I111" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K111" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="S111" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G111,H111)</f>
@@ -4045,23 +3994,23 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="33"/>
+      <c r="A112" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="27"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K112" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="S112" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G112,H112)</f>
@@ -4069,25 +4018,25 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="32" t="s">
+      <c r="A113" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K113" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="S113" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F113,G113,H113)</f>
@@ -4095,23 +4044,23 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="32"/>
+      <c r="A114" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="33"/>
       <c r="F114" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K114" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S114" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F114,G114,H114)</f>
@@ -4119,14 +4068,14 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="33" t="s">
+      <c r="A115" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -4134,10 +4083,10 @@
       </c>
       <c r="H115" s="11"/>
       <c r="I115" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K115" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="S115" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G115,H115)</f>
@@ -4145,23 +4094,23 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="33"/>
+      <c r="A116" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="27"/>
       <c r="G116" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K116" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="S116" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G116,H116)</f>
@@ -4169,23 +4118,23 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="33"/>
+      <c r="A117" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="27"/>
       <c r="G117" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K117" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="S117" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G117,H117)</f>
@@ -4193,23 +4142,23 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="33"/>
+      <c r="A118" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H118" s="11"/>
       <c r="I118" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K118" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="S118" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G118,H118)</f>
@@ -4217,14 +4166,14 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33" t="s">
+      <c r="A119" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="27" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -4232,10 +4181,10 @@
       </c>
       <c r="H119" s="11"/>
       <c r="I119" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K119" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" ref="S119:S126" si="7">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$119,G119,H119)</f>
@@ -4243,23 +4192,23 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="33"/>
+      <c r="A120" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="27"/>
       <c r="G120" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H120" s="11"/>
       <c r="I120" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K120" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="S120" t="str">
         <f t="shared" si="7"/>
@@ -4267,23 +4216,23 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="33"/>
+      <c r="A121" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="27"/>
       <c r="G121" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K121" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="S121" t="str">
         <f t="shared" si="7"/>
@@ -4291,23 +4240,23 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="33"/>
+      <c r="A122" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="27"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K122" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="S122" t="str">
         <f t="shared" si="7"/>
@@ -4315,23 +4264,23 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="33"/>
+      <c r="A123" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="27"/>
       <c r="G123" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K123" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="S123" t="str">
         <f t="shared" si="7"/>
@@ -4339,23 +4288,23 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="33"/>
+      <c r="A124" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="27"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K124" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="S124" t="str">
         <f t="shared" si="7"/>
@@ -4363,23 +4312,23 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="33"/>
+      <c r="A125" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="27"/>
       <c r="G125" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H125" s="11"/>
       <c r="I125" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K125" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S125" t="str">
         <f t="shared" si="7"/>
@@ -4387,23 +4336,23 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="33"/>
+      <c r="A126" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="27"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H126" s="11"/>
       <c r="I126" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K126" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="S126" t="str">
         <f t="shared" si="7"/>
@@ -4411,14 +4360,14 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="33" t="s">
+      <c r="A127" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4426,10 +4375,10 @@
       </c>
       <c r="H127" s="11"/>
       <c r="I127" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K127" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="S127" t="str">
         <f t="shared" ref="S127:S132" si="8">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$127,G127,H127)</f>
@@ -4437,23 +4386,23 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="33"/>
+      <c r="A128" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="27"/>
       <c r="G128" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H128" s="11"/>
       <c r="I128" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K128" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="S128" t="str">
         <f t="shared" si="8"/>
@@ -4461,23 +4410,23 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="33"/>
+      <c r="A129" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="27"/>
       <c r="G129" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K129" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="S129" t="str">
         <f t="shared" si="8"/>
@@ -4485,23 +4434,23 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="33"/>
+      <c r="A130" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="27"/>
       <c r="G130" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H130" s="11"/>
       <c r="I130" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K130" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="S130" t="str">
         <f t="shared" si="8"/>
@@ -4509,23 +4458,23 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="33"/>
+      <c r="A131" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="27"/>
       <c r="G131" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K131" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="S131" t="str">
         <f t="shared" si="8"/>
@@ -4533,23 +4482,23 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="33"/>
+      <c r="A132" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="27"/>
       <c r="G132" s="11" t="s">
         <v>90</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K132" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" si="8"/>
@@ -4557,14 +4506,14 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="33" t="s">
+      <c r="A133" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="27" t="s">
         <v>72</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4572,10 +4521,10 @@
       </c>
       <c r="H133" s="11"/>
       <c r="I133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K133" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="S133" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G133,H133)</f>
@@ -4583,23 +4532,23 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="33"/>
+      <c r="A134" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="27"/>
       <c r="G134" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H134" s="11"/>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K134" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="S134" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G134,H134)</f>
@@ -4607,23 +4556,23 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="33"/>
+      <c r="A135" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="27"/>
       <c r="G135" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H135" s="11"/>
       <c r="I135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K135" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="S135" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G135,H135)</f>
@@ -4631,23 +4580,23 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="33"/>
+      <c r="A136" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="27"/>
       <c r="G136" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H136" s="11"/>
       <c r="I136" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K136" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="S136" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G136,H136)</f>
@@ -4655,16 +4604,16 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="32" t="s">
+      <c r="A137" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F137" s="33" t="s">
+      <c r="F137" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G137" s="11" t="s">
@@ -4672,7 +4621,7 @@
       </c>
       <c r="H137" s="11"/>
       <c r="I137" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K137" t="s">
         <v>203</v>
@@ -4683,20 +4632,20 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="33"/>
+      <c r="A138" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="27"/>
       <c r="G138" s="11" t="s">
         <v>93</v>
       </c>
       <c r="H138" s="11"/>
       <c r="I138" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K138" t="s">
         <v>204</v>
@@ -4707,20 +4656,20 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="33"/>
+      <c r="A139" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="27"/>
       <c r="G139" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K139" t="s">
         <v>205</v>
@@ -4731,20 +4680,20 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="33"/>
+      <c r="A140" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="27"/>
       <c r="G140" s="11" t="s">
         <v>95</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K140" t="s">
         <v>206</v>
@@ -4755,121 +4704,97 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B141" s="30"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="32"/>
+      <c r="A141" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="33"/>
       <c r="F141" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="25" t="s">
+      <c r="G141" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H141" s="11"/>
-      <c r="I141" t="s">
-        <v>263</v>
-      </c>
-      <c r="K141" t="s">
-        <v>207</v>
-      </c>
+      <c r="H141" s="24"/>
       <c r="S141" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G141,H141)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="32"/>
+      <c r="A142" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="33"/>
       <c r="F142" s="34"/>
-      <c r="G142" s="25" t="s">
+      <c r="G142" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H142" s="11"/>
-      <c r="I142" t="s">
-        <v>263</v>
-      </c>
-      <c r="K142" t="s">
-        <v>208</v>
-      </c>
+      <c r="H142" s="24"/>
       <c r="S142" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G142,H142)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH]?</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="32"/>
+      <c r="A143" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="33"/>
       <c r="F143" s="34"/>
-      <c r="G143" s="25" t="s">
+      <c r="G143" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H143" s="11"/>
-      <c r="I143" t="s">
-        <v>263</v>
-      </c>
-      <c r="K143" t="s">
-        <v>209</v>
-      </c>
+      <c r="H143" s="24"/>
       <c r="S143" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G143,H143)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="32"/>
+      <c r="A144" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="33"/>
       <c r="F144" s="34"/>
-      <c r="G144" s="25" t="s">
+      <c r="G144" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H144" s="11"/>
-      <c r="I144" t="s">
-        <v>263</v>
-      </c>
-      <c r="K144" t="s">
-        <v>210</v>
-      </c>
+      <c r="H144" s="24"/>
       <c r="S144" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G144,H144)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW?</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="32"/>
+      <c r="A145" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="33"/>
       <c r="F145" s="11" t="s">
         <v>96</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K145" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="S145" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F145,G145,H145)</f>
@@ -4877,14 +4802,14 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32" t="s">
+      <c r="A146" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33" t="s">
         <v>97</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -4892,10 +4817,10 @@
       </c>
       <c r="H146" s="11"/>
       <c r="I146" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K146" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="S146" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G146,H146)</f>
@@ -4903,23 +4828,23 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H147" s="11"/>
       <c r="I147" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K147" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="S147" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G147,H147)</f>
@@ -4927,23 +4852,23 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="32"/>
+      <c r="A148" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="33"/>
       <c r="F148" s="11" t="s">
         <v>98</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K148" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="S148" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F148,G148,H148)</f>
@@ -4951,23 +4876,23 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="32"/>
+      <c r="A149" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="33"/>
       <c r="F149" s="11" t="s">
         <v>99</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K149" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S149" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F149,G149,H149)</f>
@@ -4975,13 +4900,13 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="32" t="s">
+      <c r="A150" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="33" t="s">
         <v>104</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -4990,10 +4915,10 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K150" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="S150" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F150,G150,H150)</f>
@@ -5001,23 +4926,23 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="32"/>
+      <c r="A151" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="33"/>
       <c r="F151" s="11" t="s">
         <v>101</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K151" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S151" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F151,G151,H151)</f>
@@ -5025,23 +4950,23 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="32"/>
+      <c r="A152" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="33"/>
       <c r="F152" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K152" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="S152" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F152,G152,H152)</f>
@@ -5049,23 +4974,23 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="32"/>
+      <c r="A153" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="35"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="33"/>
       <c r="F153" s="11" t="s">
         <v>103</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K153" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="S153" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F153,G153,H153)</f>
@@ -5073,14 +4998,14 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32" t="s">
+      <c r="A154" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="35"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -5088,10 +5013,10 @@
       </c>
       <c r="H154" s="11"/>
       <c r="I154" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K154" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S154" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G154,H154)</f>
@@ -5099,23 +5024,23 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
+      <c r="A155" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H155" s="11"/>
       <c r="I155" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K155" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="S155" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G155,H155)</f>
@@ -5123,12 +5048,12 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30" t="s">
+      <c r="A156" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35" t="s">
         <v>105</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -5138,10 +5063,10 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K156" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="S156" t="str">
         <f t="shared" ref="S156:S187" si="9">CONCATENATE($B$38,$C$38,$D$156,E156,F156,G156,H156)</f>
@@ -5149,12 +5074,12 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
+      <c r="A157" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
       <c r="E157" s="8" t="s">
         <v>106</v>
       </c>
@@ -5162,10 +5087,10 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K157" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" si="9"/>
@@ -5173,12 +5098,12 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
+      <c r="A158" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="35"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="35"/>
       <c r="E158" s="8" t="s">
         <v>107</v>
       </c>
@@ -5186,10 +5111,10 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K158" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" si="9"/>
@@ -5197,12 +5122,12 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
+      <c r="A159" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="8" t="s">
         <v>108</v>
       </c>
@@ -5210,10 +5135,10 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K159" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" si="9"/>
@@ -5221,12 +5146,12 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
+      <c r="A160" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="35"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
       <c r="E160" s="8" t="s">
         <v>44</v>
       </c>
@@ -5234,10 +5159,10 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K160" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S160" t="str">
         <f t="shared" si="9"/>
@@ -5245,12 +5170,12 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
+      <c r="A161" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
       <c r="E161" s="8" t="s">
         <v>109</v>
       </c>
@@ -5258,10 +5183,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K161" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="S161" t="str">
         <f t="shared" si="9"/>
@@ -5269,12 +5194,12 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
+      <c r="A162" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="35"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
       <c r="E162" s="8" t="s">
         <v>110</v>
       </c>
@@ -5282,10 +5207,10 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K162" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" si="9"/>
@@ -5293,12 +5218,12 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
+      <c r="A163" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163" s="35"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="35"/>
       <c r="E163" s="8" t="s">
         <v>57</v>
       </c>
@@ -5306,10 +5231,10 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K163" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" si="9"/>
@@ -5317,12 +5242,12 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
+      <c r="A164" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="35"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
       <c r="E164" s="8" t="s">
         <v>111</v>
       </c>
@@ -5330,10 +5255,10 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K164" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" si="9"/>
@@ -5341,12 +5266,12 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
+      <c r="A165" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="35"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
       <c r="E165" s="8" t="s">
         <v>112</v>
       </c>
@@ -5354,10 +5279,10 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K165" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" si="9"/>
@@ -5365,12 +5290,12 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
+      <c r="A166" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
       <c r="E166" s="8" t="s">
         <v>113</v>
       </c>
@@ -5378,10 +5303,10 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K166" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="S166" t="str">
         <f t="shared" si="9"/>
@@ -5389,12 +5314,12 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
+      <c r="A167" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
       <c r="E167" s="8" t="s">
         <v>114</v>
       </c>
@@ -5402,10 +5327,10 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K167" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="S167" t="str">
         <f t="shared" si="9"/>
@@ -5413,12 +5338,12 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
+      <c r="A168" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="35"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="8" t="s">
         <v>115</v>
       </c>
@@ -5426,10 +5351,10 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K168" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" si="9"/>
@@ -5437,12 +5362,12 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
+      <c r="A169" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
       <c r="E169" s="8" t="s">
         <v>116</v>
       </c>
@@ -5450,10 +5375,10 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K169" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" si="9"/>
@@ -5461,12 +5386,12 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
+      <c r="A170" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="35"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="35"/>
       <c r="E170" s="8" t="s">
         <v>117</v>
       </c>
@@ -5474,10 +5399,10 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K170" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" si="9"/>
@@ -5485,12 +5410,12 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
+      <c r="A171" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" s="35"/>
+      <c r="C171" s="35"/>
+      <c r="D171" s="35"/>
       <c r="E171" s="8" t="s">
         <v>118</v>
       </c>
@@ -5498,10 +5423,10 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K171" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S171" t="str">
         <f t="shared" si="9"/>
@@ -5509,12 +5434,12 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
+      <c r="A172" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="35"/>
+      <c r="C172" s="35"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="8" t="s">
         <v>119</v>
       </c>
@@ -5522,10 +5447,10 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K172" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S172" t="str">
         <f t="shared" si="9"/>
@@ -5533,12 +5458,12 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+      <c r="A173" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B173" s="35"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="35"/>
       <c r="E173" s="8" t="s">
         <v>120</v>
       </c>
@@ -5546,10 +5471,10 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K173" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S173" t="str">
         <f t="shared" si="9"/>
@@ -5557,12 +5482,12 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
+      <c r="A174" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" s="35"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="35"/>
       <c r="E174" s="8" t="s">
         <v>121</v>
       </c>
@@ -5570,10 +5495,10 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K174" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" si="9"/>
@@ -5581,12 +5506,12 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
+      <c r="A175" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="35"/>
       <c r="E175" s="8" t="s">
         <v>122</v>
       </c>
@@ -5594,10 +5519,10 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K175" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S175" t="str">
         <f t="shared" si="9"/>
@@ -5605,12 +5530,12 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
+      <c r="A176" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="35"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="8" t="s">
         <v>123</v>
       </c>
@@ -5618,10 +5543,10 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K176" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S176" t="str">
         <f t="shared" si="9"/>
@@ -5629,12 +5554,12 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
+      <c r="A177" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B177" s="35"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="35"/>
       <c r="E177" s="8" t="s">
         <v>124</v>
       </c>
@@ -5642,10 +5567,10 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K177" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="S177" t="str">
         <f t="shared" si="9"/>
@@ -5653,12 +5578,12 @@
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A178" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
+      <c r="A178" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B178" s="35"/>
+      <c r="C178" s="35"/>
+      <c r="D178" s="35"/>
       <c r="E178" s="8" t="s">
         <v>125</v>
       </c>
@@ -5666,10 +5591,10 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="I178" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K178" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S178" t="str">
         <f t="shared" si="9"/>
@@ -5677,12 +5602,12 @@
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A179" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
+      <c r="A179" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B179" s="35"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="35"/>
       <c r="E179" s="8" t="s">
         <v>126</v>
       </c>
@@ -5690,10 +5615,10 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K179" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="S179" t="str">
         <f t="shared" si="9"/>
@@ -5701,12 +5626,12 @@
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A180" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
+      <c r="A180" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B180" s="35"/>
+      <c r="C180" s="35"/>
+      <c r="D180" s="35"/>
       <c r="E180" s="8" t="s">
         <v>127</v>
       </c>
@@ -5714,10 +5639,10 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K180" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="S180" t="str">
         <f t="shared" si="9"/>
@@ -5725,12 +5650,12 @@
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A181" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B181" s="30"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
+      <c r="A181" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="35"/>
+      <c r="C181" s="35"/>
+      <c r="D181" s="35"/>
       <c r="E181" s="8" t="s">
         <v>128</v>
       </c>
@@ -5738,10 +5663,10 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="I181" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K181" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="S181" t="str">
         <f t="shared" si="9"/>
@@ -5749,12 +5674,12 @@
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A182" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
+      <c r="A182" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B182" s="35"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
       <c r="E182" s="8" t="s">
         <v>129</v>
       </c>
@@ -5762,10 +5687,10 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K182" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" si="9"/>
@@ -5773,12 +5698,12 @@
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A183" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
+      <c r="A183" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
       <c r="E183" s="8" t="s">
         <v>130</v>
       </c>
@@ -5786,10 +5711,10 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K183" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S183" t="str">
         <f t="shared" si="9"/>
@@ -5797,12 +5722,12 @@
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A184" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
+      <c r="A184" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" s="35"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="35"/>
       <c r="E184" s="8" t="s">
         <v>131</v>
       </c>
@@ -5810,10 +5735,10 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K184" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" si="9"/>
@@ -5821,12 +5746,12 @@
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A185" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
+      <c r="A185" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B185" s="35"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="35"/>
       <c r="E185" s="8" t="s">
         <v>132</v>
       </c>
@@ -5834,10 +5759,10 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K185" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" si="9"/>
@@ -5845,12 +5770,12 @@
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A186" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B186" s="30"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="30"/>
+      <c r="A186" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186" s="35"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="35"/>
       <c r="E186" s="8" t="s">
         <v>133</v>
       </c>
@@ -5858,10 +5783,10 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="I186" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K186" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S186" t="str">
         <f t="shared" si="9"/>
@@ -5869,12 +5794,12 @@
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A187" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
+      <c r="A187" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B187" s="35"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="35"/>
       <c r="E187" s="8" t="s">
         <v>110</v>
       </c>
@@ -5882,10 +5807,10 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K187" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S187" t="str">
         <f t="shared" si="9"/>
@@ -5893,25 +5818,25 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A188" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B188" s="30"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="30"/>
-      <c r="E188" s="35" t="s">
+      <c r="A188" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" s="35"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F188" s="26" t="s">
-        <v>264</v>
+      <c r="F188" s="25" t="s">
+        <v>260</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K188" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="S188" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$156,$E$188,F188,G188,H188)</f>
@@ -5919,23 +5844,23 @@
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A189" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B189" s="30"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30"/>
-      <c r="E189" s="36"/>
+      <c r="A189" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B189" s="35"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="29"/>
       <c r="F189" s="8" t="s">
         <v>135</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="I189" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K189" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="S189" t="str">
         <f t="shared" ref="S189:S193" si="10">CONCATENATE($B$38,$C$38,$D$156,$E$188,F189,G189,H189)</f>
@@ -5943,23 +5868,23 @@
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A190" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="26" t="s">
-        <v>265</v>
+      <c r="A190" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K190" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="S190" t="str">
         <f t="shared" si="10"/>
@@ -5967,23 +5892,23 @@
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A191" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B191" s="30"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="36"/>
+      <c r="A191" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B191" s="35"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="29"/>
       <c r="F191" s="8" t="s">
         <v>136</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K191" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" si="10"/>
@@ -5991,23 +5916,23 @@
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A192" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B192" s="30"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="26" t="s">
-        <v>266</v>
+      <c r="A192" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B192" s="35"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="I192" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K192" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="S192" t="str">
         <f t="shared" si="10"/>
@@ -6015,23 +5940,23 @@
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A193" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="37"/>
+      <c r="A193" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B193" s="35"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="30"/>
       <c r="F193" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="I193" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K193" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="S193" t="str">
         <f t="shared" si="10"/>
@@ -6060,22 +5985,22 @@
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A199" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B199" s="27" t="s">
+      <c r="A199" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B199" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="27" t="s">
+      <c r="D199" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="38" t="s">
+      <c r="E199" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="F199" s="27" t="s">
+      <c r="F199" s="32" t="s">
         <v>45</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -6088,14 +6013,14 @@
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A200" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="38"/>
-      <c r="F200" s="27"/>
+      <c r="A200" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="31"/>
+      <c r="F200" s="32"/>
       <c r="G200" s="9" t="s">
         <v>46</v>
       </c>
@@ -6106,13 +6031,13 @@
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A201" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="38"/>
+      <c r="A201" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="31"/>
       <c r="F201" s="9" t="s">
         <v>47</v>
       </c>
@@ -6124,13 +6049,13 @@
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A202" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="38"/>
+      <c r="A202" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="31"/>
       <c r="F202" s="9" t="s">
         <v>34</v>
       </c>
@@ -6142,13 +6067,13 @@
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A203" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="38"/>
+      <c r="A203" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="31"/>
       <c r="F203" s="9" t="s">
         <v>48</v>
       </c>
@@ -6160,13 +6085,13 @@
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A204" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="38"/>
+      <c r="A204" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="31"/>
       <c r="F204" s="9" t="s">
         <v>35</v>
       </c>
@@ -6178,13 +6103,13 @@
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A205" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="38"/>
+      <c r="A205" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="31"/>
       <c r="F205" s="9" t="s">
         <v>49</v>
       </c>
@@ -6196,13 +6121,13 @@
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A206" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="38"/>
+      <c r="A206" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="31"/>
       <c r="F206" s="9" t="s">
         <v>36</v>
       </c>
@@ -6215,6 +6140,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B193"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C38:C193"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D45:D63"/>
+    <mergeCell ref="D65:D155"/>
+    <mergeCell ref="D156:D193"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E68:E88"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="E188:E193"/>
@@ -6231,35 +6185,6 @@
     <mergeCell ref="F115:F118"/>
     <mergeCell ref="F119:F126"/>
     <mergeCell ref="F127:F132"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E68:E88"/>
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="D199:D206"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B193"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C38:C193"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D45:D63"/>
-    <mergeCell ref="D65:D155"/>
-    <mergeCell ref="D156:D193"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D277120-126C-4B34-8A82-97C2BF965792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FE9A1-5AFB-4627-B976-28BB284552C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,10 +1301,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,25 +1337,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1684,7 +1687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D45" sqref="D45:D63"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1908,7 @@
       <c r="A20" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1929,7 +1932,7 @@
       <c r="A21" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1949,7 +1952,7 @@
       <c r="A22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1972,7 @@
       <c r="A23" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
@@ -1989,8 +1992,8 @@
       <c r="A24" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2011,8 +2014,8 @@
       <c r="A25" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
@@ -2031,8 +2034,8 @@
       <c r="A26" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
@@ -2051,7 +2054,7 @@
       <c r="A27" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="17" t="s">
         <v>10</v>
       </c>
@@ -2074,7 +2077,7 @@
       <c r="A28" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="17" t="s">
         <v>249</v>
       </c>
@@ -2103,7 +2106,7 @@
       <c r="A30" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2127,8 +2130,8 @@
       <c r="A31" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2149,8 +2152,8 @@
       <c r="A32" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
@@ -2169,8 +2172,8 @@
       <c r="A33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2192,8 +2195,8 @@
       <c r="A34" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2212,8 +2215,8 @@
       <c r="A35" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2232,7 +2235,7 @@
       <c r="A36" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="18" t="s">
         <v>20</v>
       </c>
@@ -2258,10 +2261,10 @@
       <c r="A38" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2286,9 +2289,9 @@
       <c r="A39" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2312,9 +2315,9 @@
       <c r="A40" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2336,9 +2339,9 @@
       <c r="A41" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2360,9 +2363,9 @@
       <c r="A42" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2384,8 +2387,8 @@
       <c r="A43" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2408,8 +2411,8 @@
       <c r="A44" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2432,12 +2435,12 @@
       <c r="A45" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2457,10 +2460,10 @@
       <c r="A46" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="2" t="s">
         <v>34</v>
       </c>
@@ -2478,11 +2481,11 @@
       <c r="A47" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="26" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="38" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="2"/>
@@ -2499,10 +2502,10 @@
       <c r="A48" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="35"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
@@ -2520,11 +2523,11 @@
       <c r="A49" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="29" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -2543,11 +2546,11 @@
       <c r="A50" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="2" t="s">
         <v>39</v>
       </c>
@@ -2564,11 +2567,11 @@
       <c r="A51" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="2" t="s">
         <v>40</v>
       </c>
@@ -2585,11 +2588,11 @@
       <c r="A52" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="2" t="s">
         <v>41</v>
       </c>
@@ -2606,11 +2609,11 @@
       <c r="A53" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="2" t="s">
         <v>335</v>
       </c>
@@ -2627,10 +2630,10 @@
       <c r="A54" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="35"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="2" t="s">
         <v>42</v>
       </c>
@@ -2648,9 +2651,9 @@
       <c r="A55" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="2" t="s">
         <v>43</v>
       </c>
@@ -2669,10 +2672,10 @@
       <c r="A56" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="35" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="29" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2692,10 +2695,10 @@
       <c r="A57" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="35"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="2" t="s">
         <v>34</v>
       </c>
@@ -2713,10 +2716,10 @@
       <c r="A58" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="2" t="s">
         <v>35</v>
       </c>
@@ -2734,10 +2737,10 @@
       <c r="A59" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="35"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2755,10 +2758,10 @@
       <c r="A60" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="35" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2778,10 +2781,10 @@
       <c r="A61" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="2" t="s">
         <v>34</v>
       </c>
@@ -2799,10 +2802,10 @@
       <c r="A62" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="35"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="2" t="s">
         <v>35</v>
       </c>
@@ -2820,10 +2823,10 @@
       <c r="A63" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="35"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="2" t="s">
         <v>36</v>
       </c>
@@ -2841,8 +2844,8 @@
       <c r="A64" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
@@ -2865,9 +2868,9 @@
       <c r="A65" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2891,9 +2894,9 @@
       <c r="A66" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="2" t="s">
         <v>56</v>
       </c>
@@ -2915,9 +2918,9 @@
       <c r="A67" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="2" t="s">
         <v>42</v>
       </c>
@@ -2939,10 +2942,10 @@
       <c r="A68" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="33" t="s">
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="32" t="s">
         <v>57</v>
       </c>
       <c r="F68" s="16" t="s">
@@ -2965,10 +2968,10 @@
       <c r="A69" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="33"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="11" t="s">
         <v>60</v>
       </c>
@@ -2989,11 +2992,11 @@
       <c r="A70" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="27" t="s">
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -3015,11 +3018,11 @@
       <c r="A71" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="27"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="31"/>
       <c r="G71" s="11" t="s">
         <v>62</v>
       </c>
@@ -3039,11 +3042,11 @@
       <c r="A72" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="27"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="31"/>
       <c r="G72" s="11" t="s">
         <v>63</v>
       </c>
@@ -3063,11 +3066,11 @@
       <c r="A73" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="27"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="31"/>
       <c r="G73" s="11" t="s">
         <v>64</v>
       </c>
@@ -3087,12 +3090,12 @@
       <c r="A74" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="33" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="32" t="s">
         <v>65</v>
       </c>
       <c r="H74" s="11" t="s">
@@ -3113,12 +3116,12 @@
       <c r="A75" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="33"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="32"/>
       <c r="H75" s="11" t="s">
         <v>60</v>
       </c>
@@ -3137,12 +3140,12 @@
       <c r="A76" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="33" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="32" t="s">
         <v>67</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -3163,12 +3166,12 @@
       <c r="A77" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="33"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="11" t="s">
         <v>62</v>
       </c>
@@ -3187,11 +3190,11 @@
       <c r="A78" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="27" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -3213,11 +3216,11 @@
       <c r="A79" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="27"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="31"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
@@ -3237,11 +3240,11 @@
       <c r="A80" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="27"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="31"/>
       <c r="G80" s="11" t="s">
         <v>70</v>
       </c>
@@ -3261,11 +3264,11 @@
       <c r="A81" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="27"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="31"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
@@ -3285,11 +3288,11 @@
       <c r="A82" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="27"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="31"/>
       <c r="G82" s="11" t="s">
         <v>71</v>
       </c>
@@ -3309,11 +3312,11 @@
       <c r="A83" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="34" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>72</v>
       </c>
       <c r="G83" s="24" t="s">
@@ -3335,11 +3338,11 @@
       <c r="A84" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="34"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="24" t="s">
         <v>62</v>
       </c>
@@ -3359,11 +3362,11 @@
       <c r="A85" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="34"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="24" t="s">
         <v>74</v>
       </c>
@@ -3383,11 +3386,11 @@
       <c r="A86" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="34"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="24" t="s">
         <v>64</v>
       </c>
@@ -3407,11 +3410,11 @@
       <c r="A87" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="27" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="31" t="s">
         <v>75</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3433,11 +3436,11 @@
       <c r="A88" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="27"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="31"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
@@ -3457,10 +3460,10 @@
       <c r="A89" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="33" t="s">
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="32" t="s">
         <v>77</v>
       </c>
       <c r="F89" s="16" t="s">
@@ -3483,10 +3486,10 @@
       <c r="A90" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="33"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="11" t="s">
         <v>60</v>
       </c>
@@ -3507,11 +3510,11 @@
       <c r="A91" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="27" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3533,11 +3536,11 @@
       <c r="A92" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="27"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="31"/>
       <c r="G92" s="11" t="s">
         <v>62</v>
       </c>
@@ -3557,11 +3560,11 @@
       <c r="A93" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="27"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="31"/>
       <c r="G93" s="11" t="s">
         <v>63</v>
       </c>
@@ -3581,11 +3584,11 @@
       <c r="A94" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="27"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="31"/>
       <c r="G94" s="11" t="s">
         <v>64</v>
       </c>
@@ -3605,12 +3608,12 @@
       <c r="A95" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="33" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -3631,12 +3634,12 @@
       <c r="A96" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="33"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="11" t="s">
         <v>60</v>
       </c>
@@ -3655,10 +3658,10 @@
       <c r="A97" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="33"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="32"/>
       <c r="F97" s="16" t="s">
         <v>78</v>
       </c>
@@ -3679,10 +3682,10 @@
       <c r="A98" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="33"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="32"/>
       <c r="F98" s="16" t="s">
         <v>79</v>
       </c>
@@ -3703,11 +3706,11 @@
       <c r="A99" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="27" t="s">
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3729,11 +3732,11 @@
       <c r="A100" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="27"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="31"/>
       <c r="G100" s="11" t="s">
         <v>81</v>
       </c>
@@ -3753,11 +3756,11 @@
       <c r="A101" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="27"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="31"/>
       <c r="G101" s="11" t="s">
         <v>69</v>
       </c>
@@ -3777,11 +3780,11 @@
       <c r="A102" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="27"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="31"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
@@ -3801,11 +3804,11 @@
       <c r="A103" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="27"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="31"/>
       <c r="G103" s="11" t="s">
         <v>70</v>
       </c>
@@ -3825,11 +3828,11 @@
       <c r="A104" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="27"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="31"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
@@ -3849,11 +3852,11 @@
       <c r="A105" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="27"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="31"/>
       <c r="G105" s="11" t="s">
         <v>71</v>
       </c>
@@ -3873,11 +3876,11 @@
       <c r="A106" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="27"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="31"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
@@ -3897,11 +3900,11 @@
       <c r="A107" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="34" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="33" t="s">
         <v>72</v>
       </c>
       <c r="G107" s="24" t="s">
@@ -3917,11 +3920,11 @@
       <c r="A108" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="34"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="33"/>
       <c r="G108" s="24" t="s">
         <v>62</v>
       </c>
@@ -3935,11 +3938,11 @@
       <c r="A109" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="34"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="24" t="s">
         <v>74</v>
       </c>
@@ -3953,11 +3956,11 @@
       <c r="A110" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="34"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="33"/>
       <c r="G110" s="24" t="s">
         <v>64</v>
       </c>
@@ -3971,11 +3974,11 @@
       <c r="A111" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="27" t="s">
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="31" t="s">
         <v>75</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -3997,11 +4000,11 @@
       <c r="A112" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="27"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="31"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
@@ -4021,10 +4024,10 @@
       <c r="A113" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="33" t="s">
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="32" t="s">
         <v>83</v>
       </c>
       <c r="F113" s="16" t="s">
@@ -4047,10 +4050,10 @@
       <c r="A114" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="33"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="32"/>
       <c r="F114" s="11" t="s">
         <v>60</v>
       </c>
@@ -4071,11 +4074,11 @@
       <c r="A115" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="27" t="s">
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -4097,11 +4100,11 @@
       <c r="A116" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="27"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="31"/>
       <c r="G116" s="11" t="s">
         <v>62</v>
       </c>
@@ -4121,11 +4124,11 @@
       <c r="A117" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="27"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="31"/>
       <c r="G117" s="11" t="s">
         <v>63</v>
       </c>
@@ -4145,11 +4148,11 @@
       <c r="A118" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="27"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="31"/>
       <c r="G118" s="11" t="s">
         <v>64</v>
       </c>
@@ -4169,11 +4172,11 @@
       <c r="A119" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="27" t="s">
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -4195,11 +4198,11 @@
       <c r="A120" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="27"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="31"/>
       <c r="G120" s="11" t="s">
         <v>81</v>
       </c>
@@ -4219,11 +4222,11 @@
       <c r="A121" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="27"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="31"/>
       <c r="G121" s="11" t="s">
         <v>69</v>
       </c>
@@ -4243,11 +4246,11 @@
       <c r="A122" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="27"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="31"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
@@ -4267,11 +4270,11 @@
       <c r="A123" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="27"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="31"/>
       <c r="G123" s="11" t="s">
         <v>70</v>
       </c>
@@ -4291,11 +4294,11 @@
       <c r="A124" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="27"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="31"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
@@ -4315,11 +4318,11 @@
       <c r="A125" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B125" s="35"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="27"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="31"/>
       <c r="G125" s="11" t="s">
         <v>71</v>
       </c>
@@ -4339,11 +4342,11 @@
       <c r="A126" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="27"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="31"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
@@ -4363,11 +4366,11 @@
       <c r="A127" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="27" t="s">
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="31" t="s">
         <v>84</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4389,11 +4392,11 @@
       <c r="A128" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="27"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="31"/>
       <c r="G128" s="11" t="s">
         <v>86</v>
       </c>
@@ -4413,11 +4416,11 @@
       <c r="A129" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="27"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="31"/>
       <c r="G129" s="11" t="s">
         <v>87</v>
       </c>
@@ -4437,11 +4440,11 @@
       <c r="A130" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B130" s="35"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="27"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="31"/>
       <c r="G130" s="11" t="s">
         <v>88</v>
       </c>
@@ -4461,11 +4464,11 @@
       <c r="A131" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="27"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="31"/>
       <c r="G131" s="11" t="s">
         <v>89</v>
       </c>
@@ -4485,11 +4488,11 @@
       <c r="A132" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="27"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="31"/>
       <c r="G132" s="11" t="s">
         <v>90</v>
       </c>
@@ -4509,11 +4512,11 @@
       <c r="A133" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="35"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="27" t="s">
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="31" t="s">
         <v>72</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4535,11 +4538,11 @@
       <c r="A134" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B134" s="35"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="27"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="31"/>
       <c r="G134" s="11" t="s">
         <v>62</v>
       </c>
@@ -4559,11 +4562,11 @@
       <c r="A135" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B135" s="35"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="27"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="31"/>
       <c r="G135" s="11" t="s">
         <v>74</v>
       </c>
@@ -4583,11 +4586,11 @@
       <c r="A136" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B136" s="35"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="27"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="31"/>
       <c r="G136" s="11" t="s">
         <v>64</v>
       </c>
@@ -4607,13 +4610,13 @@
       <c r="A137" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="33" t="s">
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F137" s="27" t="s">
+      <c r="F137" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G137" s="11" t="s">
@@ -4635,11 +4638,11 @@
       <c r="A138" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="27"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="31"/>
       <c r="G138" s="11" t="s">
         <v>93</v>
       </c>
@@ -4659,11 +4662,11 @@
       <c r="A139" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B139" s="35"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="27"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="31"/>
       <c r="G139" s="11" t="s">
         <v>94</v>
       </c>
@@ -4683,11 +4686,11 @@
       <c r="A140" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B140" s="35"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="27"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="31"/>
       <c r="G140" s="11" t="s">
         <v>95</v>
       </c>
@@ -4707,11 +4710,11 @@
       <c r="A141" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="34" t="s">
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="33" t="s">
         <v>72</v>
       </c>
       <c r="G141" s="24" t="s">
@@ -4727,11 +4730,11 @@
       <c r="A142" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B142" s="35"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="34"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="33"/>
       <c r="G142" s="24" t="s">
         <v>62</v>
       </c>
@@ -4745,11 +4748,11 @@
       <c r="A143" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="35"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="34"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="33"/>
       <c r="G143" s="24" t="s">
         <v>74</v>
       </c>
@@ -4763,11 +4766,11 @@
       <c r="A144" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="34"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="33"/>
       <c r="G144" s="24" t="s">
         <v>64</v>
       </c>
@@ -4781,10 +4784,10 @@
       <c r="A145" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="33"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="32"/>
       <c r="F145" s="11" t="s">
         <v>96</v>
       </c>
@@ -4805,11 +4808,11 @@
       <c r="A146" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B146" s="35"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33" t="s">
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32" t="s">
         <v>97</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -4831,11 +4834,11 @@
       <c r="A147" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B147" s="35"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
@@ -4855,10 +4858,10 @@
       <c r="A148" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="33"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="32"/>
       <c r="F148" s="11" t="s">
         <v>98</v>
       </c>
@@ -4879,10 +4882,10 @@
       <c r="A149" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="35"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="32"/>
       <c r="F149" s="11" t="s">
         <v>99</v>
       </c>
@@ -4903,10 +4906,10 @@
       <c r="A150" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B150" s="35"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="33" t="s">
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="32" t="s">
         <v>104</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -4929,10 +4932,10 @@
       <c r="A151" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B151" s="35"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="33"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="32"/>
       <c r="F151" s="11" t="s">
         <v>101</v>
       </c>
@@ -4953,10 +4956,10 @@
       <c r="A152" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="35"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="33"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="11" t="s">
         <v>102</v>
       </c>
@@ -4977,10 +4980,10 @@
       <c r="A153" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B153" s="35"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="33"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="32"/>
       <c r="F153" s="11" t="s">
         <v>103</v>
       </c>
@@ -5001,11 +5004,11 @@
       <c r="A154" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="35"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33" t="s">
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -5027,11 +5030,11 @@
       <c r="A155" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B155" s="35"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
@@ -5051,9 +5054,9 @@
       <c r="A156" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="35" t="s">
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -5077,9 +5080,9 @@
       <c r="A157" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="35"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
       <c r="E157" s="8" t="s">
         <v>106</v>
       </c>
@@ -5101,9 +5104,9 @@
       <c r="A158" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="35"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="35"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
       <c r="E158" s="8" t="s">
         <v>107</v>
       </c>
@@ -5125,9 +5128,9 @@
       <c r="A159" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="35"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
       <c r="E159" s="8" t="s">
         <v>108</v>
       </c>
@@ -5149,9 +5152,9 @@
       <c r="A160" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B160" s="35"/>
-      <c r="C160" s="35"/>
-      <c r="D160" s="35"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
       <c r="E160" s="8" t="s">
         <v>44</v>
       </c>
@@ -5173,9 +5176,9 @@
       <c r="A161" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
       <c r="E161" s="8" t="s">
         <v>109</v>
       </c>
@@ -5197,9 +5200,9 @@
       <c r="A162" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B162" s="35"/>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
       <c r="E162" s="8" t="s">
         <v>110</v>
       </c>
@@ -5221,9 +5224,9 @@
       <c r="A163" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B163" s="35"/>
-      <c r="C163" s="35"/>
-      <c r="D163" s="35"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
       <c r="E163" s="8" t="s">
         <v>57</v>
       </c>
@@ -5245,9 +5248,9 @@
       <c r="A164" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B164" s="35"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
       <c r="E164" s="8" t="s">
         <v>111</v>
       </c>
@@ -5269,9 +5272,9 @@
       <c r="A165" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B165" s="35"/>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
       <c r="E165" s="8" t="s">
         <v>112</v>
       </c>
@@ -5293,9 +5296,9 @@
       <c r="A166" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B166" s="35"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
       <c r="E166" s="8" t="s">
         <v>113</v>
       </c>
@@ -5317,9 +5320,9 @@
       <c r="A167" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B167" s="35"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
       <c r="E167" s="8" t="s">
         <v>114</v>
       </c>
@@ -5341,9 +5344,9 @@
       <c r="A168" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B168" s="35"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
       <c r="E168" s="8" t="s">
         <v>115</v>
       </c>
@@ -5365,9 +5368,9 @@
       <c r="A169" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B169" s="35"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
       <c r="E169" s="8" t="s">
         <v>116</v>
       </c>
@@ -5389,9 +5392,9 @@
       <c r="A170" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B170" s="35"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
       <c r="E170" s="8" t="s">
         <v>117</v>
       </c>
@@ -5413,9 +5416,9 @@
       <c r="A171" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B171" s="35"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
       <c r="E171" s="8" t="s">
         <v>118</v>
       </c>
@@ -5437,9 +5440,9 @@
       <c r="A172" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
       <c r="E172" s="8" t="s">
         <v>119</v>
       </c>
@@ -5461,9 +5464,9 @@
       <c r="A173" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B173" s="35"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
       <c r="E173" s="8" t="s">
         <v>120</v>
       </c>
@@ -5485,9 +5488,9 @@
       <c r="A174" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
       <c r="E174" s="8" t="s">
         <v>121</v>
       </c>
@@ -5509,9 +5512,9 @@
       <c r="A175" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
       <c r="E175" s="8" t="s">
         <v>122</v>
       </c>
@@ -5533,9 +5536,9 @@
       <c r="A176" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B176" s="35"/>
-      <c r="C176" s="35"/>
-      <c r="D176" s="35"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
       <c r="E176" s="8" t="s">
         <v>123</v>
       </c>
@@ -5557,9 +5560,9 @@
       <c r="A177" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B177" s="35"/>
-      <c r="C177" s="35"/>
-      <c r="D177" s="35"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
       <c r="E177" s="8" t="s">
         <v>124</v>
       </c>
@@ -5581,9 +5584,9 @@
       <c r="A178" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B178" s="35"/>
-      <c r="C178" s="35"/>
-      <c r="D178" s="35"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
       <c r="E178" s="8" t="s">
         <v>125</v>
       </c>
@@ -5605,9 +5608,9 @@
       <c r="A179" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B179" s="35"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
       <c r="E179" s="8" t="s">
         <v>126</v>
       </c>
@@ -5629,9 +5632,9 @@
       <c r="A180" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B180" s="35"/>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
       <c r="E180" s="8" t="s">
         <v>127</v>
       </c>
@@ -5653,9 +5656,9 @@
       <c r="A181" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B181" s="35"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
       <c r="E181" s="8" t="s">
         <v>128</v>
       </c>
@@ -5677,9 +5680,9 @@
       <c r="A182" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="35"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
       <c r="E182" s="8" t="s">
         <v>129</v>
       </c>
@@ -5701,9 +5704,9 @@
       <c r="A183" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
       <c r="E183" s="8" t="s">
         <v>130</v>
       </c>
@@ -5725,9 +5728,9 @@
       <c r="A184" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
       <c r="E184" s="8" t="s">
         <v>131</v>
       </c>
@@ -5749,9 +5752,9 @@
       <c r="A185" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B185" s="35"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
       <c r="E185" s="8" t="s">
         <v>132</v>
       </c>
@@ -5773,9 +5776,9 @@
       <c r="A186" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B186" s="35"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
       <c r="E186" s="8" t="s">
         <v>133</v>
       </c>
@@ -5797,9 +5800,9 @@
       <c r="A187" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B187" s="35"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
       <c r="E187" s="8" t="s">
         <v>110</v>
       </c>
@@ -5821,10 +5824,10 @@
       <c r="A188" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B188" s="35"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="28" t="s">
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="34" t="s">
         <v>134</v>
       </c>
       <c r="F188" s="25" t="s">
@@ -5847,10 +5850,10 @@
       <c r="A189" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B189" s="35"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="29"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="35"/>
       <c r="F189" s="8" t="s">
         <v>135</v>
       </c>
@@ -5871,10 +5874,10 @@
       <c r="A190" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B190" s="35"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="29"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="35"/>
       <c r="F190" s="25" t="s">
         <v>261</v>
       </c>
@@ -5895,10 +5898,10 @@
       <c r="A191" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B191" s="35"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="29"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="35"/>
       <c r="F191" s="8" t="s">
         <v>136</v>
       </c>
@@ -5919,10 +5922,10 @@
       <c r="A192" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B192" s="35"/>
-      <c r="C192" s="35"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="29"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="35"/>
       <c r="F192" s="25" t="s">
         <v>262</v>
       </c>
@@ -5943,10 +5946,10 @@
       <c r="A193" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B193" s="35"/>
-      <c r="C193" s="35"/>
-      <c r="D193" s="35"/>
-      <c r="E193" s="30"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="36"/>
       <c r="F193" s="8" t="s">
         <v>137</v>
       </c>
@@ -5988,19 +5991,19 @@
       <c r="A199" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="32" t="s">
+      <c r="C199" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="32" t="s">
+      <c r="D199" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="31" t="s">
+      <c r="E199" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="F199" s="32" t="s">
+      <c r="F199" s="26" t="s">
         <v>45</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -6016,11 +6019,11 @@
       <c r="A200" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="31"/>
-      <c r="F200" s="32"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="37"/>
+      <c r="F200" s="26"/>
       <c r="G200" s="9" t="s">
         <v>46</v>
       </c>
@@ -6034,10 +6037,10 @@
       <c r="A201" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="31"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="37"/>
       <c r="F201" s="9" t="s">
         <v>47</v>
       </c>
@@ -6052,10 +6055,10 @@
       <c r="A202" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="31"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="37"/>
       <c r="F202" s="9" t="s">
         <v>34</v>
       </c>
@@ -6070,10 +6073,10 @@
       <c r="A203" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B203" s="32"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="31"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="37"/>
       <c r="F203" s="9" t="s">
         <v>48</v>
       </c>
@@ -6088,10 +6091,10 @@
       <c r="A204" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="31"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="37"/>
       <c r="F204" s="9" t="s">
         <v>35</v>
       </c>
@@ -6106,10 +6109,10 @@
       <c r="A205" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B205" s="32"/>
-      <c r="C205" s="32"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="31"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="37"/>
       <c r="F205" s="9" t="s">
         <v>49</v>
       </c>
@@ -6124,10 +6127,10 @@
       <c r="A206" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="31"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="37"/>
       <c r="F206" s="9" t="s">
         <v>36</v>
       </c>
@@ -6140,20 +6143,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="D199:D206"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B193"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C38:C193"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D45:D63"/>
-    <mergeCell ref="D65:D155"/>
-    <mergeCell ref="D156:D193"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="E188:E193"/>
+    <mergeCell ref="E199:E206"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="E89:E112"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="E113:E136"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="E137:E149"/>
+    <mergeCell ref="F115:F118"/>
+    <mergeCell ref="F119:F126"/>
+    <mergeCell ref="F127:F132"/>
     <mergeCell ref="F133:F136"/>
     <mergeCell ref="F49:F53"/>
     <mergeCell ref="E45:E54"/>
@@ -6170,21 +6174,20 @@
     <mergeCell ref="E60:E63"/>
     <mergeCell ref="E68:E88"/>
     <mergeCell ref="F107:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="E188:E193"/>
-    <mergeCell ref="E199:E206"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="E89:E112"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="E150:E155"/>
-    <mergeCell ref="E113:E136"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="E137:E149"/>
-    <mergeCell ref="F115:F118"/>
-    <mergeCell ref="F119:F126"/>
-    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B193"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C38:C193"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D45:D63"/>
+    <mergeCell ref="D65:D155"/>
+    <mergeCell ref="D156:D193"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma 19052 SCPI Commands.xlsx
+++ b/Chroma 19052 SCPI Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taboada.r248\Documents\LabVIEW Data\CHROMA-1905X-series-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FE9A1-5AFB-4627-B976-28BB284552C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC30C7D-8A84-4B65-82B7-5B2185E3A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4260" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="336">
   <si>
     <t>:SYSTem</t>
   </si>
@@ -500,9 +500,6 @@
     <t>*RST</t>
   </si>
   <si>
-    <t>IEEE 488.2 Commands</t>
-  </si>
-  <si>
     <t>SCPI Commands</t>
   </si>
   <si>
@@ -1044,6 +1041,9 @@
   </si>
   <si>
     <t>:DWEL?</t>
+  </si>
+  <si>
+    <t>Data/Results</t>
   </si>
 </sst>
 </file>
@@ -1111,20 +1111,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1170,12 +1171,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,35 +1289,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,12 +1307,26 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,13 +1669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E45" sqref="E45:E54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
@@ -1706,198 +1691,196 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.4">
-      <c r="C2" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="C2" s="14"/>
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S17" s="12"/>
     </row>
@@ -1906,9 +1889,9 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1918,10 +1901,10 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S20" t="str">
         <f>CONCATENATE($B$20,C20,D20)</f>
@@ -1930,18 +1913,18 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="B21" s="33"/>
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="6"/>
       <c r="I21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S21" t="str">
         <f>CONCATENATE($B$20,C21,D21)</f>
@@ -1950,18 +1933,18 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="B22" s="33"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="6"/>
       <c r="I22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S22" t="str">
         <f>CONCATENATE($B$20,C22,D22)</f>
@@ -1970,18 +1953,18 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="B23" s="33"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6"/>
       <c r="I23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S23" t="str">
         <f>CONCATENATE($B$20,C23,D23)</f>
@@ -1990,20 +1973,20 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S24" t="str">
         <f>CONCATENATE($B$20,$C$24,D24)</f>
@@ -2012,18 +1995,18 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S25" t="str">
         <f>CONCATENATE($B$20,$C$24,D25)</f>
@@ -2032,18 +2015,18 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S26" t="str">
         <f>CONCATENATE($B$20,$C$24,D26)</f>
@@ -2052,21 +2035,21 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="27"/>
+        <v>250</v>
+      </c>
+      <c r="B27" s="33"/>
       <c r="C27" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S27" t="str">
         <f>CONCATENATE($B$20,C27,D27)</f>
@@ -2075,21 +2058,21 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B28" s="27"/>
+        <v>250</v>
+      </c>
+      <c r="B28" s="33"/>
       <c r="C28" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S28" t="str">
         <f>CONCATENATE($B$20,C28,D28)</f>
@@ -2104,9 +2087,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2116,10 +2099,10 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S30" t="str">
         <f>CONCATENATE($B$30,C30,D30)</f>
@@ -2128,20 +2111,20 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S31" t="str">
         <f>CONCATENATE($B$30,$C$31,D31)</f>
@@ -2150,18 +2133,18 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S32" t="str">
         <f>CONCATENATE($B$30,$C$31,D32)</f>
@@ -2170,10 +2153,10 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2181,10 +2164,10 @@
       </c>
       <c r="E33" s="7"/>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S33" t="str">
         <f>CONCATENATE($B$30,$C$33,D33)</f>
@@ -2193,18 +2176,18 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S34" t="str">
         <f>CONCATENATE($B$30,$C$33,D34)</f>
@@ -2213,18 +2196,18 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S35" t="str">
         <f>CONCATENATE($B$30,$C$33,D35)</f>
@@ -2233,18 +2216,18 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="B36" s="34"/>
       <c r="C36" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1"/>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S36" t="str">
         <f>CONCATENATE($B$30,C36,D36)</f>
@@ -2259,12 +2242,12 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2275,10 +2258,10 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S38" t="str">
         <f>CONCATENATE($B$38,$C$38,D38,E38,F38,$G$38)</f>
@@ -2287,11 +2270,11 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2301,10 +2284,10 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S39" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$39,E39,F39,$G$38)</f>
@@ -2313,11 +2296,11 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2325,10 +2308,10 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" ref="S40:S42" si="0">CONCATENATE($B$38,$C$38,$D$39,E40,F40,$G$38)</f>
@@ -2337,11 +2320,11 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2349,10 +2332,10 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="0"/>
@@ -2361,11 +2344,11 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
@@ -2373,10 +2356,10 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S42" t="str">
         <f t="shared" si="0"/>
@@ -2385,10 +2368,10 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2397,10 +2380,10 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S43" t="str">
         <f>CONCATENATE($B$38,$C$38,D43,E43)</f>
@@ -2409,10 +2392,10 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2421,10 +2404,10 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S44" t="str">
         <f>CONCATENATE($B$38,$C$38,D44,E44)</f>
@@ -2433,14 +2416,14 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2448,8 +2431,11 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="K45" s="23" t="s">
-        <v>180</v>
+      <c r="I45" t="s">
+        <v>335</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="S45" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,F45,G45)</f>
@@ -2458,19 +2444,22 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="39"/>
+        <v>156</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="K46" s="23" t="s">
-        <v>181</v>
+      <c r="I46" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>180</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" ref="S46:S48" si="1">CONCATENATE($B$38,$C$38,$D$45,$E$45,F46,G46)</f>
@@ -2479,19 +2468,22 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="K47" s="23" t="s">
-        <v>182</v>
+      <c r="I47" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" si="1"/>
@@ -2500,19 +2492,22 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="39"/>
+        <v>156</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="K48" s="23" t="s">
-        <v>183</v>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" si="1"/>
@@ -2521,21 +2516,24 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="K49" s="23" t="s">
-        <v>184</v>
+      <c r="I49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>183</v>
       </c>
       <c r="S49" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,$F$49,G49)</f>
@@ -2544,19 +2542,22 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="K50" s="23" t="s">
-        <v>185</v>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" ref="S50:S53" si="2">CONCATENATE($B$38,$C$38,$D$45,$E$45,$F$49,G50)</f>
@@ -2565,19 +2566,22 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="K51" s="23" t="s">
-        <v>186</v>
+      <c r="I51" t="s">
+        <v>335</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" si="2"/>
@@ -2586,19 +2590,22 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="K52" s="23" t="s">
-        <v>187</v>
+      <c r="I52" t="s">
+        <v>335</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" si="2"/>
@@ -2607,19 +2614,22 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
       <c r="G53" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" t="s">
         <v>335</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="K53" s="23" t="s">
-        <v>188</v>
+      <c r="K53" s="35" t="s">
+        <v>187</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" si="2"/>
@@ -2628,19 +2638,22 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="39"/>
+        <v>156</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="K54" s="23" t="s">
-        <v>189</v>
+      <c r="I54" t="s">
+        <v>335</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="S54" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$45,F54,G54)</f>
@@ -2649,19 +2662,22 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
+        <v>156</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="K55" s="23" t="s">
-        <v>190</v>
+      <c r="I55" t="s">
+        <v>335</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="S55" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,E55,F55,G55,H55)</f>
@@ -2670,12 +2686,12 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2683,8 +2699,11 @@
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="K56" s="23" t="s">
-        <v>191</v>
+      <c r="I56" t="s">
+        <v>335</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>190</v>
       </c>
       <c r="S56" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F56,G56,H56)</f>
@@ -2693,19 +2712,22 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="K57" s="23" t="s">
-        <v>192</v>
+      <c r="I57" t="s">
+        <v>335</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="S57" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F57,G57,H57)</f>
@@ -2714,19 +2736,22 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="K58" s="23" t="s">
-        <v>193</v>
+      <c r="I58" t="s">
+        <v>335</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="S58" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F58,G58,H58)</f>
@@ -2735,19 +2760,22 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="K59" s="23" t="s">
-        <v>194</v>
+      <c r="I59" t="s">
+        <v>335</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$56,F59,G59,H59)</f>
@@ -2756,12 +2784,12 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32" t="s">
         <v>53</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2769,8 +2797,11 @@
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="K60" s="23" t="s">
-        <v>195</v>
+      <c r="I60" t="s">
+        <v>335</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="S60" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F60,G60,H60)</f>
@@ -2779,19 +2810,22 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="K61" s="23" t="s">
-        <v>196</v>
+      <c r="I61" t="s">
+        <v>335</v>
+      </c>
+      <c r="K61" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="S61" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F61,G61,H61)</f>
@@ -2800,19 +2834,22 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="K62" s="23" t="s">
-        <v>197</v>
+      <c r="I62" t="s">
+        <v>335</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="S62" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F62,G62,H62)</f>
@@ -2821,19 +2858,22 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="K63" s="23" t="s">
-        <v>198</v>
+      <c r="I63" t="s">
+        <v>335</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="S63" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$45,$E$60,F63,G63,H63)</f>
@@ -2842,10 +2882,10 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
@@ -2854,10 +2894,10 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S64" t="str">
         <f>CONCATENATE($B$38,$C$38,D64,E64,F64,G64,H64)</f>
@@ -2866,11 +2906,11 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2880,10 +2920,10 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S65" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E65,F65,G65,H65)</f>
@@ -2892,11 +2932,11 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="2" t="s">
         <v>56</v>
       </c>
@@ -2904,10 +2944,10 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S66" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E66,F66,G66,H66)</f>
@@ -2916,11 +2956,11 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="2" t="s">
         <v>42</v>
       </c>
@@ -2928,10 +2968,10 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S67" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,E67,F67,G67,H67)</f>
@@ -2940,12 +2980,12 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="30" t="s">
         <v>57</v>
       </c>
       <c r="F68" s="16" t="s">
@@ -2954,10 +2994,10 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S68" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F68,G68,H68)</f>
@@ -2966,22 +3006,22 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S69" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,F69,G69,H69)</f>
@@ -2990,13 +3030,13 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -3004,10 +3044,10 @@
       </c>
       <c r="H70" s="11"/>
       <c r="I70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S70" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G70,H70)</f>
@@ -3016,22 +3056,22 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="24"/>
       <c r="G71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S71" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G71,H71)</f>
@@ -3040,22 +3080,22 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="24"/>
       <c r="G72" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S72" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G72,H72)</f>
@@ -3064,22 +3104,22 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="24"/>
       <c r="G73" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S73" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,G73,H73)</f>
@@ -3088,24 +3128,24 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S74" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H74)</f>
@@ -3114,22 +3154,22 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="30"/>
       <c r="H75" s="11" t="s">
         <v>60</v>
       </c>
       <c r="I75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S75" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$74,H75)</f>
@@ -3138,24 +3178,24 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="30" t="s">
         <v>67</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>68</v>
       </c>
       <c r="I76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S76" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H76)</f>
@@ -3164,22 +3204,22 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="30"/>
       <c r="H77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S77" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$70,$G$76,H77)</f>
@@ -3188,13 +3228,13 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -3202,10 +3242,10 @@
       </c>
       <c r="H78" s="11"/>
       <c r="I78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S78" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G78,H78)</f>
@@ -3214,22 +3254,22 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="24"/>
       <c r="G79" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ref="S79:S82" si="3">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$78,G79,H79)</f>
@@ -3238,22 +3278,22 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="24"/>
       <c r="G80" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" si="3"/>
@@ -3262,22 +3302,22 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="24"/>
       <c r="G81" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S81" t="str">
         <f t="shared" si="3"/>
@@ -3286,22 +3326,22 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="24"/>
       <c r="G82" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="3"/>
@@ -3309,25 +3349,25 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="A83" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H83" s="24"/>
+      <c r="H83" s="23"/>
       <c r="I83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S83" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G83,H83)</f>
@@ -3335,23 +3375,23 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="24" t="s">
+      <c r="A84" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H84" s="24"/>
+      <c r="H84" s="23"/>
       <c r="I84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" ref="S84:S86" si="4">CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$83,G84,H84)</f>
@@ -3359,23 +3399,23 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="24" t="s">
+      <c r="A85" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="24"/>
+      <c r="H85" s="23"/>
       <c r="I85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S85" t="str">
         <f t="shared" si="4"/>
@@ -3383,23 +3423,23 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="24" t="s">
+      <c r="A86" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H86" s="24"/>
+      <c r="H86" s="23"/>
       <c r="I86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" si="4"/>
@@ -3408,13 +3448,13 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="24" t="s">
         <v>75</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -3422,10 +3462,10 @@
       </c>
       <c r="H87" s="11"/>
       <c r="I87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S87" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G87,H87)</f>
@@ -3433,23 +3473,23 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="31"/>
+      <c r="A88" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="24"/>
       <c r="G88" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S88" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$68,$F$87,G88,H88)</f>
@@ -3458,12 +3498,12 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="30" t="s">
         <v>77</v>
       </c>
       <c r="F89" s="16" t="s">
@@ -3472,10 +3512,10 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S89" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F89,G89,H89)</f>
@@ -3484,22 +3524,22 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S90" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F90,G90,H90)</f>
@@ -3508,13 +3548,13 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -3522,10 +3562,10 @@
       </c>
       <c r="H91" s="11"/>
       <c r="I91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S91" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G91,H91)</f>
@@ -3534,22 +3574,22 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="24"/>
       <c r="G92" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K92" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" ref="S92:S94" si="5">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,G92,H92)</f>
@@ -3558,22 +3598,22 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="24"/>
       <c r="G93" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" si="5"/>
@@ -3582,22 +3622,22 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="24"/>
       <c r="G94" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" si="5"/>
@@ -3606,24 +3646,24 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="30" t="s">
         <v>82</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>66</v>
       </c>
       <c r="I95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K95" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S95" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H95)</f>
@@ -3632,22 +3672,22 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="30"/>
       <c r="H96" s="11" t="s">
         <v>60</v>
       </c>
       <c r="I96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S96" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$91,$G$95,H96)</f>
@@ -3656,22 +3696,22 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="16" t="s">
         <v>78</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S97" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F97,G834,H97)</f>
@@ -3680,22 +3720,22 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="16" t="s">
         <v>79</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S98" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,F98,G835,H98)</f>
@@ -3704,13 +3744,13 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -3718,10 +3758,10 @@
       </c>
       <c r="H99" s="11"/>
       <c r="I99" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K99" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S99" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G99,H99)</f>
@@ -3730,22 +3770,22 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="24"/>
       <c r="G100" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S100" t="str">
         <f t="shared" ref="S100:S106" si="6">CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$99,G100,H100)</f>
@@ -3754,22 +3794,22 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="24"/>
       <c r="G101" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="6"/>
@@ -3778,22 +3818,22 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="24"/>
       <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S102" t="str">
         <f t="shared" si="6"/>
@@ -3802,22 +3842,22 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="24"/>
       <c r="G103" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S103" t="str">
         <f t="shared" si="6"/>
@@ -3826,22 +3866,22 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="24"/>
       <c r="G104" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S104" t="str">
         <f t="shared" si="6"/>
@@ -3850,22 +3890,22 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="24"/>
       <c r="G105" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S105" t="str">
         <f t="shared" si="6"/>
@@ -3874,22 +3914,22 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="24"/>
       <c r="G106" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S106" t="str">
         <f t="shared" si="6"/>
@@ -3897,74 +3937,74 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="33" t="s">
+      <c r="A107" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G107" s="24" t="s">
+      <c r="G107" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H107" s="24"/>
+      <c r="H107" s="23"/>
       <c r="S107" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G107,H107)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="24" t="s">
+      <c r="A108" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H108" s="24"/>
+      <c r="H108" s="23"/>
       <c r="S108" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G108,H108)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel[:HIGH]?</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="24" t="s">
+      <c r="A109" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H109" s="24"/>
+      <c r="H109" s="23"/>
       <c r="S109" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G109,H109)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="24" t="s">
+      <c r="A110" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H110" s="24"/>
+      <c r="H110" s="23"/>
       <c r="S110" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$107,G110,H110)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:DC:CHANnel:LOW?</v>
@@ -3972,13 +4012,13 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="24" t="s">
         <v>75</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -3986,10 +4026,10 @@
       </c>
       <c r="H111" s="11"/>
       <c r="I111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K111" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S111" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G111,H111)</f>
@@ -3998,22 +4038,22 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="24"/>
       <c r="G112" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K112" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S112" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$89,$F$111,G112,H112)</f>
@@ -4022,12 +4062,12 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F113" s="16" t="s">
@@ -4036,10 +4076,10 @@
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S113" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F113,G113,H113)</f>
@@ -4048,22 +4088,22 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S114" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,F114,G114,H114)</f>
@@ -4072,13 +4112,13 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G115" s="11" t="s">
@@ -4086,10 +4126,10 @@
       </c>
       <c r="H115" s="11"/>
       <c r="I115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K115" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S115" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G115,H115)</f>
@@ -4098,22 +4138,22 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="24"/>
       <c r="G116" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S116" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G116,H116)</f>
@@ -4122,22 +4162,22 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="24"/>
       <c r="G117" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S117" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G117,H117)</f>
@@ -4146,22 +4186,22 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="24"/>
       <c r="G118" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H118" s="11"/>
       <c r="I118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S118" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$115,G118,H118)</f>
@@ -4170,13 +4210,13 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G119" s="11" t="s">
@@ -4184,10 +4224,10 @@
       </c>
       <c r="H119" s="11"/>
       <c r="I119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" ref="S119:S126" si="7">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$119,G119,H119)</f>
@@ -4196,22 +4236,22 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="24"/>
       <c r="G120" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H120" s="11"/>
       <c r="I120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S120" t="str">
         <f t="shared" si="7"/>
@@ -4220,22 +4260,22 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="24"/>
       <c r="G121" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S121" t="str">
         <f t="shared" si="7"/>
@@ -4244,22 +4284,22 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="24"/>
       <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S122" t="str">
         <f t="shared" si="7"/>
@@ -4268,22 +4308,22 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="24"/>
       <c r="G123" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S123" t="str">
         <f t="shared" si="7"/>
@@ -4292,22 +4332,22 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="24"/>
       <c r="G124" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K124" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S124" t="str">
         <f t="shared" si="7"/>
@@ -4316,22 +4356,22 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="24"/>
       <c r="G125" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H125" s="11"/>
       <c r="I125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S125" t="str">
         <f t="shared" si="7"/>
@@ -4340,22 +4380,22 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="24"/>
       <c r="G126" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H126" s="11"/>
       <c r="I126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S126" t="str">
         <f t="shared" si="7"/>
@@ -4364,13 +4404,13 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="24" t="s">
         <v>84</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -4378,10 +4418,10 @@
       </c>
       <c r="H127" s="11"/>
       <c r="I127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S127" t="str">
         <f t="shared" ref="S127:S132" si="8">CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$127,G127,H127)</f>
@@ -4390,22 +4430,22 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="24"/>
       <c r="G128" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H128" s="11"/>
       <c r="I128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S128" t="str">
         <f t="shared" si="8"/>
@@ -4414,22 +4454,22 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="24"/>
       <c r="G129" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K129" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S129" t="str">
         <f t="shared" si="8"/>
@@ -4438,22 +4478,22 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="24"/>
       <c r="G130" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H130" s="11"/>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K130" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S130" t="str">
         <f t="shared" si="8"/>
@@ -4462,22 +4502,22 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="24"/>
       <c r="G131" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K131" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S131" t="str">
         <f t="shared" si="8"/>
@@ -4486,22 +4526,22 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="24"/>
       <c r="G132" s="11" t="s">
         <v>90</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" si="8"/>
@@ -4510,13 +4550,13 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="24" t="s">
         <v>72</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -4524,10 +4564,10 @@
       </c>
       <c r="H133" s="11"/>
       <c r="I133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K133" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S133" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G133,H133)</f>
@@ -4536,22 +4576,22 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="24"/>
       <c r="G134" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H134" s="11"/>
       <c r="I134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K134" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S134" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G134,H134)</f>
@@ -4560,22 +4600,22 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="24"/>
       <c r="G135" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H135" s="11"/>
       <c r="I135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K135" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S135" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G135,H135)</f>
@@ -4584,22 +4624,22 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="24"/>
       <c r="G136" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H136" s="11"/>
       <c r="I136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K136" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S136" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$113,$F$133,G136,H136)</f>
@@ -4608,15 +4648,15 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F137" s="31" t="s">
+      <c r="F137" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G137" s="11" t="s">
@@ -4624,10 +4664,10 @@
       </c>
       <c r="H137" s="11"/>
       <c r="I137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K137" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S137" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G137,H137)</f>
@@ -4636,22 +4676,22 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="24"/>
       <c r="G138" s="11" t="s">
         <v>93</v>
       </c>
       <c r="H138" s="11"/>
       <c r="I138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S138" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G138,H138)</f>
@@ -4660,22 +4700,22 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="24"/>
       <c r="G139" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S139" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G139,H139)</f>
@@ -4684,22 +4724,22 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="31"/>
+        <v>156</v>
+      </c>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="24"/>
       <c r="G140" s="11" t="s">
         <v>95</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S140" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$137,G140,H140)</f>
@@ -4707,74 +4747,74 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="33" t="s">
+      <c r="A141" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="24" t="s">
+      <c r="G141" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H141" s="24"/>
+      <c r="H141" s="23"/>
       <c r="S141" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G141,H141)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH] &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="24" t="s">
+      <c r="A142" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H142" s="24"/>
+      <c r="H142" s="23"/>
       <c r="S142" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G142,H142)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel[:HIGH]?</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="24" t="s">
+      <c r="A143" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H143" s="24"/>
+      <c r="H143" s="23"/>
       <c r="S143" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G143,H143)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW &lt;channel_list&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="24" t="s">
+      <c r="A144" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H144" s="24"/>
+      <c r="H144" s="23"/>
       <c r="S144" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$141,G144,H144)</f>
         <v>:SOURce:SAFEty:STEP &lt;n&gt;:OSC:CHANnel:LOW?</v>
@@ -4782,22 +4822,22 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="11" t="s">
         <v>96</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K145" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S145" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F145,G145,H145)</f>
@@ -4806,13 +4846,13 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30" t="s">
         <v>97</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -4820,10 +4860,10 @@
       </c>
       <c r="H146" s="11"/>
       <c r="I146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S146" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G146,H146)</f>
@@ -4832,22 +4872,22 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
       <c r="G147" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H147" s="11"/>
       <c r="I147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S147" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,$F$146,G147,H147)</f>
@@ -4856,22 +4896,22 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="30"/>
       <c r="F148" s="11" t="s">
         <v>98</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S148" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F148,G148,H148)</f>
@@ -4880,22 +4920,22 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="30"/>
       <c r="F149" s="11" t="s">
         <v>99</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S149" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$137,F149,G149,H149)</f>
@@ -4904,12 +4944,12 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="30" t="s">
         <v>104</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -4918,10 +4958,10 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K150" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S150" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F150,G150,H150)</f>
@@ -4930,22 +4970,22 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="11" t="s">
         <v>101</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K151" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S151" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F151,G151,H151)</f>
@@ -4954,22 +4994,22 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="30"/>
       <c r="F152" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S152" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F152,G152,H152)</f>
@@ -4978,22 +5018,22 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="11" t="s">
         <v>103</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S153" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,F153,G153,H153)</f>
@@ -5002,13 +5042,13 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -5016,10 +5056,10 @@
       </c>
       <c r="H154" s="11"/>
       <c r="I154" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S154" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G154,H154)</f>
@@ -5028,22 +5068,22 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
       <c r="G155" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H155" s="11"/>
       <c r="I155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S155" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$65,$E$150,$F$154,G155,H155)</f>
@@ -5052,11 +5092,11 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32" t="s">
         <v>105</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -5066,10 +5106,10 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S156" t="str">
         <f t="shared" ref="S156:S187" si="9">CONCATENATE($B$38,$C$38,$D$156,E156,F156,G156,H156)</f>
@@ -5078,11 +5118,11 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
       <c r="E157" s="8" t="s">
         <v>106</v>
       </c>
@@ -5090,10 +5130,10 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K157" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" si="9"/>
@@ -5102,11 +5142,11 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
       <c r="E158" s="8" t="s">
         <v>107</v>
       </c>
@@ -5114,10 +5154,10 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" si="9"/>
@@ -5126,11 +5166,11 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
       <c r="E159" s="8" t="s">
         <v>108</v>
       </c>
@@ -5138,10 +5178,10 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K159" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" si="9"/>
@@ -5150,11 +5190,11 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
       <c r="E160" s="8" t="s">
         <v>44</v>
       </c>
@@ -5162,10 +5202,10 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S160" t="str">
         <f t="shared" si="9"/>
@@ -5174,11 +5214,11 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
       <c r="E161" s="8" t="s">
         <v>109</v>
       </c>
@@ -5186,10 +5226,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K161" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S161" t="str">
         <f t="shared" si="9"/>
@@ -5198,11 +5238,11 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
       <c r="E162" s="8" t="s">
         <v>110</v>
       </c>
@@ -5210,10 +5250,10 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" si="9"/>
@@ -5222,11 +5262,11 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
       <c r="E163" s="8" t="s">
         <v>57</v>
       </c>
@@ -5234,10 +5274,10 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K163" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" si="9"/>
@@ -5246,11 +5286,11 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
       <c r="E164" s="8" t="s">
         <v>111</v>
       </c>
@@ -5258,10 +5298,10 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K164" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" si="9"/>
@@ -5270,11 +5310,11 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B165" s="32"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
       <c r="E165" s="8" t="s">
         <v>112</v>
       </c>
@@ -5282,10 +5322,10 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K165" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" si="9"/>
@@ -5294,11 +5334,11 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B166" s="32"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
       <c r="E166" s="8" t="s">
         <v>113</v>
       </c>
@@ -5306,10 +5346,10 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S166" t="str">
         <f t="shared" si="9"/>
@@ -5318,11 +5358,11 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
       <c r="E167" s="8" t="s">
         <v>114</v>
       </c>
@@ -5330,10 +5370,10 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K167" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S167" t="str">
         <f t="shared" si="9"/>
@@ -5342,11 +5382,11 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
       <c r="E168" s="8" t="s">
         <v>115</v>
       </c>
@@ -5354,10 +5394,10 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K168" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" si="9"/>
@@ -5366,11 +5406,11 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
       <c r="E169" s="8" t="s">
         <v>116</v>
       </c>
@@ -5378,10 +5418,10 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" si="9"/>
@@ -5390,11 +5430,11 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
       <c r="E170" s="8" t="s">
         <v>117</v>
       </c>
@@ -5402,10 +5442,10 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K170" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" si="9"/>
@@ -5414,11 +5454,11 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
       <c r="E171" s="8" t="s">
         <v>118</v>
       </c>
@@ -5426,10 +5466,10 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K171" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S171" t="str">
         <f t="shared" si="9"/>
@@ -5438,11 +5478,11 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
       <c r="E172" s="8" t="s">
         <v>119</v>
       </c>
@@ -5450,10 +5490,10 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S172" t="str">
         <f t="shared" si="9"/>
@@ -5462,11 +5502,11 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
       <c r="E173" s="8" t="s">
         <v>120</v>
       </c>
@@ -5474,10 +5514,10 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S173" t="str">
         <f t="shared" si="9"/>
@@ -5486,11 +5526,11 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B174" s="32"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
       <c r="E174" s="8" t="s">
         <v>121</v>
       </c>
@@ -5498,10 +5538,10 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" si="9"/>
@@ -5510,11 +5550,11 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B175" s="32"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
       <c r="E175" s="8" t="s">
         <v>122</v>
       </c>
@@ -5522,10 +5562,10 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K175" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S175" t="str">
         <f t="shared" si="9"/>
@@ -5534,11 +5574,11 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
       <c r="E176" s="8" t="s">
         <v>123</v>
       </c>
@@ -5546,10 +5586,10 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S176" t="str">
         <f t="shared" si="9"/>
@@ -5558,11 +5598,11 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
       <c r="E177" s="8" t="s">
         <v>124</v>
       </c>
@@ -5570,10 +5610,10 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S177" t="str">
         <f t="shared" si="9"/>
@@ -5582,11 +5622,11 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
       <c r="E178" s="8" t="s">
         <v>125</v>
       </c>
@@ -5594,10 +5634,10 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="I178" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S178" t="str">
         <f t="shared" si="9"/>
@@ -5606,11 +5646,11 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
       <c r="E179" s="8" t="s">
         <v>126</v>
       </c>
@@ -5618,10 +5658,10 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S179" t="str">
         <f t="shared" si="9"/>
@@ -5630,11 +5670,11 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
-      <c r="D180" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
       <c r="E180" s="8" t="s">
         <v>127</v>
       </c>
@@ -5642,10 +5682,10 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K180" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S180" t="str">
         <f t="shared" si="9"/>
@@ -5654,11 +5694,11 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
       <c r="E181" s="8" t="s">
         <v>128</v>
       </c>
@@ -5666,10 +5706,10 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="I181" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K181" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S181" t="str">
         <f t="shared" si="9"/>
@@ -5678,11 +5718,11 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
       <c r="E182" s="8" t="s">
         <v>129</v>
       </c>
@@ -5690,10 +5730,10 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K182" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" si="9"/>
@@ -5702,11 +5742,11 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
       <c r="E183" s="8" t="s">
         <v>130</v>
       </c>
@@ -5714,10 +5754,10 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S183" t="str">
         <f t="shared" si="9"/>
@@ -5726,11 +5766,11 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
       <c r="E184" s="8" t="s">
         <v>131</v>
       </c>
@@ -5738,10 +5778,10 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K184" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" si="9"/>
@@ -5750,11 +5790,11 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
       <c r="E185" s="8" t="s">
         <v>132</v>
       </c>
@@ -5762,10 +5802,10 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K185" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" si="9"/>
@@ -5774,11 +5814,11 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
       <c r="E186" s="8" t="s">
         <v>133</v>
       </c>
@@ -5786,10 +5826,10 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="I186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S186" t="str">
         <f t="shared" si="9"/>
@@ -5798,11 +5838,11 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
       <c r="E187" s="8" t="s">
         <v>110</v>
       </c>
@@ -5810,10 +5850,10 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K187" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S187" t="str">
         <f t="shared" si="9"/>
@@ -5822,24 +5862,24 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F188" s="25" t="s">
-        <v>260</v>
+      <c r="F188" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S188" t="str">
         <f>CONCATENATE($B$38,$C$38,$D$156,$E$188,F188,G188,H188)</f>
@@ -5848,22 +5888,22 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="26"/>
       <c r="F189" s="8" t="s">
         <v>135</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="I189" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S189" t="str">
         <f t="shared" ref="S189:S193" si="10">CONCATENATE($B$38,$C$38,$D$156,$E$188,F189,G189,H189)</f>
@@ -5872,22 +5912,22 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="35"/>
-      <c r="F190" s="25" t="s">
-        <v>261</v>
+        <v>156</v>
+      </c>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K190" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S190" t="str">
         <f t="shared" si="10"/>
@@ -5896,22 +5936,22 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="26"/>
       <c r="F191" s="8" t="s">
         <v>136</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K191" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" si="10"/>
@@ -5920,22 +5960,22 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="25" t="s">
-        <v>262</v>
+        <v>156</v>
+      </c>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="I192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K192" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S192" t="str">
         <f t="shared" si="10"/>
@@ -5944,22 +5984,22 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="36"/>
+        <v>156</v>
+      </c>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="27"/>
       <c r="F193" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="I193" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S193" t="str">
         <f t="shared" si="10"/>
@@ -5989,21 +6029,21 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B199" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B199" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="26" t="s">
+      <c r="C199" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="37" t="s">
+      <c r="E199" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F199" s="26" t="s">
+      <c r="F199" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -6017,13 +6057,13 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="37"/>
-      <c r="F200" s="26"/>
+        <v>250</v>
+      </c>
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="29"/>
       <c r="G200" s="9" t="s">
         <v>46</v>
       </c>
@@ -6035,12 +6075,12 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="37"/>
+        <v>250</v>
+      </c>
+      <c r="B201" s="29"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="28"/>
       <c r="F201" s="9" t="s">
         <v>47</v>
       </c>
@@ -6053,12 +6093,12 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="37"/>
+        <v>250</v>
+      </c>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="28"/>
       <c r="F202" s="9" t="s">
         <v>34</v>
       </c>
@@ -6071,12 +6111,12 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="37"/>
+        <v>250</v>
+      </c>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="28"/>
       <c r="F203" s="9" t="s">
         <v>48</v>
       </c>
@@ -6089,12 +6129,12 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="37"/>
+        <v>250</v>
+      </c>
+      <c r="B204" s="29"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="28"/>
       <c r="F204" s="9" t="s">
         <v>35</v>
       </c>
@@ -6107,12 +6147,12 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="37"/>
+        <v>250</v>
+      </c>
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="28"/>
       <c r="F205" s="9" t="s">
         <v>49</v>
       </c>
@@ -6125,12 +6165,12 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="37"/>
+        <v>250</v>
+      </c>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="28"/>
       <c r="F206" s="9" t="s">
         <v>36</v>
       </c>
@@ -6143,6 +6183,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B193"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C38:C193"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D45:D63"/>
+    <mergeCell ref="D65:D155"/>
+    <mergeCell ref="D156:D193"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E68:E88"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="E188:E193"/>
     <mergeCell ref="E199:E206"/>
@@ -6159,37 +6228,8 @@
     <mergeCell ref="F119:F126"/>
     <mergeCell ref="F127:F132"/>
     <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E68:E88"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="D199:D206"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B193"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C38:C193"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D45:D63"/>
-    <mergeCell ref="D65:D155"/>
-    <mergeCell ref="D156:D193"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
